--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007DD69C-A3E1-460F-AFA6-44004B461DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2FB97-9047-4412-A5EE-E810FE3C0670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3795" windowWidth="9825" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,18 +233,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>**Learning poverty (%).** **`ind_value' percent** (*`ind_year'*) of 10-year-olds cannot read and understand a simple text by the end of primary school.</t>
-  </si>
-  <si>
-    <t>**Children receiving minimum meal frequency (%).** Adequate meal frequency among children 0-23 is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Youth NEET (%).** **`ind_value' percent** (`ind_year') of the youth is not in employment, education or training.</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality (deaths per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (`ind_year').</t>
-  </si>
-  <si>
     <t>unit_reginc</t>
   </si>
   <si>
@@ -353,128 +341,12 @@
     <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Infants fed exclusively with breast milk (%).** **`ind_value' percent** (*`ind_year'*) of infants 0-5 months are fed excusively with breast milk.</t>
-  </si>
-  <si>
-    <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of newborns have postnatal contact with health providers during theirfirst two days of life.</t>
-  </si>
-  <si>
-    <t>**Careseeking for febrile children (%).** **`ind_value' percent (*`ind_year'*) of children under age 5 with fever sought treatment or advice.</t>
-  </si>
-  <si>
-    <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life.</t>
-  </si>
-  <si>
-    <t>**Children engaged in child labour (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Children with diarrhea who attended health facility (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
     <t>**Labour force participation (%).** The labour force participation is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Prevalence of insufficient physical activity among school going adolescents (%).** The share of school going adolescents aged 11-17 years not meeting WHO recommendations on Physical Activity for Health is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women aged 15-19, is **`ind_value'** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Maternal mortality (deaths per 100,000 live births).** For every 100,000
-live births, **`ind_value' women** (*`ind_year'*) die from pregnancy related causes. </t>
-  </si>
-  <si>
-    <t>**Gross secondary school enrollment (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Gross tertiary education enrollment (%).** Tertiary education gross enrollment ratio is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>** Youth mortality (deaths per 1,000 youth aged 15).**  The mortality rate at age 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>** Child mortality (deaths per 1,000 youth aged 5).**  The mortality rate at age 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults (%)** The percentage of adults aged 18+ years with obesity in **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Probability of dying from NCDs (%).** The probability of dying from
-non-communicable diseases between the ages of 30 to 70 is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Repetition in primary education (%).** **`ind_value' percent** (*`ind_year'*) of students in primary education remained in the same grade in the following school year.</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%).** **`ind_value' percent** (*`ind_year'*) of women aged 18-29 years experienced sexual violence by age 18.</t>
-  </si>
-  <si>
-    <t>**Life expectancy at birth (years)**. Life expectancy at birth is **`ind_value' years** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value' per 1,000 total births** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Youth suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Anaemia in children (%)** **`ind_value' percent** (*`ind_year'*) of children aged 6–59 months has anaemia.</t>
-  </si>
-  <si>
     <t>**Children with pneumonia symptoms taken to a health facility (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** of children with pneumonia symptoms (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Primary school completion (%).** Primary school completion rate is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion (%).** Lower secondary school completion rate is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion (%).** Upper secondary school completion rate is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio in early childhood educational development programs (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment (%).** The pre-primary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Adult unemployment (%).** Unemployment among adults with more than 25 years is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Youth unemployment (%).** Unemployment among youth aged 15-24 is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to a handwashing facility with soap and water at home.</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to an improved sanitation facility at home.</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes.</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%).** The coverage of the BCG vaccine is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination (%).** Diphtheria vaccine coverage is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination (%).** Hepatitis B vaccine coverage is **`ind_value' percent** (*`ind_year'*).</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
@@ -485,6 +357,132 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Infants fed exclusively with breast milk (%).** **`ind_value' percent** (*`ind_year'*) of infants 0-5 months are fed excusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of newborns have postnatal contact with health providers during theirfirst two days of life</t>
+  </si>
+  <si>
+    <t>**Careseeking for febrile children (%).** **`ind_value' percent (*`ind_year'*) of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Children engaged in child labour (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Children with diarrhea who attended health facility (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth NEET (%).** **`ind_value' percent** (`ind_year') of the youth is not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity among school going adolescents (%).** The share of school going adolescents aged 11-17 years not meeting WHO recommendations on Physical Activity for Health is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women aged 15-19, is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Maternal mortality (deaths per 100,000 live births).** For every 100,000 live births, **`ind_value' women** (*`ind_year'*) die from pregnancy related causes</t>
+  </si>
+  <si>
+    <t>**Gross secondary school enrollment (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross tertiary education enrollment (%).** Tertiary education gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Children receiving minimum meal frequency (%).** Adequate meal frequency among children 0-23 is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>** Youth mortality (deaths per 1,000 youth aged 15).**  The mortality rate at age 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>** Child mortality (deaths per 1,000 youth aged 5).**  The mortality rate at age 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality (deaths per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults (%)** The percentage of adults aged 18+ years with obesity in **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Repetition in primary education (%).** **`ind_value' percent** (*`ind_year'*) of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%).** **`ind_value' percent** (*`ind_year'*) of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%).** **`ind_value' percent** (*`ind_year'*) of women aged 18-29 years experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>**Life expectancy at birth (years)**. Life expectancy at birth is **`ind_value' years** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value' per 1,000 total births** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Anaemia in children (%)** **`ind_value' percent** (*`ind_year'*) of children aged 6–59 months has anaemia</t>
+  </si>
+  <si>
+    <t>**Primary school completion (%).** Primary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion (%).** Lower secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion (%).** Upper secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio in early childhood educational development programs (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment (%).** The pre-primary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adult unemployment (%).** Unemployment among adults with more than 25 years is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth unemployment (%).** Unemployment among youth aged 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to an improved sanitation facility at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%).** The coverage of the BCG vaccine is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination (%).** Diphtheria vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination (%).** Hepatitis B vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -853,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78:F85"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +864,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,16 +922,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -943,16 +942,16 @@
         <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -963,16 +962,16 @@
         <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -983,16 +982,16 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1003,16 +1002,16 @@
         <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1023,16 +1022,16 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1043,16 +1042,16 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1063,16 +1062,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1083,16 +1082,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1103,16 +1102,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1123,16 +1122,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1143,16 +1142,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1163,16 +1162,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,10 +1182,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
@@ -1200,10 +1199,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -1217,10 +1216,10 @@
         <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>63</v>
@@ -1235,7 +1234,7 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
@@ -1249,16 +1248,16 @@
         <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1269,13 +1268,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1286,16 +1285,16 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1306,13 +1305,13 @@
         <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1323,16 +1322,16 @@
         <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1343,16 +1342,16 @@
         <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1363,16 +1362,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1383,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1400,13 +1399,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1417,13 +1416,13 @@
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1434,19 +1433,19 @@
         <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1454,19 +1453,19 @@
         <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1474,10 +1473,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1486,7 +1485,7 @@
       </c>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1494,19 +1493,20 @@
         <v>59</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1514,36 +1514,36 @@
         <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1551,19 +1551,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1571,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1588,16 +1588,16 @@
         <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1605,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1616,19 +1616,19 @@
         <v>61</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
         <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1636,19 +1636,19 @@
         <v>62</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
         <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1656,19 +1656,19 @@
         <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
         <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1676,19 +1676,19 @@
         <v>38</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1696,33 +1696,33 @@
         <v>21</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
         <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1733,16 +1733,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
         <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,10 +1753,10 @@
         <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
         <v>63</v>
@@ -1770,10 +1770,10 @@
         <v>24</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
         <v>63</v>
@@ -1787,10 +1787,10 @@
         <v>27</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
         <v>63</v>
@@ -1804,10 +1804,10 @@
         <v>28</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>63</v>
@@ -1821,10 +1821,10 @@
         <v>26</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
@@ -1838,10 +1838,10 @@
         <v>22</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
         <v>63</v>
@@ -1855,16 +1855,16 @@
         <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
         <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1875,16 +1875,16 @@
         <v>20</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1895,16 +1895,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1915,16 +1915,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1932,16 +1932,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
         <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1952,16 +1952,16 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1972,16 +1972,16 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
         <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1992,152 +1992,152 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
         <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2FB97-9047-4412-A5EE-E810FE3C0670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C131340-A8C5-4E54-B024-DD95F9C33D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3795" windowWidth="9825" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="145">
   <si>
     <t>name_portal</t>
   </si>
@@ -53,12 +53,6 @@
     <t>mort514</t>
   </si>
   <si>
-    <t>AID_deaths_1524</t>
-  </si>
-  <si>
-    <t>IDPs</t>
-  </si>
-  <si>
     <t>vacBCG</t>
   </si>
   <si>
@@ -77,15 +71,6 @@
     <t>child_labor</t>
   </si>
   <si>
-    <t>asr</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>qeyrs</t>
-  </si>
-  <si>
     <t>emp_nifl_a</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>uiscr3</t>
   </si>
   <si>
-    <t>uisxgdpfsgov</t>
-  </si>
-  <si>
     <t>uisger01</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
     <t>obesity</t>
   </si>
   <si>
-    <t>refugees</t>
-  </si>
-  <si>
     <t>repetition</t>
   </si>
   <si>
@@ -263,33 +242,18 @@
     <t>educ_exp</t>
   </si>
   <si>
-    <t>minprof_r_g23</t>
-  </si>
-  <si>
     <t>minprof_r_prim</t>
   </si>
   <si>
-    <t>minprof_r_lowsec</t>
-  </si>
-  <si>
-    <t>minprof_m_g23</t>
-  </si>
-  <si>
     <t>minprof_m_prim</t>
   </si>
   <si>
-    <t>minprof_m_lowsec</t>
-  </si>
-  <si>
     <t>out_school</t>
   </si>
   <si>
     <t>youth_lit</t>
   </si>
   <si>
-    <t>births_18</t>
-  </si>
-  <si>
     <t>met_fam_plan</t>
   </si>
   <si>
@@ -302,39 +266,6 @@
     <t>health_exp</t>
   </si>
   <si>
-    <t>**Adult informal employment rate (%).**</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%).**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Prevalence of hypertension (%).** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Learning-Adjusted Years of School.** </t>
-  </si>
-  <si>
-    <t>**Harmonized Test Scores.**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Over-age primary students (%).** </t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%).**</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in primary education (%).**</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education (%).**</t>
-  </si>
-  <si>
-    <t>**Proportion of primary schools with access to electricity (%).**</t>
-  </si>
-  <si>
-    <t>**Government expenditure on education (% GPD).**</t>
-  </si>
-  <si>
     <t>**Health care facilities with basic hygiene services (%)** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -483,6 +414,66 @@
   </si>
   <si>
     <t>**Hepatitis B vaccination (%).** Hepatitis B vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Children aged who are developmentally on track (%).** **`ind_value' percent** (year) of children aged 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Out of school children (per 1,000 children aged 14)**</t>
+  </si>
+  <si>
+    <t>**HPV vaccination (%).** The coverage of the HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Institutional births (%).** **`ind_value' percent of births** (year) ocurred in health facilities</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency level in reading in primary education (%)** **`ind_value' percent of children (year) achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency level in mathematics in primary education (%)** **`ind_value' percent of children (year) achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate (%).** The literacy rate for youth aged 15-24 years is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Satified demand for family planning (% of women).** The percentage of women aged 15-49 years who had their need for family planning satisfied is **`ind_value' percent** (year)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (% GDP).** The current health expenditure as a percentage of GDP is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **ind_value' persons** (*ind_year'*).</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%).** The proportion of adults engaged in informal employment is **ind_value' percent** (*ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%).** The percentage of young individuals involved in informal employment is **ind_value' percent** (*ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among the population is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e. students who are older than the typical age for their respective school level, is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e. students who are older than the typical age for their respective school level, is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education (%).** The proportion of qualified teachers in secondary education is **ind_value' percent** (*ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity (%).** The share of primary school with access to electricity is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (% of children aged one year before the official primary entry age).** **`ind_value' percent** of children aged one year before the official primary entry age (year) participate in an organized learning programme.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +503,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -569,6 +566,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,189 +872,219 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1062,39 +1092,39 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1102,933 +1132,1009 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>135</v>
+      <c r="C45" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>136</v>
+        <v>21</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>137</v>
+        <v>22</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>138</v>
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>92</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>96</v>
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>67</v>
       </c>
-      <c r="E56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="E57" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2036,118 +2142,34 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
+      <c r="C68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E63" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E63">
-      <sortCondition ref="A1:A63"/>
+  <autoFilter ref="A1:E56" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E56">
+      <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B47 A63:B63 B61:B63 B49:B59 A38:A62 A2:B37" xr:uid="{EE876B95-A59F-48CD-B685-DD4D6BD3F683}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56:B56 B54:B56 A2:B32 B34:B41 A33:A55 B43:B52" xr:uid="{EE876B95-A59F-48CD-B685-DD4D6BD3F683}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FB5ED3-C119-45E2-89EE-9FF1159F33E5}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="18975" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="154">
   <si>
     <t>name_portal</t>
   </si>
@@ -255,9 +255,6 @@
     <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Labour force participation (%).** The labour force participation is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>d_done</t>
   </si>
   <si>
@@ -282,15 +279,6 @@
     <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
-    <t>**Children engaged in child labour (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of insufficient physical activity among school going adolescents (%).** The share of school going adolescents aged 11-17 years not meeting WHO recommendations on Physical Activity for Health is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women aged 15-19, is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
     <t>**Gross secondary school enrollment (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Children receiving minimum meal frequency (%).** Adequate meal frequency among children 0-23 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -324,27 +309,9 @@
     <t>**Anaemia in children (%)** **`ind_value' percent** (*`ind_year'*) of children aged 6–59 months has anaemia</t>
   </si>
   <si>
-    <t>**Primary school completion (%).** Primary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion (%).** Lower secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion (%).** Upper secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Gross enrollment ratio in early childhood educational development programs (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Pre-primary school gross enrollment (%).** The pre-primary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adult unemployment (%).** Unemployment among adults with more than 25 years is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth unemployment (%).** Unemployment among youth aged 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Population with basic handwashing facility (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to a handwashing facility with soap and water at home</t>
   </si>
   <si>
@@ -375,15 +342,6 @@
     <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of newborns have postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
-    <t>**Youth NEET (%).** **`ind_value' percent** (*`ind_year'*) of the youth is not in employment, education or training</t>
-  </si>
-  <si>
-    <t>**Gross tertiary education enrollment (%).** The tertiary education gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality (deaths per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -396,33 +354,15 @@
     <t>**Children with pneumonia symptoms taken to a health facility (% of children with pneumonia symptoms).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Satisfied demand for family planning (% of women).** The percentage of women aged 15-49 years who had their need for family planning satisfied is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Minimum proficiency level in reading in primary education (%)** **`ind_value' percent of children (*`ind_year'*) achieved the minimum learning outcomes in reading at the end of primary school</t>
   </si>
   <si>
     <t>**Institutional births (%).** **`ind_value' percent of births** (*`ind_year'*) ocurred in health facilities</t>
   </si>
   <si>
-    <t>**Participation rate in organized learning (% of children aged one year before the official primary entry age).** **`ind_value' percent** of children aged one year before the official primary entry age (*`ind_year'*) participate in an organized learning programme.</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track (%).** **`ind_value' percent** (*`ind_year'*) of children aged 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
-    <t>**HPV vaccination (%).** The coverage of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**High skill employment.** </t>
-  </si>
-  <si>
     <t>HIV_inc_1019</t>
   </si>
   <si>
-    <t>**HIV incidence rate (per 1,000 uninfected adolescents).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents aged 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>ITN_children</t>
   </si>
   <si>
@@ -462,15 +402,6 @@
     <t>**Children with diarrhea who attended health facility (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Adult informal employment rate (%).** The proportion of adults engaged in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%).** The percentage of young individuals involved in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people aged 30-79 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e. students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -486,10 +417,79 @@
     <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Youth literacy rate (%).** The literacy rate for youth aged 15-24 years is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (% GDP).** The current health expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
+    <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Labor force participation (%).** The labor force participation as percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth NEET (%).** **`ind_value' percent** (*`ind_year'*) of the youth are not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%).** The percentage of adults engaged in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%).** The percentage of youth involved in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity among school going adolescents (%).** The share of school going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross tertiary school enrollment (%).** The tertiary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Children receiving minimum meal frequency (%).** Adequate meal frequency among children 0-23months  is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate (deaths per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate (%).** Upper secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate (%).** Lower secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adult unemployment (%).** Unemployment among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth unemployment (%).** Unemployment among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%).** **`ind_value' percent** (*`ind_year'*) of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (% of children one year before the official primary entry age).** **`ind_value' percent** of children one year before the official primary entry age (*`ind_year'*) participate in an organized learning program.</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**HPV vaccination (%).**  HPV vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (% of GDP).** The current health expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate (per 1,000 uninfected adolescents).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**High skill employment.**  **`ind_value' percent** (*`ind_year'*) of total employed adults are high-skilled (levels 3-4)</t>
   </si>
 </sst>
 </file>
@@ -591,6 +591,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,8 +863,8 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +889,7 @@
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -893,16 +897,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -910,16 +914,16 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -930,13 +934,13 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -944,16 +948,16 @@
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -961,16 +965,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -978,16 +982,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -995,16 +999,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1012,16 +1016,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1029,16 +1033,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1046,16 +1050,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1063,16 +1067,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1080,16 +1084,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1097,16 +1101,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1114,16 +1118,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1131,33 +1135,33 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1165,16 +1169,16 @@
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1182,16 +1186,16 @@
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1199,13 +1203,13 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1213,16 +1217,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1230,13 +1234,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1244,16 +1248,16 @@
         <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1261,33 +1265,33 @@
         <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1295,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1309,13 +1313,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1323,13 +1327,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1337,16 +1341,16 @@
         <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1354,16 +1358,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1371,16 +1375,16 @@
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -1389,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1406,16 +1410,16 @@
         <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1423,7 +1427,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -1432,7 +1436,7 @@
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1440,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1454,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1468,16 +1472,16 @@
         <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
         <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1485,16 +1489,16 @@
         <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1502,16 +1506,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1519,16 +1523,16 @@
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1536,16 +1540,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
         <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1553,16 +1557,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1570,16 +1574,16 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1587,16 +1591,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1604,16 +1608,16 @@
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1621,16 +1625,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1638,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1655,16 +1659,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
         <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1672,16 +1676,16 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1689,16 +1693,16 @@
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
         <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1706,16 +1710,16 @@
         <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1723,16 +1727,16 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1740,16 +1744,16 @@
         <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1757,16 +1761,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1774,16 +1778,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1791,16 +1795,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
         <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1808,16 +1812,16 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1825,16 +1829,16 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1842,16 +1846,16 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
         <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1859,16 +1863,16 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
         <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1876,16 +1880,16 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1893,16 +1897,16 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1910,16 +1914,16 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1927,16 +1931,16 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
         <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1944,16 +1948,16 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1961,27 +1965,31 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
         <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1989,90 +1997,90 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
         <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
         <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
         <v>56</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
         <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E72" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56 A2:A32 A33:A55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FB5ED3-C119-45E2-89EE-9FF1159F33E5}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3567C1A0-3193-479A-B312-2BF4336ECA14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$72</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="164">
   <si>
     <t>name_portal</t>
   </si>
@@ -270,15 +281,6 @@
     <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Infants fed exclusively with breast milk (%).** **`ind_value' percent** (*`ind_year'*) of infants 0-5 months are fed excusively with breast milk</t>
-  </si>
-  <si>
-    <t>**Careseeking for febrile children (%).** **`ind_value' percent (*`ind_year'*) of children under age 5 with fever sought treatment or advice</t>
-  </si>
-  <si>
-    <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -291,36 +293,15 @@
     <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Repetition in primary education (%).** **`ind_value' percent** (*`ind_year'*) of students in primary education remained in the same grade in the following school year</t>
-  </si>
-  <si>
-    <t>**Learning poverty (%).** **`ind_value' percent** (*`ind_year'*) of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%).** **`ind_value' percent** (*`ind_year'*) of women aged 18-29 years experienced sexual violence by age 18</t>
-  </si>
-  <si>
     <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value' per 1,000 total births** (*`ind_year'*)</t>
   </si>
   <si>
     <t>**Youth suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Anaemia in children (%)** **`ind_value' percent** (*`ind_year'*) of children aged 6–59 months has anaemia</t>
-  </si>
-  <si>
     <t>**Gross enrollment ratio in early childhood educational development programs (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Population with basic handwashing facility (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to an improved sanitation facility at home</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)**. **`ind_value' percent** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
     <t>**BCG vaccination (%).** The coverage of the BCG vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -330,18 +311,12 @@
     <t>**Hepatitis B vaccination (%).** Hepatitis B vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Minimum proficiency level in mathematics in primary education (%)** **`ind_value' percent of children (year) achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
     <t>persons</t>
   </si>
   <si>
     <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Postnatal contact with health provider (%).** **`ind_value' percent** (*`ind_year'*) of newborns have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -354,12 +329,6 @@
     <t>**Children with pneumonia symptoms taken to a health facility (% of children with pneumonia symptoms).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Minimum proficiency level in reading in primary education (%)** **`ind_value' percent of children (*`ind_year'*) achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Institutional births (%).** **`ind_value' percent of births** (*`ind_year'*) ocurred in health facilities</t>
-  </si>
-  <si>
     <t>HIV_inc_1019</t>
   </si>
   <si>
@@ -423,9 +392,6 @@
     <t>**Labor force participation (%).** The labor force participation as percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Youth NEET (%).** **`ind_value' percent** (*`ind_year'*) of the youth are not in employment, education or training</t>
-  </si>
-  <si>
     <t>**Adult informal employment rate (%).** The percentage of adults engaged in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -468,9 +434,6 @@
     <t>**Youth unemployment (%).** Unemployment among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Children who are developmentally on track (%).** **`ind_value' percent** (*`ind_year'*) of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
     <t>**Participation rate in organized learning (% of children one year before the official primary entry age).** **`ind_value' percent** of children one year before the official primary entry age (*`ind_year'*) participate in an organized learning program.</t>
   </si>
   <si>
@@ -489,7 +452,85 @@
     <t>**HIV incidence rate (per 1,000 uninfected adolescents).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**High skill employment.**  **`ind_value' percent** (*`ind_year'*) of total employed adults are high-skilled (levels 3-4)</t>
+    <t>**Infants fed exclusively with breast milk (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed excusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Postnatal contact with health provider (%).** As in *`ind_year'*, **`ind_value' percent** of newborns have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Careseeking for febrile children (%).** As in *`ind_year'*, **`ind_value' percent** of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Postnatal contact with health provider (%).** As in *`ind_year'*, **`ind_value' percent**  of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Youth NEET (%).** As in *`ind_year'*, **`ind_value' percent** of the youth are not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Repetition in primary education (%).** As in *`ind_year'*, **`ind_value' percent** of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%).** As in *`ind_year'*, **`ind_value' percent** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%).** As in *`ind_year'*, **`ind_value' percent**  of women aged 18-29 years experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>**Anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)**. As in *`ind_year'*, **`ind_value' percent** of population has access to an improved sanitation facility at home</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)**. As in *`ind_year'*,  **`ind_value' percent** of population  has access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)**. As in *`ind_year'*, **`ind_value' percent** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%).** As in *`ind_year'*, **`ind_value' percent** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Institutional births (%).** As in *`ind_year'*, **`ind_value' percent of births** ocurred in health facilities</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency level in reading in primary education (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency level in mathematics in primary education (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**High skill employment.**  As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>netenrt_ls</t>
+  </si>
+  <si>
+    <t>**Net enrolment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>outschool_rate</t>
+  </si>
+  <si>
+    <t>**Out of school children (%)** The rate of out of school children is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>refug_pop</t>
+  </si>
+  <si>
+    <t>aseek_pop</t>
+  </si>
+  <si>
+    <t>idp_pop</t>
+  </si>
+  <si>
+    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' persons** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (persons).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' persons** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as percentage of  population is **`ind_value' persons** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -860,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,13 +938,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
@@ -914,10 +955,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -934,7 +975,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -951,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -968,7 +1009,7 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -985,7 +1026,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -994,15 +1035,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -1016,10 +1057,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -1033,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -1050,10 +1091,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -1067,10 +1108,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
@@ -1084,10 +1125,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
@@ -1101,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1118,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -1135,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
@@ -1152,10 +1193,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -1169,10 +1210,10 @@
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
@@ -1186,10 +1227,10 @@
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -1203,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -1217,10 +1258,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -1234,7 +1275,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -1248,10 +1289,10 @@
         <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -1265,10 +1306,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -1282,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
@@ -1299,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -1313,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -1327,7 +1368,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -1341,10 +1382,10 @@
         <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
@@ -1358,10 +1399,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -1375,10 +1416,10 @@
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -1388,15 +1429,15 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
@@ -1410,10 +1451,10 @@
         <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>56</v>
@@ -1427,7 +1468,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -1444,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -1458,7 +1499,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
@@ -1472,10 +1513,10 @@
         <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>56</v>
@@ -1489,10 +1530,10 @@
         <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>56</v>
@@ -1506,10 +1547,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
@@ -1523,10 +1564,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -1540,10 +1581,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>56</v>
@@ -1557,10 +1598,10 @@
         <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
         <v>56</v>
@@ -1574,10 +1615,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>56</v>
@@ -1591,10 +1632,10 @@
         <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
         <v>56</v>
@@ -1608,10 +1649,10 @@
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -1625,10 +1666,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -1642,10 +1683,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
@@ -1659,10 +1700,10 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>56</v>
@@ -1676,10 +1717,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -1693,10 +1734,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
         <v>56</v>
@@ -1710,10 +1751,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
@@ -1727,10 +1768,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -1739,15 +1780,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
@@ -1761,10 +1802,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1778,10 +1819,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
@@ -1795,10 +1836,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
         <v>56</v>
@@ -1812,10 +1853,10 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
@@ -1829,10 +1870,10 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
@@ -1846,10 +1887,10 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
         <v>56</v>
@@ -1863,10 +1904,10 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
         <v>56</v>
@@ -1880,10 +1921,10 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -1897,10 +1938,10 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
@@ -1914,13 +1955,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
         <v>76</v>
@@ -1931,10 +1972,10 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
         <v>56</v>
@@ -1948,10 +1989,10 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
@@ -1965,10 +2006,10 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
         <v>56</v>
@@ -1985,7 +2026,7 @@
         <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
         <v>56</v>
@@ -1997,10 +2038,10 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
         <v>56</v>
@@ -2011,13 +2052,13 @@
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
         <v>56</v>
@@ -2028,13 +2069,13 @@
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
         <v>56</v>
@@ -2045,16 +2086,16 @@
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
         <v>76</v>
@@ -2062,25 +2103,95 @@
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
         <v>56</v>
       </c>
       <c r="E72" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E72" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56 A73 A75:A77" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3567C1A0-3193-479A-B312-2BF4336ECA14}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B514A0-38AF-4DA6-BE98-1AFDDCF98981}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="166">
   <si>
     <t>name_portal</t>
   </si>
@@ -56,9 +56,6 @@
     <t>vacBCG</t>
   </si>
   <si>
-    <t>vacDTP1</t>
-  </si>
-  <si>
     <t>vacHEPB3</t>
   </si>
   <si>
@@ -233,18 +230,9 @@
     <t>org_learning</t>
   </si>
   <si>
-    <t>inst_births</t>
-  </si>
-  <si>
     <t>educ_exp</t>
   </si>
   <si>
-    <t>minprof_r_prim</t>
-  </si>
-  <si>
-    <t>minprof_m_prim</t>
-  </si>
-  <si>
     <t>out_school</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>HPV_vac</t>
   </si>
   <si>
-    <t>emp_high_skill</t>
-  </si>
-  <si>
     <t>health_exp</t>
   </si>
   <si>
@@ -434,9 +419,6 @@
     <t>**Youth unemployment (%).** Unemployment among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Participation rate in organized learning (% of children one year before the official primary entry age).** **`ind_value' percent** of children one year before the official primary entry age (*`ind_year'*) participate in an organized learning program.</t>
-  </si>
-  <si>
     <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -531,6 +513,30 @@
   </si>
   <si>
     <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as percentage of  population is **`ind_value' persons** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>vacDTP3</t>
+  </si>
+  <si>
+    <t>high_skill</t>
+  </si>
+  <si>
+    <t>ECedu</t>
+  </si>
+  <si>
+    <t>insbirths</t>
+  </si>
+  <si>
+    <t>minprof_m_endprim</t>
+  </si>
+  <si>
+    <t>minprof_r_endprim</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (% of children one year before the official primary entry age).** As in (*`ind_year'*) ,  **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program.</t>
+  </si>
+  <si>
+    <t>**Gross enrolment ratio, early childhood education** The gross enrolment ratein early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -901,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,418 +927,418 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1340,13 +1346,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1354,130 +1360,130 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1485,316 +1491,316 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1802,390 +1808,404 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" t="s">
-        <v>56</v>
+      <c r="B78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B514A0-38AF-4DA6-BE98-1AFDDCF98981}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E2B369-D256-4544-B801-BB92A90F995D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,12 +413,6 @@
     <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Adult unemployment (%).** Unemployment among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth unemployment (%).** Unemployment among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -537,6 +531,12 @@
   </si>
   <si>
     <t>**Gross enrolment ratio, early childhood education** The gross enrolment ratein early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adult unemployment (%).** The unemployment rate among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth unemployment (%).** The unemployment rate among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -623,6 +629,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,8 +920,8 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1056,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -1063,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -1080,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -1097,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>96</v>
@@ -1165,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -1422,7 +1432,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>96</v>
@@ -1440,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
         <v>96</v>
@@ -1457,7 +1467,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
@@ -1519,7 +1529,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>96</v>
@@ -1723,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
         <v>96</v>
@@ -1740,7 +1750,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
         <v>96</v>
@@ -1757,7 +1767,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
         <v>96</v>
@@ -1774,7 +1784,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>96</v>
@@ -1791,7 +1801,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
         <v>96</v>
@@ -1822,7 +1832,7 @@
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>83</v>
@@ -1859,7 +1869,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
         <v>96</v>
@@ -1871,29 +1881,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
         <v>96</v>
@@ -1924,10 +1934,10 @@
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
         <v>96</v>
@@ -1941,10 +1951,10 @@
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
         <v>96</v>
@@ -1978,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
         <v>96</v>
@@ -1995,7 +2005,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
         <v>96</v>
@@ -2012,7 +2022,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
         <v>96</v>
@@ -2026,10 +2036,10 @@
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
         <v>96</v>
@@ -2044,7 +2054,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
         <v>96</v>
@@ -2061,7 +2071,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
         <v>96</v>
@@ -2126,10 +2136,10 @@
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
         <v>96</v>
@@ -2140,10 +2150,10 @@
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
         <v>96</v>
@@ -2154,10 +2164,10 @@
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
         <v>96</v>
@@ -2168,10 +2178,10 @@
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
         <v>96</v>
@@ -2182,10 +2192,10 @@
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
@@ -2196,10 +2206,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
         <v>96</v>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E2B369-D256-4544-B801-BB92A90F995D}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9AA58C-BBED-4235-ACBE-9B90818330D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,51 +269,24 @@
     <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Maternal mortality (deaths per 100,000 live births).** For every 100,000 live births, **`ind_value' women** (*`ind_year'*) die from pregnancy related causes</t>
-  </si>
-  <si>
-    <t>**Gross secondary school enrollment (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
     <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value' per 1,000 total births** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Youth suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio in early childhood educational development programs (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%).** The coverage of the BCG vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination (%).** Diphtheria vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination (%).** Hepatitis B vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>persons</t>
   </si>
   <si>
     <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Life expectancy at birth (years).** Life expectancy at birth is **`ind_value' years** (*`ind_year'*)</t>
   </si>
   <si>
     <t>**Primary schools with access to electricity (%).** The share of primary schools with access to electricity is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Children with pneumonia symptoms taken to a health facility (% of children with pneumonia symptoms).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>HIV_inc_1019</t>
   </si>
   <si>
@@ -338,24 +311,12 @@
     <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Youth mortality (deaths per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Child mortality (deaths per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Out of school children (per 1,000 children aged 14).** The number of out-of-school children of primary school age is **`ind_value' persons** (*`ind_year'*)</t>
   </si>
   <si>
     <t>**Refugees (persons).** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Youth to adult unemployment ratio.** The ratio of youth to adult unemployment is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Children with diarrhea who attended health facility (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e. students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -377,30 +338,9 @@
     <t>**Labor force participation (%).** The labor force participation as percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Adult informal employment rate (%).** The percentage of adults engaged in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%).** The percentage of youth involved in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Prevalence of insufficient physical activity among school going adolescents (%).** The share of school going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross tertiary school enrollment (%).** The tertiary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Children receiving minimum meal frequency (%).** Adequate meal frequency among children 0-23months  is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality rate (deaths per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -419,42 +359,15 @@
     <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**HPV vaccination (%).**  HPV vaccine coverage is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (% of GDP).** The current health expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**HIV incidence rate (per 1,000 uninfected adolescents).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Infants fed exclusively with breast milk (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed excusively with breast milk</t>
-  </si>
-  <si>
-    <t>**Postnatal contact with health provider (%).** As in *`ind_year'*, **`ind_value' percent** of newborns have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Careseeking for febrile children (%).** As in *`ind_year'*, **`ind_value' percent** of children under age 5 with fever sought treatment or advice</t>
   </si>
   <si>
-    <t>**Postnatal contact with health provider (%).** As in *`ind_year'*, **`ind_value' percent**  of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Youth NEET (%).** As in *`ind_year'*, **`ind_value' percent** of the youth are not in employment, education or training</t>
-  </si>
-  <si>
-    <t>**Repetition in primary education (%).** As in *`ind_year'*, **`ind_value' percent** of students in primary education remained in the same grade in the following school year</t>
-  </si>
-  <si>
     <t>**Learning poverty (%).** As in *`ind_year'*, **`ind_value' percent** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
   </si>
   <si>
     <t>**Prevalence of sexual violence (%).** As in *`ind_year'*, **`ind_value' percent**  of women aged 18-29 years experienced sexual violence by age 18</t>
   </si>
   <si>
-    <t>**Anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
-  </si>
-  <si>
     <t>**Population with basic sanitation services (%)**. As in *`ind_year'*, **`ind_value' percent** of population has access to an improved sanitation facility at home</t>
   </si>
   <si>
@@ -470,27 +383,12 @@
     <t>**Institutional births (%).** As in *`ind_year'*, **`ind_value' percent of births** ocurred in health facilities</t>
   </si>
   <si>
-    <t>**Minimum proficiency level in reading in primary education (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency level in mathematics in primary education (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
-    <t>**High skill employment.**  As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
-  </si>
-  <si>
     <t>netenrt_ls</t>
   </si>
   <si>
-    <t>**Net enrolment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>outschool_rate</t>
   </si>
   <si>
-    <t>**Out of school children (%)** The rate of out of school children is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>refug_pop</t>
   </si>
   <si>
@@ -500,15 +398,6 @@
     <t>idp_pop</t>
   </si>
   <si>
-    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' persons** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Asylum seekers (persons).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' persons** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as percentage of  population is **`ind_value' persons** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>vacDTP3</t>
   </si>
   <si>
@@ -527,16 +416,127 @@
     <t>minprof_r_endprim</t>
   </si>
   <si>
-    <t>**Participation rate in organized learning (% of children one year before the official primary entry age).** As in (*`ind_year'*) ,  **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program.</t>
-  </si>
-  <si>
-    <t>**Gross enrolment ratio, early childhood education** The gross enrolment ratein early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adult unemployment (%).** The unemployment rate among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth unemployment (%).** The unemployment rate among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
+    <t>**Exclusive breastfeeding (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed excusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns (%).** As in *`ind_year'*, **`ind_value' percent** of newborns have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%).** As in *`ind_year'*, **`ind_value' percent**  of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Careseeking for children with diarrhoea  (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training (%).** As in *`ind_year'*, **`ind_value' percent** of the youth ages 15-24 are not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%).** The percentage of adults ages +25 engaged in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%).**  As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate (per 1,000 uninfected).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**HPV vaccination, last dose (%).**   The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity (%).** The share of school going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility rate (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Maternal mortality ratio (per 100,000 live births).** For every 100,000 live births, **`ind_value' women** (*`ind_year'*) die from pregnancy related causes</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary (%).** The tertiary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months  is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Child mortality rate (per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate ( per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%).** As in (*`ind_year'*) ,  **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program.</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education (%).** As in *`ind_year'*, **`ind_value' percent** of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
+  </si>
+  <si>
+    <t>**Careseeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate (%).** The unemployment rate among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tubeculosis is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Out of school children (%)** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as percentage of  population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education** The gross enrolment ratein early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,12 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -629,10 +623,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +910,8 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,13 +944,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -971,10 +961,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
@@ -991,7 +981,7 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
@@ -1008,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -1025,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -1042,7 +1032,7 @@
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -1051,15 +1041,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -1073,10 +1063,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -1090,10 +1080,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
@@ -1107,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -1124,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -1141,10 +1131,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -1158,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1170,15 +1160,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -1192,10 +1182,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -1204,15 +1194,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
@@ -1226,10 +1216,10 @@
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
@@ -1238,15 +1228,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1260,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -1277,7 +1267,7 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
@@ -1291,7 +1281,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
@@ -1305,10 +1295,10 @@
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -1322,10 +1312,10 @@
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
@@ -1334,15 +1324,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
@@ -1356,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
@@ -1370,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -1384,7 +1374,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1398,10 +1388,10 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -1415,10 +1405,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
@@ -1432,10 +1422,10 @@
         <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>55</v>
@@ -1450,10 +1440,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
@@ -1467,10 +1457,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
         <v>55</v>
@@ -1484,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -1501,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>59</v>
@@ -1515,7 +1505,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
         <v>59</v>
@@ -1529,10 +1519,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>55</v>
@@ -1546,10 +1536,10 @@
         <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>55</v>
@@ -1563,10 +1553,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1580,10 +1570,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -1597,10 +1587,10 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
@@ -1614,10 +1604,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
@@ -1631,10 +1621,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
@@ -1648,10 +1638,10 @@
         <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
@@ -1665,10 +1655,10 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>55</v>
@@ -1682,10 +1672,10 @@
         <v>20</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>55</v>
@@ -1699,10 +1689,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
@@ -1716,10 +1706,10 @@
         <v>19</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
         <v>55</v>
@@ -1733,10 +1723,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
@@ -1750,10 +1740,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -1767,10 +1757,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -1784,10 +1774,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -1801,10 +1791,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1818,10 +1808,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -1830,15 +1820,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
         <v>55</v>
@@ -1847,15 +1837,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
         <v>55</v>
@@ -1869,10 +1859,10 @@
         <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
         <v>55</v>
@@ -1881,32 +1871,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="B58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
         <v>55</v>
@@ -1920,10 +1910,10 @@
         <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
         <v>55</v>
@@ -1934,13 +1924,13 @@
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
         <v>55</v>
@@ -1951,13 +1941,13 @@
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
         <v>55</v>
@@ -1971,13 +1961,13 @@
         <v>64</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
         <v>71</v>
@@ -1988,10 +1978,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
         <v>55</v>
@@ -2005,10 +1995,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
         <v>55</v>
@@ -2017,15 +2007,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
         <v>55</v>
@@ -2036,13 +2026,13 @@
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>55</v>
@@ -2054,10 +2044,10 @@
         <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
         <v>55</v>
@@ -2068,13 +2058,13 @@
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
         <v>55</v>
@@ -2085,13 +2075,13 @@
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D70" t="s">
         <v>55</v>
@@ -2102,16 +2092,16 @@
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
         <v>71</v>
@@ -2119,13 +2109,13 @@
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
         <v>55</v>
@@ -2136,13 +2126,13 @@
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
         <v>55</v>
@@ -2150,13 +2140,13 @@
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
         <v>55</v>
@@ -2164,13 +2154,13 @@
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
         <v>55</v>
@@ -2178,13 +2168,13 @@
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
         <v>55</v>
@@ -2192,13 +2182,13 @@
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
         <v>55</v>
@@ -2206,13 +2196,13 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
         <v>55</v>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9AA58C-BBED-4235-ACBE-9B90818330D2}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE6E6E3-C162-4260-AF3F-CEBD908780C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>emp_nifl_a</t>
   </si>
   <si>
-    <t>eap_2wap_mf_a</t>
-  </si>
-  <si>
     <t>une_2eap_mf_a</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>**Gross enrollment ratio, early childhood education** The gross enrolment ratein early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>eap_dwap_mf_a</t>
   </si>
 </sst>
 </file>
@@ -910,8 +910,8 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,152 +927,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1080,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1097,16 +1097,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1114,67 +1114,67 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1182,163 +1182,163 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1346,13 +1346,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1360,130 +1360,130 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1491,316 +1491,316 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1808,33 +1808,33 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1842,370 +1842,370 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE6E6E3-C162-4260-AF3F-CEBD908780C7}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBB09336-2DB8-46C2-B70D-35FAACD932EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>**Refugees (persons).** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e. students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e. students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Labor force participation (%).** The labor force participation as percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -356,9 +347,6 @@
     <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Careseeking for febrile children (%).** As in *`ind_year'*, **`ind_value' percent** of children under age 5 with fever sought treatment or advice</t>
-  </si>
-  <si>
     <t>**Learning poverty (%).** As in *`ind_year'*, **`ind_value' percent** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
   </si>
   <si>
@@ -377,9 +365,6 @@
     <t>**Children who are developmentally on track (%).** As in *`ind_year'*, **`ind_value' percent** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
   </si>
   <si>
-    <t>**Institutional births (%).** As in *`ind_year'*, **`ind_value' percent of births** ocurred in health facilities</t>
-  </si>
-  <si>
     <t>netenrt_ls</t>
   </si>
   <si>
@@ -413,18 +398,12 @@
     <t>minprof_r_endprim</t>
   </si>
   <si>
-    <t>**Exclusive breastfeeding (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed excusively with breast milk</t>
-  </si>
-  <si>
     <t>**Postnatal care for newborns (%).** As in *`ind_year'*, **`ind_value' percent** of newborns have postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
     <t>**Postnatal care for mothers (%).** As in *`ind_year'*, **`ind_value' percent**  of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
-    <t>**Careseeking for children with diarrhoea  (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -449,9 +428,6 @@
     <t>**HPV vaccination, last dose (%).**   The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Prevalence of insufficient physical activity (%).** The share of school going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Adolescent fertility rate (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
@@ -497,18 +473,12 @@
     <t>**Prevalence of anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
   </si>
   <si>
-    <t>**Careseeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
     <t>**Adult unemployment rate (%).** The unemployment rate among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tubeculosis is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -521,22 +491,52 @@
     <t>**Out of school children (%)** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as percentage of population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as percentage of  population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Gross enrollment ratio, early childhood education** The gross enrolment ratein early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>eap_dwap_mf_a</t>
+  </si>
+  <si>
+    <t>**Exclusive breastfeeding (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed exclusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children (%).** As in *`ind_year'*, **`ind_value' percent** of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea  (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Labor force participation (%).** The labor force participation as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Institutional births (%).** As in *`ind_year'*, **`ind_value' percent of births** occurred in health facilities</t>
+  </si>
+  <si>
+    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -638,10 +638,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,8 +906,8 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1042,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -1063,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -1080,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
@@ -1097,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>86</v>
@@ -1114,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>86</v>
@@ -1131,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -1143,12 +1139,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -1165,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
@@ -1182,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -1199,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -1216,7 +1212,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
@@ -1233,7 +1229,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
@@ -1250,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -1281,7 +1277,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
@@ -1295,7 +1291,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
         <v>86</v>
@@ -1312,7 +1308,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -1329,7 +1325,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
@@ -1346,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
@@ -1360,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -1374,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -1388,7 +1384,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
         <v>86</v>
@@ -1422,7 +1418,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>86</v>
@@ -1440,7 +1436,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
@@ -1457,7 +1453,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>86</v>
@@ -1505,7 +1501,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
@@ -1519,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>86</v>
@@ -1536,7 +1532,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
         <v>86</v>
@@ -1553,7 +1549,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -1570,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>86</v>
@@ -1587,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
@@ -1604,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
@@ -1621,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
         <v>86</v>
@@ -1638,7 +1634,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
@@ -1655,7 +1651,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
         <v>86</v>
@@ -1672,7 +1668,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>
@@ -1689,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>86</v>
@@ -1723,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
         <v>86</v>
@@ -1740,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
         <v>86</v>
@@ -1757,7 +1753,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
         <v>86</v>
@@ -1774,7 +1770,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>86</v>
@@ -1791,7 +1787,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
         <v>86</v>
@@ -1808,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
         <v>86</v>
@@ -1822,10 +1818,10 @@
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
         <v>86</v>
@@ -1842,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
         <v>86</v>
@@ -1859,7 +1855,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>86</v>
@@ -1876,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
         <v>86</v>
@@ -1890,10 +1886,10 @@
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
         <v>86</v>
@@ -1910,7 +1906,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>86</v>
@@ -1924,10 +1920,10 @@
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
         <v>86</v>
@@ -1941,10 +1937,10 @@
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
         <v>86</v>
@@ -1978,7 +1974,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>86</v>
@@ -1995,7 +1991,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>86</v>
@@ -2012,7 +2008,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
         <v>86</v>
@@ -2026,10 +2022,10 @@
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
         <v>86</v>
@@ -2044,7 +2040,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
         <v>86</v>
@@ -2061,7 +2057,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
         <v>86</v>
@@ -2112,7 +2108,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
@@ -2126,10 +2122,10 @@
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
@@ -2140,10 +2136,10 @@
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
@@ -2154,10 +2150,10 @@
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
@@ -2168,10 +2164,10 @@
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
         <v>86</v>
@@ -2182,10 +2178,10 @@
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
@@ -2196,10 +2192,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
         <v>86</v>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBB09336-2DB8-46C2-B70D-35FAACD932EA}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2BE4E2-7943-454B-80EA-ECBA11AB9877}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
   <si>
     <t>name_portal</t>
   </si>
@@ -461,9 +461,6 @@
     <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Participation rate in organized learning (%).** As in (*`ind_year'*) ,  **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program.</t>
-  </si>
-  <si>
     <t>**Repetition rate in primary education (%).** As in *`ind_year'*, **`ind_value' percent** of students in primary education remained in the same grade in the following school year</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>eap_dwap_mf_a</t>
-  </si>
-  <si>
     <t>**Exclusive breastfeeding (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed exclusively with breast milk</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
     <t>**Care seeking for children with diarrhoea  (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Labor force participation (%).** The labor force participation as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -537,6 +528,21 @@
   </si>
   <si>
     <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%).** As in (*`ind_year'*) ,  **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program</t>
+  </si>
+  <si>
+    <t>eap_dwap_f_a</t>
+  </si>
+  <si>
+    <t>eap_dwap_m_a</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate (%).** The female labor force participation rate (ages +25) as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate (%).** The male labor force participation rate (ages +25) as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -638,6 +644,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1052,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -1076,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
@@ -1127,7 +1137,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -1141,10 +1151,10 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -1158,78 +1168,78 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
@@ -1243,61 +1253,61 @@
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
@@ -1305,10 +1315,10 @@
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -1322,10 +1332,10 @@
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
@@ -1339,13 +1349,16 @@
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>70</v>
@@ -1353,10 +1366,10 @@
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -1367,10 +1380,10 @@
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -1381,27 +1394,24 @@
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>86</v>
@@ -1415,10 +1425,10 @@
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>86</v>
@@ -1429,14 +1439,13 @@
       <c r="E31" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
@@ -1447,50 +1456,54 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
       </c>
       <c r="E35" t="s">
         <v>70</v>
@@ -1498,10 +1511,10 @@
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
@@ -1510,46 +1523,43 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -1563,10 +1573,10 @@
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
         <v>86</v>
@@ -1580,61 +1590,61 @@
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
@@ -1648,61 +1658,61 @@
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>86</v>
@@ -1716,10 +1726,10 @@
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>86</v>
@@ -1733,7 +1743,7 @@
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>144</v>
@@ -1748,12 +1758,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>86</v>
@@ -1767,61 +1777,61 @@
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
       <c r="B55" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
         <v>86</v>
@@ -1835,10 +1845,10 @@
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
         <v>86</v>
@@ -1852,10 +1862,10 @@
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
         <v>86</v>
@@ -1869,27 +1879,27 @@
     </row>
     <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>116</v>
-      </c>
       <c r="B59" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
         <v>86</v>
@@ -1903,27 +1913,27 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C61" t="s">
         <v>86</v>
@@ -1937,10 +1947,10 @@
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
         <v>86</v>
@@ -1954,44 +1964,44 @@
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>87</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>77</v>
       </c>
-      <c r="E63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>86</v>
@@ -2005,59 +2015,59 @@
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C69" t="s">
         <v>86</v>
@@ -2071,10 +2081,10 @@
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
         <v>86</v>
@@ -2088,33 +2098,33 @@
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>77</v>
-      </c>
-      <c r="E71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>54</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
@@ -2122,21 +2132,24 @@
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
+      </c>
+      <c r="E73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>149</v>
@@ -2148,66 +2161,80 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>115</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E72" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56 A73 A75:A77" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A76:A78 A74 A2:A57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2BE4E2-7943-454B-80EA-ECBA11AB9877}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1D9C72-FF2A-42EC-AAC8-2809985A686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,15 +350,9 @@
     <t>**Learning poverty (%).** As in *`ind_year'*, **`ind_value' percent** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
   </si>
   <si>
-    <t>**Prevalence of sexual violence (%).** As in *`ind_year'*, **`ind_value' percent**  of women aged 18-29 years experienced sexual violence by age 18</t>
-  </si>
-  <si>
     <t>**Population with basic sanitation services (%)**. As in *`ind_year'*, **`ind_value' percent** of population has access to an improved sanitation facility at home</t>
   </si>
   <si>
-    <t>**Population with basic handwashing facility (%)**. As in *`ind_year'*,  **`ind_value' percent** of population  has access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
     <t>**Population with basic drinking water services (%)**. As in *`ind_year'*, **`ind_value' percent** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
     <t>**Postnatal care for newborns (%).** As in *`ind_year'*, **`ind_value' percent** of newborns have postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
-    <t>**Postnatal care for mothers (%).** As in *`ind_year'*, **`ind_value' percent**  of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -419,15 +410,9 @@
     <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**High skill employment rate (%).**  As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
-  </si>
-  <si>
     <t>**HIV incidence rate (per 1,000 uninfected).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**HPV vaccination, last dose (%).**   The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Adolescent fertility rate (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
@@ -440,9 +425,6 @@
     <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months  is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Minimum proficiency in mathematics, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
   </si>
   <si>
@@ -455,9 +437,6 @@
     <t>**Child mortality rate (per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Neonatal mortality rate ( per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -497,9 +476,6 @@
     <t>**Care seeking for febrile children (%).** As in *`ind_year'*, **`ind_value' percent** of children under age 5 with fever sought treatment or advice</t>
   </si>
   <si>
-    <t>**Care seeking for children with diarrhoea  (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -527,12 +503,6 @@
     <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is  **`ind_value' ** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%).** As in (*`ind_year'*) ,  **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program</t>
-  </si>
-  <si>
     <t>eap_dwap_f_a</t>
   </si>
   <si>
@@ -543,6 +513,36 @@
   </si>
   <si>
     <t>**Male labor force participation rate (%).** The male labor force participation rate (ages +25) as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%).** As in *`ind_year'*, **`ind_value' percent** of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%).** As in *`ind_year'*, **`ind_value' percent** of women aged 18-29 years experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)**. As in *`ind_year'*, **`ind_value' percent** of population has access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%).** As in *`ind_year'*, **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%).** As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is **`ind_value' ** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -644,10 +644,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,8 +912,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1048,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -1069,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -1086,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
@@ -1103,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>86</v>
@@ -1137,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -1151,10 +1147,10 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -1168,10 +1164,10 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
@@ -1188,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -1205,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -1222,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
@@ -1256,7 +1252,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>86</v>
@@ -1273,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
@@ -1304,7 +1300,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -1318,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -1335,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
@@ -1352,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>86</v>
@@ -1369,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -1383,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -1397,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
@@ -1411,7 +1407,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>86</v>
@@ -1445,7 +1441,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
@@ -1480,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
         <v>86</v>
@@ -1528,7 +1524,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -1542,7 +1538,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
         <v>86</v>
@@ -1559,7 +1555,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -1627,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
         <v>86</v>
@@ -1661,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>86</v>
@@ -1678,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>
@@ -1746,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
         <v>86</v>
@@ -1763,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>86</v>
@@ -1780,7 +1776,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
         <v>86</v>
@@ -1797,7 +1793,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>86</v>
@@ -1814,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>86</v>
@@ -1831,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
         <v>86</v>
@@ -1845,10 +1841,10 @@
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
         <v>86</v>
@@ -1865,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
         <v>86</v>
@@ -1882,7 +1878,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>86</v>
@@ -1899,7 +1895,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
         <v>86</v>
@@ -1913,10 +1909,10 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
         <v>86</v>
@@ -1947,10 +1943,10 @@
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
         <v>86</v>
@@ -1964,10 +1960,10 @@
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>86</v>
@@ -2035,7 +2031,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
         <v>86</v>
@@ -2049,10 +2045,10 @@
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
         <v>86</v>
@@ -2067,7 +2063,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
         <v>86</v>
@@ -2084,7 +2080,7 @@
         <v>81</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
         <v>86</v>
@@ -2135,7 +2131,7 @@
         <v>85</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
@@ -2149,10 +2145,10 @@
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
@@ -2163,10 +2159,10 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
@@ -2177,10 +2173,10 @@
     </row>
     <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
         <v>86</v>
@@ -2191,10 +2187,10 @@
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
@@ -2205,10 +2201,10 @@
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
         <v>86</v>
@@ -2219,10 +2215,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1D9C72-FF2A-42EC-AAC8-2809985A686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{7E1D9C72-FF2A-42EC-AAC8-2809985A686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90EA4F50-B416-4DCC-99E4-0472BF806A9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
   <si>
     <t>name_portal</t>
   </si>
@@ -215,9 +215,6 @@
     <t>start_text</t>
   </si>
   <si>
-    <t xml:space="preserve"> points</t>
-  </si>
-  <si>
     <t xml:space="preserve"> years</t>
   </si>
   <si>
@@ -297,12 +294,6 @@
   </si>
   <si>
     <t>youth_adult_un</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> percentage points</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> persons</t>
   </si>
   <si>
     <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
@@ -912,8 +903,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +929,7 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -946,16 +937,13 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -963,16 +951,17 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(D3="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -980,16 +969,17 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(D4="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -997,16 +987,17 @@
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
+        <v>70</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(D5="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1014,16 +1005,17 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(D6="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1031,16 +1023,17 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(D7="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1048,16 +1041,17 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
+        <v>140</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(D8="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1065,16 +1059,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
+        <v>114</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(D9="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1082,16 +1077,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
+        <v>141</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(D10="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1099,16 +1095,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
+        <v>156</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IF(D11="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1116,16 +1113,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IF(D12="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1133,50 +1131,53 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
+        <v>157</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(D13="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
+        <v>153</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IF(D14="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
+        <v>154</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(D15="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1184,16 +1185,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
+        <v>116</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(D16="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1201,16 +1203,17 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="C17" t="str">
+        <f>IF(D17="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1218,16 +1221,17 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
+        <v>118</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(D18="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1235,16 +1239,17 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(D19="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1252,16 +1257,17 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
+        <v>142</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(D20="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1269,13 +1275,14 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
+        <v>121</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(D21="%","percent","")</f>
+        <v/>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1283,16 +1290,17 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(D22="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1300,13 +1308,14 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
+        <v>122</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(D23="%","percent","")</f>
+        <v/>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1314,16 +1323,17 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
+        <v>124</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(D24="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1331,16 +1341,17 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
+        <v>123</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(D25="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1348,16 +1359,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
+        <v>158</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(D26="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1365,13 +1377,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
+        <v>127</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(D27="%","percent","")</f>
+        <v/>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1379,13 +1392,14 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
+        <v>128</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(D28="%","percent","")</f>
+        <v/>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1393,13 +1407,14 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
+        <v>155</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(D29="%","percent","")</f>
+        <v/>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1407,16 +1422,17 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
+        <v>129</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(D30="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1424,16 +1440,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(D31="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1441,16 +1458,17 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
+        <v>130</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(D32="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1459,33 +1477,35 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(D33="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
+        <v>159</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(D34="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1493,16 +1513,17 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(D35="%","percent","")</f>
+        <v/>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1510,13 +1531,14 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(D36="%","percent","")</f>
+        <v/>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1524,13 +1546,14 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
+        <v>131</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(D37="%","percent","")</f>
+        <v/>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1538,16 +1561,17 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
+        <v>132</v>
+      </c>
+      <c r="C38" t="str">
+        <f>IF(D38="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1555,16 +1579,17 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
+        <v>143</v>
+      </c>
+      <c r="C39" t="str">
+        <f>IF(D39="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1572,16 +1597,17 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="C40" t="str">
+        <f>IF(D40="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1589,16 +1615,17 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="C41" t="str">
+        <f>IF(D41="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1606,16 +1633,17 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="C42" t="str">
+        <f>IF(D42="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1623,16 +1651,17 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
+        <v>115</v>
+      </c>
+      <c r="C43" t="str">
+        <f>IF(D43="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1640,16 +1669,17 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="C44" t="str">
+        <f>IF(D44="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1657,16 +1687,17 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
+        <v>144</v>
+      </c>
+      <c r="C45" t="str">
+        <f>IF(D45="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1674,16 +1705,17 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
+        <v>145</v>
+      </c>
+      <c r="C46" t="str">
+        <f>IF(D46="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1691,16 +1723,17 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C47" t="str">
+        <f>IF(D47="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D47" t="s">
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,16 +1741,17 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="C48" t="str">
+        <f>IF(D48="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1725,16 +1759,17 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="C49" t="str">
+        <f>IF(D49="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1742,16 +1777,17 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
+        <v>134</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IF(D50="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1759,16 +1795,17 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="C51" t="str">
+        <f>IF(D51="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1776,16 +1813,17 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
+        <v>160</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IF(D52="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1793,16 +1831,17 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="C53" t="str">
+        <f>IF(D53="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1810,16 +1849,17 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="C54" t="str">
+        <f>IF(D54="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1827,33 +1867,35 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
+        <v>146</v>
+      </c>
+      <c r="C55" t="str">
+        <f>IF(D55="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
+        <v>135</v>
+      </c>
+      <c r="C56" t="str">
+        <f>IF(D56="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1861,197 +1903,209 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
+        <v>136</v>
+      </c>
+      <c r="C57" t="str">
+        <f>IF(D57="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D57" t="s">
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="C58" t="str">
+        <f>IF(D58="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
+        <v>161</v>
+      </c>
+      <c r="C59" t="str">
+        <f>IF(D59="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
+        <v>147</v>
+      </c>
+      <c r="C60" t="str">
+        <f>IF(D60="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="C61" t="str">
+        <f>IF(D61="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
+        <v>126</v>
+      </c>
+      <c r="C62" t="str">
+        <f>IF(D62="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
+        <v>125</v>
+      </c>
+      <c r="C63" t="str">
+        <f>IF(D63="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D63" t="s">
         <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C64" t="str">
+        <f>IF(D64="%","percent","")</f>
+        <v/>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="C65" t="str">
+        <f>IF(D65="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="str">
+        <f>IF(D66="%","percent","")</f>
+        <v>percent</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
       <c r="B67" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>86</v>
+        <v>164</v>
+      </c>
+      <c r="C67" t="str">
+        <f>IF(D67="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D67" t="s">
         <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
+        <v>162</v>
+      </c>
+      <c r="C68" t="str">
+        <f>IF(D68="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
@@ -2060,98 +2114,104 @@
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="C69" t="str">
+        <f>IF(D69="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="C70" t="str">
+        <f>IF(D70="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
+      <c r="C71" t="str">
+        <f>IF(D71="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="C72" t="str">
+        <f>IF(D72="%","percent","")</f>
+        <v/>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
+        <v>137</v>
+      </c>
+      <c r="C73" t="str">
+        <f>IF(D73="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="C74" t="str">
+        <f>IF(D74="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
@@ -2159,13 +2219,14 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
+        <v>138</v>
+      </c>
+      <c r="C75" t="str">
+        <f>IF(D75="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
@@ -2173,13 +2234,14 @@
     </row>
     <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
+        <v>148</v>
+      </c>
+      <c r="C76" t="str">
+        <f>IF(D76="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
@@ -2187,13 +2249,14 @@
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>86</v>
+        <v>149</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IF(D77="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
@@ -2201,13 +2264,14 @@
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
+        <v>150</v>
+      </c>
+      <c r="C78" t="str">
+        <f>IF(D78="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
@@ -2215,13 +2279,14 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" t="s">
-        <v>86</v>
+        <v>163</v>
+      </c>
+      <c r="C79" t="str">
+        <f>IF(D79="%","percent","")</f>
+        <v>percent</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llohi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{7E1D9C72-FF2A-42EC-AAC8-2809985A686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90EA4F50-B416-4DCC-99E4-0472BF806A9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E34FE6-8B41-4E6B-884E-6B7971A8BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="244">
   <si>
     <t>name_portal</t>
   </si>
@@ -494,12 +494,6 @@
     <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>eap_dwap_f_a</t>
-  </si>
-  <si>
-    <t>eap_dwap_m_a</t>
-  </si>
-  <si>
     <t>**Female labor force participation rate (%).** The female labor force participation rate (ages +25) as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -534,6 +528,249 @@
   </si>
   <si>
     <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>emp_2wap_f_a</t>
+  </si>
+  <si>
+    <t>emp_2wap_m_a</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (persons)**</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic hygiene services (%)**</t>
+  </si>
+  <si>
+    <t>**Schools with basic hygiene services (%)**</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic sanitation services (%)**</t>
+  </si>
+  <si>
+    <t>**Schools with basic sanitation services (%)**</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services  (%)**</t>
+  </si>
+  <si>
+    <t>**Exclusive breastfeeding (%)**</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns (%)**</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children (%)**</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%)**</t>
+  </si>
+  <si>
+    <t>**Children engaged in child labor (%)**</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea (%)**</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate (%)**</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate (%)**</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training (%)**</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%)**</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%)**</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension (%)**</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity (%)**</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility rate (births/1000 women)**</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration (%)**</t>
+  </si>
+  <si>
+    <t>**Maternal mortality ratio (per 100,000 live births)**</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, secondary (%)**</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary (%)**</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency (%)**</t>
+  </si>
+  <si>
+    <t>**Youth mortality rate (per 1,000 youth aged 15)**</t>
+  </si>
+  <si>
+    <t>**Child mortality rate (per 1,000 youth aged 5)**</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate (per 1,000 live births)**</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults (%)**</t>
+  </si>
+  <si>
+    <t>**Probability of dying from NCDs (%)**</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education (%)**</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%)**</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%)**</t>
+  </si>
+  <si>
+    <t>**Life expectancy at birth (years)**</t>
+  </si>
+  <si>
+    <t>**Stillbirth rate (per 1,000 total births)**</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates (per 100,000 population)**</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia**</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms (%)**</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate (%)**</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate (%)**</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate (%)**</t>
+  </si>
+  <si>
+    <t>**Gross enrollment, early childhood education (%)**</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio (%)**</t>
+  </si>
+  <si>
+    <t>**Over-age primary students (%)**</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students (%)**</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education (%)**</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education (%)**</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity (%)**</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate (%)**</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate (%)**</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)****</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)****</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)****</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%)**</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination, third dose (%)**</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination, third dose (%)**</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%)**</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%)**</t>
+  </si>
+  <si>
+    <t>**Institutional births (%)**</t>
+  </si>
+  <si>
+    <t>**Current education expenditure (% GDP)**</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school**</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school**</t>
+  </si>
+  <si>
+    <t>**Out of school children (per 1,000 children aged 14)**</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate (%)**</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning (% of women)**</t>
+  </si>
+  <si>
+    <t>**HPV vaccination, last dose (%)**</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%)**</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (%)**</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate (per 1,000 uninfected)**</t>
+  </si>
+  <si>
+    <t>**ITN use by children**</t>
+  </si>
+  <si>
+    <t>**Refugees (persons)**</t>
+  </si>
+  <si>
+    <t>**Youth to adult unemployment ratio (%)**</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary**</t>
+  </si>
+  <si>
+    <t>**Out of school children (%)** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)**</t>
+  </si>
+  <si>
+    <t>**Refugees (%)**</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (%)**</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%)**</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is **`ind_value' ** (*`ind_year'*)**</t>
+  </si>
+  <si>
+    <t>no_data_start_text</t>
   </si>
 </sst>
 </file>
@@ -902,9 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +1152,7 @@
     <col min="6" max="6" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +1168,11 @@
       <c r="E1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -945,8 +1185,11 @@
       <c r="E2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -954,7 +1197,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="str">
-        <f>IF(D3="%","percent","")</f>
+        <f t="shared" ref="C3:C34" si="0">IF(D3="%","percent","")</f>
         <v>percent</v>
       </c>
       <c r="D3" t="s">
@@ -963,8 +1206,11 @@
       <c r="E3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -972,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="str">
-        <f>IF(D4="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D4" t="s">
@@ -981,8 +1227,11 @@
       <c r="E4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -990,7 +1239,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="str">
-        <f>IF(D5="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D5" t="s">
@@ -999,8 +1248,11 @@
       <c r="E5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1260,7 @@
         <v>71</v>
       </c>
       <c r="C6" t="str">
-        <f>IF(D6="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D6" t="s">
@@ -1017,8 +1269,11 @@
       <c r="E6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1281,7 @@
         <v>72</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(D7="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D7" t="s">
@@ -1035,8 +1290,11 @@
       <c r="E7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1302,7 @@
         <v>140</v>
       </c>
       <c r="C8" t="str">
-        <f>IF(D8="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D8" t="s">
@@ -1053,8 +1311,11 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1323,7 @@
         <v>114</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(D9="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D9" t="s">
@@ -1071,8 +1332,11 @@
       <c r="E9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1344,7 @@
         <v>141</v>
       </c>
       <c r="C10" t="str">
-        <f>IF(D10="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D10" t="s">
@@ -1089,16 +1353,19 @@
       <c r="E10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" t="str">
-        <f>IF(D11="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D11" t="s">
@@ -1107,8 +1374,11 @@
       <c r="E11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1386,7 @@
         <v>91</v>
       </c>
       <c r="C12" t="str">
-        <f>IF(D12="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D12" t="s">
@@ -1125,16 +1395,19 @@
       <c r="E12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" t="str">
-        <f>IF(D13="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D13" t="s">
@@ -1143,16 +1416,19 @@
       <c r="E13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="C14" t="str">
-        <f>IF(D14="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D14" t="s">
@@ -1161,16 +1437,19 @@
       <c r="E14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="C15" t="str">
-        <f>IF(D15="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D15" t="s">
@@ -1179,8 +1458,11 @@
       <c r="E15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1470,7 @@
         <v>116</v>
       </c>
       <c r="C16" t="str">
-        <f>IF(D16="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D16" t="s">
@@ -1196,6 +1478,9 @@
       </c>
       <c r="E16" t="s">
         <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1206,7 +1491,7 @@
         <v>117</v>
       </c>
       <c r="C17" t="str">
-        <f>IF(D17="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D17" t="s">
@@ -1214,6 +1499,9 @@
       </c>
       <c r="E17" t="s">
         <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1224,7 +1512,7 @@
         <v>118</v>
       </c>
       <c r="C18" t="str">
-        <f>IF(D18="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D18" t="s">
@@ -1232,6 +1520,9 @@
       </c>
       <c r="E18" t="s">
         <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1242,7 +1533,7 @@
         <v>92</v>
       </c>
       <c r="C19" t="str">
-        <f>IF(D19="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D19" t="s">
@@ -1250,6 +1541,9 @@
       </c>
       <c r="E19" t="s">
         <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1260,7 +1554,7 @@
         <v>142</v>
       </c>
       <c r="C20" t="str">
-        <f>IF(D20="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D20" t="s">
@@ -1268,6 +1562,9 @@
       </c>
       <c r="E20" t="s">
         <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1278,11 +1575,14 @@
         <v>121</v>
       </c>
       <c r="C21" t="str">
-        <f>IF(D21="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" t="s">
         <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1293,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="C22" t="str">
-        <f>IF(D22="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D22" t="s">
@@ -1301,6 +1601,9 @@
       </c>
       <c r="E22" t="s">
         <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1311,11 +1614,14 @@
         <v>122</v>
       </c>
       <c r="C23" t="str">
-        <f>IF(D23="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" t="s">
         <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1326,7 +1632,7 @@
         <v>124</v>
       </c>
       <c r="C24" t="str">
-        <f>IF(D24="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D24" t="s">
@@ -1334,6 +1640,9 @@
       </c>
       <c r="E24" t="s">
         <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1344,7 +1653,7 @@
         <v>123</v>
       </c>
       <c r="C25" t="str">
-        <f>IF(D25="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D25" t="s">
@@ -1352,6 +1661,9 @@
       </c>
       <c r="E25" t="s">
         <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1359,10 +1671,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C26" t="str">
-        <f>IF(D26="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D26" t="s">
@@ -1370,6 +1682,9 @@
       </c>
       <c r="E26" t="s">
         <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1380,11 +1695,14 @@
         <v>127</v>
       </c>
       <c r="C27" t="str">
-        <f>IF(D27="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E27" t="s">
         <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1395,11 +1713,14 @@
         <v>128</v>
       </c>
       <c r="C28" t="str">
-        <f>IF(D28="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E28" t="s">
         <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1407,14 +1728,17 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C29" t="str">
-        <f>IF(D29="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" t="s">
         <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1425,7 +1749,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="str">
-        <f>IF(D30="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D30" t="s">
@@ -1433,6 +1757,9 @@
       </c>
       <c r="E30" t="s">
         <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1443,7 +1770,7 @@
         <v>74</v>
       </c>
       <c r="C31" t="str">
-        <f>IF(D31="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D31" t="s">
@@ -1451,6 +1778,9 @@
       </c>
       <c r="E31" t="s">
         <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1461,7 +1791,7 @@
         <v>130</v>
       </c>
       <c r="C32" t="str">
-        <f>IF(D32="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D32" t="s">
@@ -1470,9 +1800,11 @@
       <c r="E32" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F32" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1812,7 @@
         <v>99</v>
       </c>
       <c r="C33" t="str">
-        <f>IF(D33="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D33" t="s">
@@ -1489,16 +1821,19 @@
       <c r="E33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="str">
-        <f>IF(D34="%","percent","")</f>
+        <f t="shared" si="0"/>
         <v>percent</v>
       </c>
       <c r="D34" t="s">
@@ -1507,8 +1842,11 @@
       <c r="E34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +1854,7 @@
         <v>78</v>
       </c>
       <c r="C35" t="str">
-        <f>IF(D35="%","percent","")</f>
+        <f t="shared" ref="C35:C66" si="1">IF(D35="%","percent","")</f>
         <v/>
       </c>
       <c r="D35" t="s">
@@ -1525,8 +1863,11 @@
       <c r="E35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1534,14 +1875,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="str">
-        <f>IF(D36="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1549,14 +1893,17 @@
         <v>131</v>
       </c>
       <c r="C37" t="str">
-        <f>IF(D37="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1564,7 +1911,7 @@
         <v>132</v>
       </c>
       <c r="C38" t="str">
-        <f>IF(D38="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D38" t="s">
@@ -1573,8 +1920,11 @@
       <c r="E38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1932,7 @@
         <v>143</v>
       </c>
       <c r="C39" t="str">
-        <f>IF(D39="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D39" t="s">
@@ -1591,8 +1941,11 @@
       <c r="E39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1600,7 +1953,7 @@
         <v>93</v>
       </c>
       <c r="C40" t="str">
-        <f>IF(D40="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D40" t="s">
@@ -1609,8 +1962,11 @@
       <c r="E40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="C41" t="str">
-        <f>IF(D41="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D41" t="s">
@@ -1627,8 +1983,11 @@
       <c r="E41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1995,7 @@
         <v>94</v>
       </c>
       <c r="C42" t="str">
-        <f>IF(D42="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D42" t="s">
@@ -1645,8 +2004,11 @@
       <c r="E42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1654,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="C43" t="str">
-        <f>IF(D43="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D43" t="s">
@@ -1663,8 +2025,11 @@
       <c r="E43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1672,7 +2037,7 @@
         <v>96</v>
       </c>
       <c r="C44" t="str">
-        <f>IF(D44="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D44" t="s">
@@ -1681,8 +2046,11 @@
       <c r="E44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +2058,7 @@
         <v>144</v>
       </c>
       <c r="C45" t="str">
-        <f>IF(D45="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D45" t="s">
@@ -1699,8 +2067,11 @@
       <c r="E45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +2079,7 @@
         <v>145</v>
       </c>
       <c r="C46" t="str">
-        <f>IF(D46="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D46" t="s">
@@ -1717,8 +2088,11 @@
       <c r="E46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1726,7 +2100,7 @@
         <v>88</v>
       </c>
       <c r="C47" t="str">
-        <f>IF(D47="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D47" t="s">
@@ -1735,8 +2109,11 @@
       <c r="E47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +2121,7 @@
         <v>89</v>
       </c>
       <c r="C48" t="str">
-        <f>IF(D48="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D48" t="s">
@@ -1753,8 +2130,11 @@
       <c r="E48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +2142,7 @@
         <v>79</v>
       </c>
       <c r="C49" t="str">
-        <f>IF(D49="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D49" t="s">
@@ -1771,8 +2151,11 @@
       <c r="E49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +2163,7 @@
         <v>134</v>
       </c>
       <c r="C50" t="str">
-        <f>IF(D50="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D50" t="s">
@@ -1789,8 +2172,11 @@
       <c r="E50" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +2184,7 @@
         <v>133</v>
       </c>
       <c r="C51" t="str">
-        <f>IF(D51="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D51" t="s">
@@ -1807,16 +2193,19 @@
       <c r="E51" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" t="str">
-        <f>IF(D52="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D52" t="s">
@@ -1825,8 +2214,11 @@
       <c r="E52" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -1834,7 +2226,7 @@
         <v>100</v>
       </c>
       <c r="C53" t="str">
-        <f>IF(D53="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D53" t="s">
@@ -1843,8 +2235,11 @@
       <c r="E53" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1852,7 +2247,7 @@
         <v>101</v>
       </c>
       <c r="C54" t="str">
-        <f>IF(D54="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D54" t="s">
@@ -1861,8 +2256,11 @@
       <c r="E54" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +2268,7 @@
         <v>146</v>
       </c>
       <c r="C55" t="str">
-        <f>IF(D55="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D55" t="s">
@@ -1879,8 +2277,11 @@
       <c r="E55" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -1888,7 +2289,7 @@
         <v>135</v>
       </c>
       <c r="C56" t="str">
-        <f>IF(D56="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D56" t="s">
@@ -1897,8 +2298,11 @@
       <c r="E56" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +2310,7 @@
         <v>136</v>
       </c>
       <c r="C57" t="str">
-        <f>IF(D57="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D57" t="s">
@@ -1915,8 +2319,11 @@
       <c r="E57" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1924,7 +2331,7 @@
         <v>102</v>
       </c>
       <c r="C58" t="str">
-        <f>IF(D58="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D58" t="s">
@@ -1933,16 +2340,19 @@
       <c r="E58" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" t="str">
-        <f>IF(D59="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D59" t="s">
@@ -1951,8 +2361,11 @@
       <c r="E59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -1960,7 +2373,7 @@
         <v>147</v>
       </c>
       <c r="C60" t="str">
-        <f>IF(D60="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D60" t="s">
@@ -1969,8 +2382,11 @@
       <c r="E60" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1978,7 +2394,7 @@
         <v>90</v>
       </c>
       <c r="C61" t="str">
-        <f>IF(D61="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D61" t="s">
@@ -1987,8 +2403,11 @@
       <c r="E61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -1996,7 +2415,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="str">
-        <f>IF(D62="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D62" t="s">
@@ -2005,8 +2424,11 @@
       <c r="E62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2014,7 +2436,7 @@
         <v>125</v>
       </c>
       <c r="C63" t="str">
-        <f>IF(D63="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D63" t="s">
@@ -2023,8 +2445,11 @@
       <c r="E63" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2032,7 +2457,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="str">
-        <f>IF(D64="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D64" t="s">
@@ -2041,8 +2466,11 @@
       <c r="E64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2050,7 +2478,7 @@
         <v>97</v>
       </c>
       <c r="C65" t="str">
-        <f>IF(D65="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D65" t="s">
@@ -2059,8 +2487,11 @@
       <c r="E65" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2068,7 +2499,7 @@
         <v>98</v>
       </c>
       <c r="C66" t="str">
-        <f>IF(D66="%","percent","")</f>
+        <f t="shared" si="1"/>
         <v>percent</v>
       </c>
       <c r="D66" t="s">
@@ -2077,16 +2508,19 @@
       <c r="E66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C67" t="str">
-        <f>IF(D67="%","percent","")</f>
+        <f t="shared" ref="C67:C79" si="2">IF(D67="%","percent","")</f>
         <v>percent</v>
       </c>
       <c r="D67" t="s">
@@ -2095,24 +2529,30 @@
       <c r="E67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C68" t="str">
-        <f>IF(D68="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2120,7 +2560,7 @@
         <v>119</v>
       </c>
       <c r="C69" t="str">
-        <f>IF(D69="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D69" t="s">
@@ -2129,8 +2569,11 @@
       <c r="E69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -2138,7 +2581,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="str">
-        <f>IF(D70="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D70" t="s">
@@ -2147,8 +2590,11 @@
       <c r="E70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -2156,7 +2602,7 @@
         <v>82</v>
       </c>
       <c r="C71" t="str">
-        <f>IF(D71="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D71" t="s">
@@ -2165,8 +2611,11 @@
       <c r="E71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2174,7 +2623,7 @@
         <v>87</v>
       </c>
       <c r="C72" t="str">
-        <f>IF(D72="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D72" t="s">
@@ -2183,8 +2632,11 @@
       <c r="E72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -2192,7 +2644,7 @@
         <v>137</v>
       </c>
       <c r="C73" t="str">
-        <f>IF(D73="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D73" t="s">
@@ -2201,8 +2653,11 @@
       <c r="E73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -2210,14 +2665,17 @@
         <v>139</v>
       </c>
       <c r="C74" t="str">
-        <f>IF(D74="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -2225,14 +2683,17 @@
         <v>138</v>
       </c>
       <c r="C75" t="str">
-        <f>IF(D75="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -2240,14 +2701,17 @@
         <v>148</v>
       </c>
       <c r="C76" t="str">
-        <f>IF(D76="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -2255,14 +2719,17 @@
         <v>149</v>
       </c>
       <c r="C77" t="str">
-        <f>IF(D77="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -2270,26 +2737,32 @@
         <v>150</v>
       </c>
       <c r="C78" t="str">
-        <f>IF(D78="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>110</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" t="str">
-        <f>IF(D79="%","percent","")</f>
+        <f t="shared" si="2"/>
         <v>percent</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
+      </c>
+      <c r="F79" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llohi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E34FE6-8B41-4E6B-884E-6B7971A8BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB7D2CE-B9C3-432A-BBB4-E0A636A724C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,12 +416,6 @@
     <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Minimum proficiency in mathematics, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
     <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*)</t>
   </si>
   <si>
@@ -437,9 +431,6 @@
     <t>**Adolescent suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Prevalence of anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
-  </si>
-  <si>
     <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
     <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Out of school children (%)** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
@@ -524,9 +512,6 @@
     <t>**High skill employment rate (%).** As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
   </si>
   <si>
-    <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is **`ind_value' ** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -536,241 +521,256 @@
     <t>emp_2wap_m_a</t>
   </si>
   <si>
-    <t>**Asylum seekers (persons)**</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic hygiene services (%)**</t>
-  </si>
-  <si>
-    <t>**Schools with basic hygiene services (%)**</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic sanitation services (%)**</t>
-  </si>
-  <si>
-    <t>**Schools with basic sanitation services (%)**</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services  (%)**</t>
-  </si>
-  <si>
-    <t>**Exclusive breastfeeding (%)**</t>
-  </si>
-  <si>
-    <t>**Postnatal care for newborns (%)**</t>
-  </si>
-  <si>
-    <t>**Care seeking for febrile children (%)**</t>
-  </si>
-  <si>
-    <t>**Postnatal care for mothers (%)**</t>
-  </si>
-  <si>
-    <t>**Children engaged in child labor (%)**</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with diarrhoea (%)**</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate (%)**</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate (%)**</t>
-  </si>
-  <si>
-    <t>**Youth not in employment, education or training (%)**</t>
-  </si>
-  <si>
-    <t>**Adult informal employment rate (%)**</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%)**</t>
-  </si>
-  <si>
-    <t>**Prevalence of hypertension (%)**</t>
-  </si>
-  <si>
-    <t>**Prevalence of insufficient physical activity (%)**</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility rate (births/1000 women)**</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration (%)**</t>
-  </si>
-  <si>
-    <t>**Maternal mortality ratio (per 100,000 live births)**</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, secondary (%)**</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, tertiary (%)**</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency (%)**</t>
-  </si>
-  <si>
-    <t>**Youth mortality rate (per 1,000 youth aged 15)**</t>
-  </si>
-  <si>
-    <t>**Child mortality rate (per 1,000 youth aged 5)**</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality rate (per 1,000 live births)**</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults (%)**</t>
-  </si>
-  <si>
-    <t>**Probability of dying from NCDs (%)**</t>
-  </si>
-  <si>
-    <t>**Repetition rate in primary education (%)**</t>
-  </si>
-  <si>
-    <t>**Learning poverty (%)**</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%)**</t>
-  </si>
-  <si>
-    <t>**Life expectancy at birth (years)**</t>
-  </si>
-  <si>
-    <t>**Stillbirth rate (per 1,000 total births)**</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates (per 100,000 population)**</t>
-  </si>
-  <si>
-    <t>**Prevalence of anaemia in children (%)** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia**</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with pneumonia symptoms (%)**</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate (%)**</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate (%)**</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate (%)**</t>
-  </si>
-  <si>
-    <t>**Gross enrollment, early childhood education (%)**</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment ratio (%)**</t>
-  </si>
-  <si>
-    <t>**Over-age primary students (%)**</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%)**</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in primary education (%)**</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education (%)**</t>
-  </si>
-  <si>
-    <t>**Primary schools with access to electricity (%)**</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate (%)**</t>
-  </si>
-  <si>
-    <t>**Youth unemployment rate (%)**</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility (%)****</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)****</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)****</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%)**</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination, third dose (%)**</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination, third dose (%)**</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track (%)**</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%)**</t>
-  </si>
-  <si>
-    <t>**Institutional births (%)**</t>
-  </si>
-  <si>
-    <t>**Current education expenditure (% GDP)**</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school**</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary (%)** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school**</t>
-  </si>
-  <si>
-    <t>**Out of school children (per 1,000 children aged 14)**</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate (%)**</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning (% of women)**</t>
-  </si>
-  <si>
-    <t>**HPV vaccination, last dose (%)**</t>
-  </si>
-  <si>
-    <t>**High skill employment rate (%)**</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (%)**</t>
-  </si>
-  <si>
-    <t>**HIV incidence rate (per 1,000 uninfected)**</t>
-  </si>
-  <si>
-    <t>**ITN use by children**</t>
-  </si>
-  <si>
-    <t>**Refugees (persons)**</t>
-  </si>
-  <si>
-    <t>**Youth to adult unemployment ratio (%)**</t>
-  </si>
-  <si>
-    <t>**Net school enrollment rate, lower secondary**</t>
-  </si>
-  <si>
-    <t>**Out of school children (%)** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)**</t>
-  </si>
-  <si>
-    <t>**Refugees (%)**</t>
-  </si>
-  <si>
-    <t>**Asylum seekers (%)**</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%)**</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio, early childhood education** The gross enrolment rate in early childhood education is **`ind_value' ** (*`ind_year'*)**</t>
-  </si>
-  <si>
     <t>no_data_start_text</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%).** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary (%).** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary (%).** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education.** The gross enrolment rate in early childhood education is **`ind_value' ** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (persons)</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic hygiene services (%)</t>
+  </si>
+  <si>
+    <t>**Schools with basic hygiene services (%)</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic sanitation services (%)</t>
+  </si>
+  <si>
+    <t>**Schools with basic sanitation services (%)</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services  (%)</t>
+  </si>
+  <si>
+    <t>**Exclusive breastfeeding (%)</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns (%)</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children (%)</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%)</t>
+  </si>
+  <si>
+    <t>**Children engaged in child labor (%)</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea (%)</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate (%)</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate (%)</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training (%)</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%)</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%)</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension (%)</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity (%)</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility rate (births/1000 women)</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration (%)</t>
+  </si>
+  <si>
+    <t>**Maternal mortality ratio (per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, secondary (%)</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary (%)</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency (%)</t>
+  </si>
+  <si>
+    <t>**Youth mortality rate (per 1,000 youth aged 15)</t>
+  </si>
+  <si>
+    <t>**Child mortality rate (per 1,000 youth aged 5)</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults (%)</t>
+  </si>
+  <si>
+    <t>**Probability of dying from NCDs (%)</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education (%)</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%)</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%)</t>
+  </si>
+  <si>
+    <t>**Life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>**Stillbirth rate (per 1,000 total births)</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates (per 100,000 population)</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%)</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms (%)</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate (%)</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate (%)</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate (%)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment, early childhood education (%)</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio (%)</t>
+  </si>
+  <si>
+    <t>**Over-age primary students (%)</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students (%)</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education (%)</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education (%)</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity (%)</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate (%)</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate (%)</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%)</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination, third dose (%)</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination, third dose (%)</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%)</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%)</t>
+  </si>
+  <si>
+    <t>**Institutional births (%)</t>
+  </si>
+  <si>
+    <t>**Current education expenditure (% GDP)</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary (%)</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary (%)</t>
+  </si>
+  <si>
+    <t>**Out of school children (per 1,000 children aged 14)</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate (%)</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning (% of women)</t>
+  </si>
+  <si>
+    <t>**HPV vaccination, last dose (%)</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (%)</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate (per 1,000 uninfected)</t>
+  </si>
+  <si>
+    <t>**Refugees (persons)</t>
+  </si>
+  <si>
+    <t>**Youth to adult unemployment ratio (%)</t>
+  </si>
+  <si>
+    <t>**Out of school children (%)</t>
+  </si>
+  <si>
+    <t>**Refugees (%)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (%)</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%)</t>
+  </si>
+  <si>
+    <t>**ITN use by children</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education</t>
   </si>
 </sst>
 </file>
@@ -1139,9 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,7 @@
         <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1312,7 +1312,7 @@
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1354,7 +1354,7 @@
         <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1375,7 +1375,7 @@
         <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1417,15 +1417,15 @@
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1438,15 +1438,15 @@
         <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1459,7 +1459,7 @@
         <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1564,7 +1564,7 @@
         <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1684,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1702,7 @@
         <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1720,7 +1720,7 @@
         <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1759,7 +1759,7 @@
         <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1801,7 +1801,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1843,7 +1843,7 @@
         <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1900,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
@@ -1921,7 +1921,7 @@
         <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -1942,7 +1942,7 @@
         <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>69</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
@@ -2068,7 +2068,7 @@
         <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
@@ -2089,7 +2089,7 @@
         <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
         <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -2173,7 +2173,7 @@
         <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
@@ -2194,7 +2194,7 @@
         <v>69</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
@@ -2215,7 +2215,7 @@
         <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2257,7 +2257,7 @@
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
@@ -2278,7 +2278,7 @@
         <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>108</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
@@ -2299,7 +2299,7 @@
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
@@ -2320,7 +2320,7 @@
         <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
@@ -2362,7 +2362,7 @@
         <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>111</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
@@ -2383,7 +2383,7 @@
         <v>69</v>
       </c>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>113</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
@@ -2425,7 +2425,7 @@
         <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>112</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
@@ -2446,7 +2446,7 @@
         <v>69</v>
       </c>
       <c r="F63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
         <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
         <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="2">IF(D67="%","percent","")</f>
@@ -2530,7 +2530,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>69</v>
       </c>
       <c r="F69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>84</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
@@ -2662,7 +2662,7 @@
         <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
@@ -2672,7 +2672,7 @@
         <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>104</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
@@ -2690,7 +2690,7 @@
         <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>105</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
@@ -2708,7 +2708,7 @@
         <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>106</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
@@ -2726,7 +2726,7 @@
         <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
@@ -2744,7 +2744,7 @@
         <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>110</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
@@ -2762,7 +2762,7 @@
         <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB7D2CE-B9C3-432A-BBB4-E0A636A724C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC321A-0D31-41A5-BA47-5C3177A24E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,54 +242,27 @@
     <t>health_exp</t>
   </si>
   <si>
-    <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>d_done</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value' per 1,000 total births** (*`ind_year'*)</t>
   </si>
   <si>
     <t>persons</t>
   </si>
   <si>
-    <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Life expectancy at birth (years).** Life expectancy at birth is **`ind_value' years** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Primary schools with access to electricity (%).** The share of primary schools with access to electricity is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>HIV_inc_1019</t>
   </si>
   <si>
     <t>ITN_children</t>
   </si>
   <si>
-    <t>**ITN use by children.** The percentage of children (under age 5) who slept under an insecticide-treated mosquito net the night prior to being surveyed is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>refugees</t>
   </si>
   <si>
@@ -305,51 +278,6 @@
     <t>**Refugees (persons).** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education (%).** The proportion of qualified teachers in secondary education is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate (%).** Upper secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate (%).** Lower secondary school completion rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Learning poverty (%).** As in *`ind_year'*, **`ind_value' percent** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)**. As in *`ind_year'*, **`ind_value' percent** of population has access to an improved sanitation facility at home</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)**. As in *`ind_year'*, **`ind_value' percent** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track (%).** As in *`ind_year'*, **`ind_value' percent** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
     <t>netenrt_ls</t>
   </si>
   <si>
@@ -383,24 +311,6 @@
     <t>minprof_r_endprim</t>
   </si>
   <si>
-    <t>**Postnatal care for newborns (%).** As in *`ind_year'*, **`ind_value' percent** of newborns have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth not in employment, education or training (%).** As in *`ind_year'*, **`ind_value' percent** of the youth ages 15-24 are not in employment, education or training</t>
-  </si>
-  <si>
-    <t>**Adult informal employment rate (%).** The percentage of adults ages +25 engaged in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**HIV incidence rate (per 1,000 uninfected).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
@@ -410,111 +320,21 @@
     <t>**Maternal mortality ratio (per 100,000 live births).** For every 100,000 live births, **`ind_value' women** (*`ind_year'*) die from pregnancy related causes</t>
   </si>
   <si>
-    <t>**Gross school enrollment rate, tertiary (%).** The tertiary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*)</t>
   </si>
   <si>
     <t>**Child mortality rate (per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Repetition rate in primary education (%).** As in *`ind_year'*, **`ind_value' percent** of students in primary education remained in the same grade in the following school year</t>
-  </si>
-  <si>
     <t>**Adolescent suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate (%).** The unemployment rate among adults more than 25 years old is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Exclusive breastfeeding (%).** As in *`ind_year'*, **`ind_value' percent** of infants 0-5 months were fed exclusively with breast milk</t>
-  </si>
-  <si>
-    <t>**Care seeking for febrile children (%).** As in *`ind_year'*, **`ind_value' percent** of children under age 5 with fever sought treatment or advice</t>
-  </si>
-  <si>
-    <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Institutional births (%).** As in *`ind_year'*, **`ind_value' percent of births** occurred in health facilities</t>
-  </si>
-  <si>
-    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate (%).** The female labor force participation rate (ages +25) as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate (%).** The male labor force participation rate (ages +25) as a percentage of the working population is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Postnatal care for mothers (%).** As in *`ind_year'*, **`ind_value' percent** of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%).** As in *`ind_year'*, **`ind_value' percent** of women aged 18-29 years experienced sexual violence by age 18</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility (%)**. As in *`ind_year'*, **`ind_value' percent** of population has access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%).** As in *`ind_year'*, **`ind_value' percent** of children one year before the official primary entry age participate in an organized learning program</t>
-  </si>
-  <si>
-    <t>**High skill employment rate (%).** As in *`ind_year'*, **`ind_value' percent** of total employed adults are high-skilled (levels 3-4)</t>
-  </si>
-  <si>
-    <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>emp_2wap_f_a</t>
   </si>
   <si>
@@ -524,21 +344,6 @@
     <t>no_data_start_text</t>
   </si>
   <si>
-    <t>**Prevalence of anaemia in children (%).** As in *`ind_year'*, **`ind_value' percent** of children aged 6–59 months has anaemia</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary (%).** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary (%).** As in *`ind_year'*, **`ind_value' percent of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio, early childhood education.** The gross enrolment rate in early childhood education is **`ind_value' ** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Asylum seekers (persons)</t>
   </si>
   <si>
@@ -771,6 +576,201 @@
   </si>
   <si>
     <t>**Gross enrollment ratio, early childhood education</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary (%).** The tertiary school gross enrollment rate is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate (%).** Lower secondary school completion rate is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate (%).** Upper secondary school completion rate is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education (%).** The proportion of qualified teachers in secondary education is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity (%).** The share of primary schools with access to electricity is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate (%).** The unemployment rate among adults more than 25 years old is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate (%).** The female labor force participation rate (ages +25) as a percentage of the working population is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate (%).** The male labor force participation rate (ages +25) as a percentage of the working population is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%).** The percentage of adults ages +25 engaged in informal employment is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**ITN use by children.** The percentage of children (under age 5) who slept under an insecticide-treated mosquito net the night prior to being surveyed is **`ind_value'%** (*`ind_year'*)</t>
+  </si>
+  <si>
+    <t>**Exclusive breastfeeding (%).** In *`ind_year'*, **`ind_value'%** of infants 0-5 months were fed exclusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns (%).** In *`ind_year'*, **`ind_value'%** of newborns have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children (%).** In *`ind_year'*, **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%).** In *`ind_year'*, **`ind_value'%** of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training (%).** In *`ind_year'*, **`ind_value'%** of the youth ages 15-24 are not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education (%).** In *`ind_year'*, **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%).** In *`ind_year'*, **`ind_value'%** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%).** In *`ind_year'*, **`ind_value'%** of women aged 18-29 years experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%).** In *`ind_year'*, **`ind_value'%** of children aged 6–59 months has anaemia</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)**. In *`ind_year'*, **`ind_value'%** of population has access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)**. In *`ind_year'*, **`ind_value'%** of population has access to an improved sanitation facility at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)**. In *`ind_year'*, **`ind_value'%** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%).** In *`ind_year'*, **`ind_value'%** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%).** In *`ind_year'*, **`ind_value'%** of children one year before the official primary entry age participate in an organized learning program</t>
+  </si>
+  <si>
+    <t>**Institutional births (%).** In *`ind_year'*, **`ind_value'% of births** occurred in health facilities</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary (%).** In *`ind_year'*, **`ind_value'% of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary (%).** In *`ind_year'*, **`ind_value'% of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%).** In *`ind_year'*, **`ind_value'%** of total employed adults are high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education.** The gross enrolment rate in early childhood education is **`ind_value'% ** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1140,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1166,10 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1177,16 +1177,16 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1194,20 +1194,20 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C34" si="0">IF(D3="%","percent","")</f>
-        <v>percent</v>
+        <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
+        <v>%</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1215,20 +1215,20 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1236,20 +1236,20 @@
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1257,20 +1257,20 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1278,20 +1278,20 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1299,20 +1299,20 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1320,20 +1320,20 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1341,20 +1341,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1362,20 +1362,20 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1383,20 +1383,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1404,62 +1404,62 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1467,20 +1467,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1488,41 +1488,41 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1530,20 +1530,20 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1551,20 +1551,20 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1572,17 +1572,17 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1590,20 +1590,20 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1611,17 +1611,17 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
         <v>122</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1629,20 +1629,20 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1650,20 +1650,20 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1671,20 +1671,20 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1692,17 +1692,17 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1710,17 +1710,17 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1728,17 +1728,17 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1746,20 +1746,20 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1767,20 +1767,20 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1788,41 +1788,41 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1830,20 +1830,20 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1851,20 +1851,20 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C66" si="1">IF(D35="%","percent","")</f>
+        <f t="shared" ref="C35:C66" si="1">IF(D35="%","%","")</f>
         <v/>
       </c>
       <c r="D35" t="s">
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1872,17 +1872,17 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1890,17 +1890,17 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1908,41 +1908,41 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1950,20 +1950,20 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1971,20 +1971,20 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1992,20 +1992,20 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2013,20 +2013,20 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2034,20 +2034,20 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2055,20 +2055,20 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2076,20 +2076,20 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2097,20 +2097,20 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D47" t="s">
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,20 +2118,20 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2139,20 +2139,20 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2160,20 +2160,20 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2181,20 +2181,20 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2202,20 +2202,20 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2223,41 +2223,41 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2265,62 +2265,62 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D57" t="s">
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2328,20 +2328,20 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2349,41 +2349,41 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2391,62 +2391,62 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D63" t="s">
         <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2454,20 +2454,20 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2475,20 +2475,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2496,20 +2496,20 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D66" t="s">
         <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2517,39 +2517,39 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C79" si="2">IF(D67="%","percent","")</f>
-        <v>percent</v>
+        <f t="shared" ref="C67:C79" si="2">IF(D67="%","%","")</f>
+        <v>%</v>
       </c>
       <c r="D67" t="s">
         <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2557,212 +2557,212 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
-        <v>percent</v>
+        <v>%</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC321A-0D31-41A5-BA47-5C3177A24E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BFF1C6-8383-45C9-B913-80F00B7D4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,15 +248,9 @@
     <t>ok</t>
   </si>
   <si>
-    <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value' per 1,000 total births** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>persons</t>
   </si>
   <si>
-    <t>**Life expectancy at birth (years).** Life expectancy at birth is **`ind_value' years** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>HIV_inc_1019</t>
   </si>
   <si>
@@ -269,15 +263,6 @@
     <t>youth_adult_un</t>
   </si>
   <si>
-    <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Out of school children (per 1,000 children aged 14).** The number of out-of-school children of primary school age is **`ind_value' persons** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Refugees (persons).** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value' persons** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>netenrt_ls</t>
   </si>
   <si>
@@ -311,30 +296,6 @@
     <t>minprof_r_endprim</t>
   </si>
   <si>
-    <t>**HIV incidence rate (per 1,000 uninfected).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility rate (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Maternal mortality ratio (per 100,000 live births).** For every 100,000 live births, **`ind_value' women** (*`ind_year'*) die from pregnancy related causes</t>
-  </si>
-  <si>
-    <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value' per 1,000 youth aged 15** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Child mortality rate (per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value' per 1,000 children aged 15** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value' per 100,000 population** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value' per 1,000 live births** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>emp_2wap_f_a</t>
   </si>
   <si>
@@ -578,199 +539,238 @@
     <t>**Gross enrollment ratio, early childhood education</t>
   </si>
   <si>
-    <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, tertiary (%).** The tertiary school gross enrollment rate is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate (%).** Lower secondary school completion rate is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate (%).** Upper secondary school completion rate is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education (%).** The proportion of qualified teachers in secondary education is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Primary schools with access to electricity (%).** The share of primary schools with access to electricity is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate (%).** The unemployment rate among adults more than 25 years old is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate (%).** The female labor force participation rate (ages +25) as a percentage of the working population is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate (%).** The male labor force participation rate (ages +25) as a percentage of the working population is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Adult informal employment rate (%).** The percentage of adults ages +25 engaged in informal employment is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**ITN use by children.** The percentage of children (under age 5) who slept under an insecticide-treated mosquito net the night prior to being surveyed is **`ind_value'%** (*`ind_year'*)</t>
-  </si>
-  <si>
-    <t>**Exclusive breastfeeding (%).** In *`ind_year'*, **`ind_value'%** of infants 0-5 months were fed exclusively with breast milk</t>
-  </si>
-  <si>
-    <t>**Postnatal care for newborns (%).** In *`ind_year'*, **`ind_value'%** of newborns have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Care seeking for febrile children (%).** In *`ind_year'*, **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
-  </si>
-  <si>
-    <t>**Postnatal care for mothers (%).** In *`ind_year'*, **`ind_value'%** of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Youth not in employment, education or training (%).** In *`ind_year'*, **`ind_value'%** of the youth ages 15-24 are not in employment, education or training</t>
-  </si>
-  <si>
-    <t>**Repetition rate in primary education (%).** In *`ind_year'*, **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
-  </si>
-  <si>
-    <t>**Learning poverty (%).** In *`ind_year'*, **`ind_value'%** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%).** In *`ind_year'*, **`ind_value'%** of women aged 18-29 years experienced sexual violence by age 18</t>
-  </si>
-  <si>
-    <t>**Prevalence of anaemia in children (%).** In *`ind_year'*, **`ind_value'%** of children aged 6–59 months has anaemia</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility (%)**. In *`ind_year'*, **`ind_value'%** of population has access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)**. In *`ind_year'*, **`ind_value'%** of population has access to an improved sanitation facility at home</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)**. In *`ind_year'*, **`ind_value'%** of population (*`ind_year'*) has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track (%).** In *`ind_year'*, **`ind_value'%** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%).** In *`ind_year'*, **`ind_value'%** of children one year before the official primary entry age participate in an organized learning program</t>
-  </si>
-  <si>
-    <t>**Institutional births (%).** In *`ind_year'*, **`ind_value'% of births** occurred in health facilities</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary (%).** In *`ind_year'*, **`ind_value'% of children** achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary (%).** In *`ind_year'*, **`ind_value'% of children** achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
-    <t>**High skill employment rate (%).** In *`ind_year'*, **`ind_value'%** of total employed adults are high-skilled (levels 3-4)</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio, early childhood education.** The gross enrolment rate in early childhood education is **`ind_value'% ** (*`ind_year'*)</t>
+    <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Exclusive breastfeeding (%).** In `ind_year', **`ind_value'%** of infants 0-5 months were fed exclusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns (%).** In `ind_year', **`ind_value'%** of newborns have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children (%).** In `ind_year', **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%).** In `ind_year', **`ind_value'%** of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training (%).** In `ind_year', **`ind_value'%** of the youth ages 15-24 are not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility rate (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary (%).** The tertiary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education (%).** In `ind_year', **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%).** In `ind_year', **`ind_value'%** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence (%).** In `ind_year', **`ind_value'%** of women aged 18-29 years experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%).** In `ind_year', **`ind_value'%** of children aged 6–59 months has anaemia</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate (%).** Lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate (%).** Upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education (%).** The proportion of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity (%).** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)**. In `ind_year', **`ind_value'%** of population has access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)**. In `ind_year', **`ind_value'%** of population has access to an improved sanitation facility at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)**. In `ind_year', **`ind_value'%** of population (`ind_year') has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%).** In `ind_year', **`ind_value'%** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%).** In `ind_year', **`ind_value'%** of children one year before the official primary entry age participate in an organized learning program</t>
+  </si>
+  <si>
+    <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%).** In `ind_year', **`ind_value'%** of total employed adults are high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate (per 1,000 uninfected).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**ITN use by children.** The percentage of children (under age 5) who slept under an insecticide-treated mosquito net the night prior to being surveyed is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross enrollment ratio, early childhood education.** The gross enrolment rate in early childhood education is **`ind_value'% ** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Maternal mortality ratio (per 100,000 live births).** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
+  </si>
+  <si>
+    <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Child mortality rate (per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value'** per 1,000 children aged 15 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Life expectancy at birth (years).** Life expectancy at birth is **`ind_value'** years (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value'** per 1,000 total births (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Institutional births (%).** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary (%).** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary (%).** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Out of school children (per 1,000 children aged 14).** The number of out-of-school children of primary school age is **`ind_value'** persons (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Refugees (persons).** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate (%).** The female labor force participation rate (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate (%).** The male labor force participation rate (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate (%).** The percentage of adults ages 25+ engaged in informal employment is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate (%).** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1140,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,7 @@
         <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1177,16 +1177,16 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -1207,7 +1207,7 @@
         <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1228,7 +1228,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1249,7 +1249,7 @@
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1270,7 +1270,7 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1291,7 +1291,7 @@
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1312,7 +1312,7 @@
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1333,7 +1333,7 @@
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1375,7 +1375,7 @@
         <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1396,7 +1396,7 @@
         <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1417,15 +1417,15 @@
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1438,15 +1438,15 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1459,7 +1459,7 @@
         <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1480,7 +1480,7 @@
         <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1501,7 +1501,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1522,7 +1522,7 @@
         <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1564,7 +1564,7 @@
         <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1582,7 +1582,7 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1603,7 +1603,7 @@
         <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1621,7 +1621,7 @@
         <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1642,7 +1642,7 @@
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1663,7 +1663,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1684,7 +1684,7 @@
         <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1702,7 @@
         <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1720,7 +1720,7 @@
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
         <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1759,7 +1759,7 @@
         <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1780,7 +1780,7 @@
         <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1801,7 +1801,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1822,7 +1822,7 @@
         <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1843,7 +1843,7 @@
         <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="1">IF(D35="%","%","")</f>
@@ -1864,7 +1864,7 @@
         <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
@@ -1882,7 +1882,7 @@
         <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1900,7 +1900,7 @@
         <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
@@ -1921,7 +1921,7 @@
         <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -1942,7 +1942,7 @@
         <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
@@ -1963,7 +1963,7 @@
         <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
@@ -1984,7 +1984,7 @@
         <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
@@ -2005,7 +2005,7 @@
         <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2013,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
@@ -2026,7 +2026,7 @@
         <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
@@ -2047,7 +2047,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
@@ -2068,7 +2068,7 @@
         <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
@@ -2089,7 +2089,7 @@
         <v>68</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
@@ -2110,7 +2110,7 @@
         <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
@@ -2131,7 +2131,7 @@
         <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
@@ -2152,7 +2152,7 @@
         <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -2173,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
@@ -2215,7 +2215,7 @@
         <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
@@ -2236,7 +2236,7 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
@@ -2257,7 +2257,7 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
@@ -2278,15 +2278,15 @@
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
@@ -2299,7 +2299,7 @@
         <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
@@ -2320,7 +2320,7 @@
         <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
@@ -2341,7 +2341,7 @@
         <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
@@ -2362,15 +2362,15 @@
         <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
@@ -2383,7 +2383,7 @@
         <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
@@ -2404,15 +2404,15 @@
         <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
@@ -2425,15 +2425,15 @@
         <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
@@ -2446,7 +2446,7 @@
         <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2454,20 +2454,20 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
         <v>68</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2475,7 +2475,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
@@ -2488,7 +2488,7 @@
         <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
@@ -2509,7 +2509,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="2">IF(D67="%","%","")</f>
@@ -2530,15 +2530,15 @@
         <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
@@ -2570,15 +2570,15 @@
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
@@ -2591,15 +2591,15 @@
         <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
@@ -2612,36 +2612,36 @@
         <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
         <v>68</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
@@ -2654,15 +2654,15 @@
         <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
@@ -2672,15 +2672,15 @@
         <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
@@ -2690,15 +2690,15 @@
         <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
@@ -2708,15 +2708,15 @@
         <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
@@ -2726,15 +2726,15 @@
         <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
@@ -2744,15 +2744,15 @@
         <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
@@ -2762,7 +2762,7 @@
         <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BFF1C6-8383-45C9-B913-80F00B7D4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49A5E4-2A48-4723-9BAF-2802ACF2277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,8 +1140,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49A5E4-2A48-4723-9BAF-2802ACF2277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AED135-B667-4EF8-90E2-9C6D7DBE2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,9 +731,6 @@
     <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
   </si>
   <si>
-    <t>**Child mortality rate (per 1,000 youth aged 5).**  The mortality rate at ages 5–14 is **`ind_value'** per 1,000 children aged 15 (`ind_year')</t>
-  </si>
-  <si>
     <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
   </si>
   <si>
@@ -771,6 +768,9 @@
   </si>
   <si>
     <t>**Adult unemployment rate (%).** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Mortality rate at ages 5-14 (per 1,000 children aged 5).**  The mortality rate for children is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -1140,19 +1140,19 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1420,12 +1420,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1441,12 +1441,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1462,7 +1462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1483,12 +1483,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1504,7 +1504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1705,12 +1705,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1723,12 +1723,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1741,7 +1741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1846,12 +1846,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="1">IF(D35="%","%","")</f>
@@ -1867,12 +1867,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
@@ -1885,12 +1885,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1903,7 +1903,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2155,12 +2155,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +2176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2365,12 +2365,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
@@ -2386,7 +2386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2407,12 +2407,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
@@ -2428,12 +2428,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
@@ -2449,12 +2449,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
@@ -2470,7 +2470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2615,12 +2615,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
@@ -2636,7 +2636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AED135-B667-4EF8-90E2-9C6D7DBE2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{75AED135-B667-4EF8-90E2-9C6D7DBE2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA1E36C5-2F0F-4980-9748-2D865B42424A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -704,9 +704,6 @@
     <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of school net enrolment at lower secondary is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
     <t>**Maternal mortality ratio (per 100,000 live births).** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
   </si>
   <si>
-    <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
-  </si>
-  <si>
     <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
   </si>
   <si>
@@ -771,6 +765,12 @@
   </si>
   <si>
     <t>**Mortality rate at ages 5-14 (per 1,000 children aged 5).**  The mortality rate for children is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Mortality rate at aged 15-24  (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -1140,19 +1140,19 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="68.33203125" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,12 +1172,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -1189,7 +1189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1420,12 +1420,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1441,12 +1441,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1462,7 +1462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1483,12 +1483,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1504,7 +1504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1606,12 +1606,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1624,7 +1624,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1687,12 +1687,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1705,12 +1705,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1723,12 +1723,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1741,7 +1741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1846,12 +1846,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="1">IF(D35="%","%","")</f>
@@ -1867,12 +1867,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
@@ -1885,12 +1885,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1903,7 +1903,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2155,12 +2155,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +2176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2365,12 +2365,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
@@ -2386,7 +2386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2407,12 +2407,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
@@ -2428,12 +2428,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
@@ -2449,12 +2449,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
@@ -2470,7 +2470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2615,12 +2615,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
@@ -2636,7 +2636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2657,12 +2657,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
@@ -2675,12 +2675,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
@@ -2693,12 +2693,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
@@ -2711,12 +2711,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
@@ -2729,12 +2729,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
@@ -2747,12 +2747,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{75AED135-B667-4EF8-90E2-9C6D7DBE2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA1E36C5-2F0F-4980-9748-2D865B42424A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E8426-D11E-49FA-B8F3-71AA5A60C469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,13 +764,13 @@
     <t>**Adult unemployment rate (%).** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Mortality rate at ages 5-14 (per 1,000 children aged 5).**  The mortality rate for children is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
-  </si>
-  <si>
     <t>**Net school enrollment rate, lower secondary.** The percentage of secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Mortality rate at aged 15-24  (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
+    <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Child mortality rate (per 1,000 children aged 5).**  The mortality rate for children at ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1710,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -2662,7 +2662,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E8426-D11E-49FA-B8F3-71AA5A60C469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{887E8426-D11E-49FA-B8F3-71AA5A60C469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF3BDA8B-DE2F-4680-8F9B-9BC3D0ACDCBD}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,24 +557,15 @@
     <t>**Exclusive breastfeeding (%).** In `ind_year', **`ind_value'%** of infants 0-5 months were fed exclusively with breast milk</t>
   </si>
   <si>
-    <t>**Postnatal care for newborns (%).** In `ind_year', **`ind_value'%** of newborns have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Care seeking for febrile children (%).** In `ind_year', **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
   </si>
   <si>
-    <t>**Postnatal care for mothers (%).** In `ind_year', **`ind_value'%** of mothers (aged 15-49) have postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
     <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Youth not in employment, education or training (%).** In `ind_year', **`ind_value'%** of the youth ages 15-24 are not in employment, education or training</t>
-  </si>
-  <si>
     <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -608,15 +599,9 @@
     <t>**Repetition rate in primary education (%).** In `ind_year', **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
   </si>
   <si>
-    <t>**Learning poverty (%).** In `ind_year', **`ind_value'%** of 10-year-olds cannot read and understand a simple text by the end of primary school</t>
-  </si>
-  <si>
     <t>**Prevalence of sexual violence (%).** In `ind_year', **`ind_value'%** of women aged 18-29 years experienced sexual violence by age 18</t>
   </si>
   <si>
-    <t>**Prevalence of anaemia in children (%).** In `ind_year', **`ind_value'%** of children aged 6–59 months has anaemia</t>
-  </si>
-  <si>
     <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -653,15 +638,6 @@
     <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Population with basic handwashing facility (%)**. In `ind_year', **`ind_value'%** of population has access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)**. In `ind_year', **`ind_value'%** of population has access to an improved sanitation facility at home</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)**. In `ind_year', **`ind_value'%** of population (`ind_year') has access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
     <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -671,12 +647,6 @@
     <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Children who are developmentally on track (%).** In `ind_year', **`ind_value'%** of children 24-59 months are developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%).** In `ind_year', **`ind_value'%** of children one year before the official primary entry age participate in an organized learning program</t>
-  </si>
-  <si>
     <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -689,9 +659,6 @@
     <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**High skill employment rate (%).** In `ind_year', **`ind_value'%** of total employed adults are high-skilled (levels 3-4)</t>
-  </si>
-  <si>
     <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -771,6 +738,39 @@
   </si>
   <si>
     <t>**Child mortality rate (per 1,000 children aged 5).**  The mortality rate for children at ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning (%).** In `ind_year', **`ind_value'%** of children one year before the official primary entry age participated in an organized learning program</t>
+  </si>
+  <si>
+    <t>**High skill employment rate (%).** In `ind_year', **`ind_value'%** of total employed adults were high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns (%).** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers (%).** In `ind_year', **`ind_value'%** of mothers (aged 15-49) had postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training (%).** In `ind_year', **`ind_value'%** of the youth ages 15-24 were not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Learning poverty (%).** In `ind_year', **`ind_value'%** of 10-year-olds could not read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children (%).** In `ind_year', **`ind_value'%** of children aged 6–59 months had anaemia</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility (%)**. In `ind_year', **`ind_value'%** of population had access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services (%)**. In `ind_year', **`ind_value'%** of population had access to an improved sanitation facility at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services (%)**. In `ind_year', **`ind_value'%** of population (`ind_year') had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track (%).** In `ind_year', **`ind_value'%** of children 24-59 months were developmentally on track in health, learning and psychosocial well-being</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1140,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -1320,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1404,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1425,7 +1425,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1446,7 +1446,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1467,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1488,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1530,7 +1530,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1551,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1572,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1611,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1629,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1650,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1671,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1710,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1746,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1767,7 +1767,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1788,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1809,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1830,7 +1830,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1851,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="1">IF(D35="%","%","")</f>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
@@ -1890,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1908,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
@@ -1929,7 +1929,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -1950,7 +1950,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
@@ -1971,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
@@ -1992,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
@@ -2013,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
@@ -2034,7 +2034,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
@@ -2055,7 +2055,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
@@ -2097,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
@@ -2118,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
@@ -2139,7 +2139,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
@@ -2160,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -2181,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
@@ -2202,7 +2202,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
@@ -2223,7 +2223,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
@@ -2244,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
@@ -2286,7 +2286,7 @@
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
@@ -2328,7 +2328,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
@@ -2349,7 +2349,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
@@ -2370,7 +2370,7 @@
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
@@ -2391,7 +2391,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
@@ -2412,7 +2412,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
@@ -2433,7 +2433,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
@@ -2454,7 +2454,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
@@ -2475,7 +2475,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
@@ -2496,7 +2496,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
@@ -2517,7 +2517,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="2">IF(D67="%","%","")</f>
@@ -2538,7 +2538,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
@@ -2557,7 +2557,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
@@ -2578,7 +2578,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
@@ -2599,7 +2599,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
@@ -2620,7 +2620,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
@@ -2641,7 +2641,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
@@ -2662,7 +2662,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
@@ -2680,7 +2680,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
@@ -2698,7 +2698,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
@@ -2716,7 +2716,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
@@ -2734,7 +2734,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
@@ -2752,7 +2752,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{887E8426-D11E-49FA-B8F3-71AA5A60C469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF3BDA8B-DE2F-4680-8F9B-9BC3D0ACDCBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F60B23-2E9A-4250-9ED1-3E8AD0567D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="166">
   <si>
     <t>name_portal</t>
   </si>
@@ -305,472 +305,238 @@
     <t>no_data_start_text</t>
   </si>
   <si>
-    <t>**Asylum seekers (persons)</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic hygiene services (%)</t>
-  </si>
-  <si>
-    <t>**Schools with basic hygiene services (%)</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic sanitation services (%)</t>
-  </si>
-  <si>
-    <t>**Schools with basic sanitation services (%)</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services  (%)</t>
-  </si>
-  <si>
-    <t>**Exclusive breastfeeding (%)</t>
-  </si>
-  <si>
-    <t>**Postnatal care for newborns (%)</t>
-  </si>
-  <si>
-    <t>**Care seeking for febrile children (%)</t>
-  </si>
-  <si>
-    <t>**Postnatal care for mothers (%)</t>
-  </si>
-  <si>
-    <t>**Children engaged in child labor (%)</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with diarrhoea (%)</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate (%)</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate (%)</t>
-  </si>
-  <si>
-    <t>**Youth not in employment, education or training (%)</t>
-  </si>
-  <si>
-    <t>**Adult informal employment rate (%)</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%)</t>
-  </si>
-  <si>
-    <t>**Prevalence of hypertension (%)</t>
-  </si>
-  <si>
-    <t>**Prevalence of insufficient physical activity (%)</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility rate (births/1000 women)</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration (%)</t>
-  </si>
-  <si>
-    <t>**Maternal mortality ratio (per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, secondary (%)</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, tertiary (%)</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency (%)</t>
-  </si>
-  <si>
-    <t>**Youth mortality rate (per 1,000 youth aged 15)</t>
-  </si>
-  <si>
-    <t>**Child mortality rate (per 1,000 youth aged 5)</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality rate (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults (%)</t>
-  </si>
-  <si>
-    <t>**Probability of dying from NCDs (%)</t>
-  </si>
-  <si>
-    <t>**Repetition rate in primary education (%)</t>
-  </si>
-  <si>
-    <t>**Learning poverty (%)</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%)</t>
-  </si>
-  <si>
-    <t>**Life expectancy at birth (years)</t>
-  </si>
-  <si>
-    <t>**Stillbirth rate (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates (per 100,000 population)</t>
-  </si>
-  <si>
-    <t>**Prevalence of anaemia in children (%)</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with pneumonia symptoms (%)</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate (%)</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate (%)</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate (%)</t>
-  </si>
-  <si>
-    <t>**Gross enrollment, early childhood education (%)</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment ratio (%)</t>
-  </si>
-  <si>
-    <t>**Over-age primary students (%)</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%)</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in primary education (%)</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education (%)</t>
-  </si>
-  <si>
-    <t>**Primary schools with access to electricity (%)</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate (%)</t>
-  </si>
-  <si>
-    <t>**Youth unemployment rate (%)</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility (%)</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%)</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination, third dose (%)</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination, third dose (%)</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track (%)</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%)</t>
-  </si>
-  <si>
-    <t>**Institutional births (%)</t>
-  </si>
-  <si>
-    <t>**Current education expenditure (% GDP)</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary (%)</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary (%)</t>
-  </si>
-  <si>
-    <t>**Out of school children (per 1,000 children aged 14)</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate (%)</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning (% of women)</t>
-  </si>
-  <si>
-    <t>**HPV vaccination, last dose (%)</t>
-  </si>
-  <si>
-    <t>**High skill employment rate (%)</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (%)</t>
-  </si>
-  <si>
-    <t>**HIV incidence rate (per 1,000 uninfected)</t>
-  </si>
-  <si>
-    <t>**Refugees (persons)</t>
-  </si>
-  <si>
-    <t>**Youth to adult unemployment ratio (%)</t>
-  </si>
-  <si>
-    <t>**Out of school children (%)</t>
-  </si>
-  <si>
-    <t>**Refugees (%)</t>
-  </si>
-  <si>
-    <t>**Asylum seekers (%)</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%)</t>
-  </si>
-  <si>
-    <t>**ITN use by children</t>
-  </si>
-  <si>
-    <t>**Net school enrollment rate, lower secondary</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio, early childhood education</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic hygiene services (%).** The share of health care facilities with functional hand hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Schools with basic hygiene services (%).** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic sanitation services (%).** The share of health care facilities with improved sanitation facilities is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Schools with basic sanitation services (%).** The share of schools with improved sanitation facilities is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services  (%).** The share of health care facilities with water available from an improved source is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Exclusive breastfeeding (%).** In `ind_year', **`ind_value'%** of infants 0-5 months were fed exclusively with breast milk</t>
-  </si>
-  <si>
-    <t>**Care seeking for febrile children (%).** In `ind_year', **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
-  </si>
-  <si>
-    <t>**Children engaged in child labor (%).** The share of children aged 5-17 years who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with diarrhoea (%).** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate (%).** The percentage of youth ages 15-24 involved in informal employment is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of hypertension (%).** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of insufficient physical activity (%).** The share of school-going adolescents ages 11-17 years not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adolescent fertility rate (births/1000 women).** The adolescent fertility rate, i.e., the number of births for every 1000 women ages 15-19, is **`ind_value'** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration (%).** Complete birth registration is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, secondary (%).** The secondary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, tertiary (%).** The tertiary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency (%).** Adequate meal frequency among children 0-23 months is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults (%).** The percentage of adults aged 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Probability of dying from NCDs (%).** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Repetition rate in primary education (%).** In `ind_year', **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence (%).** In `ind_year', **`ind_value'%** of women aged 18-29 years experienced sexual violence by age 18</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with pneumonia symptoms (%).** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate (%).** Primary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate (%).** Lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate (%).** Upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross enrollment, early childhood education (%). The gross enrollment ratio in early childhood educational development programs is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment ratio (%).** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Over-age primary students (%).** The percentage of over-age primary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students (%).** The percentage of over-age lower secondary students, i.e., students who are older than the typical age for their respective school level, is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in primary education (%).** The share of qualified teachers in primary education is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education (%).** The proportion of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary schools with access to electricity (%).** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth unemployment rate (%).** The unemployment rate among youth ages 15-24 is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tuberculosis is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Current education expenditure (% GDP).** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate (%).** The literacy rate for youth ages 15-24 years is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning (% of women).** The percentage of women ages 15-49 years who had their need for family planning satisfied is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**HPV vaccination, last dose (%).** The percentage of females who received the last dose of HPV vaccine is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Current health expenditure (%).** The current health expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**HIV incidence rate (per 1,000 uninfected).** The estimated incidence rate, i.e., the number of new HIV infections per 1,000 uninfected adolescents ages 10-19 years, is **`ind_value'** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**ITN use by children.** The percentage of children (under age 5) who slept under an insecticide-treated mosquito net the night prior to being surveyed is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth to adult unemployment ratio (%).** The ratio of youth to adult unemployment is **`ind_value'** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Out of school children (%).** The percentage of primary-school-age children who are out of school is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Refugees (%).** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Asylum seekers (%).** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Internally Displaced Persons (%).** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross enrollment ratio, early childhood education.** The gross enrolment rate in early childhood education is **`ind_value'% ** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
   </si>
   <si>
-    <t>**Maternal mortality ratio (per 100,000 live births).** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
-  </si>
-  <si>
-    <t>**Neonatal mortality rate (per 1,000 live births).** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Life expectancy at birth (years).** Life expectancy at birth is **`ind_value'** years (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Stillbirth rate (per 1,000 total births).** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value'** per 1,000 total births (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates (per 100,000 population).** The suicide rate among youth aged 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Institutional births (%).** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary (%).** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary (%).** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Out of school children (per 1,000 children aged 14).** The number of out-of-school children of primary school age is **`ind_value'** persons (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Refugees (persons).** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate (%).** The female labor force participation rate (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate (%).** The male labor force participation rate (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adult informal employment rate (%).** The percentage of adults ages 25+ engaged in informal employment is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate (%).** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth mortality rate (per 1,000 youth aged 15).**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Child mortality rate (per 1,000 children aged 5).**  The mortality rate for children at ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning (%).** In `ind_year', **`ind_value'%** of children one year before the official primary entry age participated in an organized learning program</t>
-  </si>
-  <si>
-    <t>**High skill employment rate (%).** In `ind_year', **`ind_value'%** of total employed adults were high-skilled (levels 3-4)</t>
-  </si>
-  <si>
-    <t>**Postnatal care for newborns (%).** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Postnatal care for mothers (%).** In `ind_year', **`ind_value'%** of mothers (aged 15-49) had postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
-    <t>**Youth not in employment, education or training (%).** In `ind_year', **`ind_value'%** of the youth ages 15-24 were not in employment, education or training</t>
-  </si>
-  <si>
-    <t>**Learning poverty (%).** In `ind_year', **`ind_value'%** of 10-year-olds could not read and understand a simple text by the end of primary school</t>
-  </si>
-  <si>
-    <t>**Prevalence of anaemia in children (%).** In `ind_year', **`ind_value'%** of children aged 6–59 months had anaemia</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility (%)**. In `ind_year', **`ind_value'%** of population had access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services (%)**. In `ind_year', **`ind_value'%** of population had access to an improved sanitation facility at home</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services (%)**. In `ind_year', **`ind_value'%** of population (`ind_year') had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track (%).** In `ind_year', **`ind_value'%** of children 24-59 months were developmentally on track in health, learning and psychosocial well-being</t>
+    <t>**Schools with basic hygiene services.** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services.** The share of health care facilities with water available from an improved source is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Postnatal care for newborns.** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with diarrhoea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of hypertension.** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration.** Complete birth registration is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Maternal mortality ratio.** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary.** The tertiary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth mortality rate.**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Neonatal mortality rate.** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Probability of dying from NCDs.** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education.** In `ind_year', **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of 10-year-olds could not read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
+    <t>**Life expectancy at birth.** Life expectancy at birth is **`ind_value'** years (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Stillbirth rate.** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value'** per 1,000 total births (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms.** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** Primary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate.** Lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate.** Upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education.** The share of qualified teachers in primary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate.** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate.** The unemployment rate among youth ages 15-24 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility.** In `ind_year', **`ind_value'%** of population had access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services.** In `ind_year', **`ind_value'%** of population had access to an improved sanitation facility at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of population (`ind_year') had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children one year before the official primary entry age participated in an organized learning program</t>
+  </si>
+  <si>
+    <t>**Institutional births.** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
+  </si>
+  <si>
+    <t>**Current education expenditure.** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
+    <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of total employed adults were high-skilled (levels 3-4)</t>
+  </si>
+  <si>
+    <t>**Current health expenditure.** The current health expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Refugees.** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth to adult unemployment ratio.** The ratio of youth to adult unemployment is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Refugees.** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Asylum seekers.** The rate of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Internally Displaced Persons.** The rate of internally displaced persons of concern to UNHCR, as a percentage of the population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic sanitation services.** The share of health care facilities with sanitation facilities is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Schools with basic sanitation services.** The share of schools with sanitation facilities is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Exclusive breastfeeding.** In `ind_year', **`ind_value'%** of infants ages 0-5 months were fed exclusively with breast milk</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers.** In `ind_year', **`ind_value'%** of mothers (ages 15-49) had postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
+    <t>**Children engaged in child labor.** The share of children (ages 5-17) who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate.** The percentage of adults (ages 25+) engaged in informal employment is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training.** In `ind_year', **`ind_value'%** of the youth (ages 15-24) were not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate.** The percentage of youth (ages 15-24) involved in informal employment is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of insufficient physical activity.** The share of school-going adolescents (ages 11-17) not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency.** Adequate meal frequency among children ages 0-23 months is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility rate.** The number of births for every 1,000 women (ages 15-19) is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross enrollment, early childhood education.** The gross enrollment ratio in early childhood educational development programs is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students.** The percentage of lower secondary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 24-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate.** The literacy rate for youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate.** The estimated number of new HIV infections per 1,000 uninfected adolescents (ages 10-19 years) is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education.** The share of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**BCG vaccination rate.** In `ind_year', **`ind_value'%** of infants received the BCG vaccine against tuberculosis</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of diphtheria vaccine</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the hepatitis B vaccine</t>
+  </si>
+  <si>
+    <t>**HPV vaccination rate, last dose.** In `ind_year', **`ind_value'%** of females received the final dose of the HPV vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**ITN use by children.** In `ind_year', **`ind_value'%** of children under age 5 slept under an insecticide-treated mosquito net the night prior to being surveyed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled at that level </t>
+  </si>
+  <si>
+    <t>**Over-age primary students.** The percentage students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) had their need for family planning satisfied</t>
+  </si>
+  <si>
+    <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
+  </si>
+  <si>
+    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled at early childhood education</t>
+  </si>
+  <si>
+    <t>**Child mortality rate.**  The mortality rate for children at ages 5-14 is **`ind_value'** per 1,000 children at age 5 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults.** The percentage of adults at ages 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women at ages 18-29 years experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates.** The suicide rate among youth at ages 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anaemia</t>
+  </si>
+  <si>
+    <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic hygiene services.** The share of health care facilities with hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate.** Female labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate.** Male labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +906,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,6 +916,7 @@
     <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -1185,8 +952,9 @@
       <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
-        <v>88</v>
+      <c r="F2" t="str">
+        <f>LEFT(B2,FIND(".**",B2)+3)</f>
+        <v xml:space="preserve">**Asylum seekers (persons).** </v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1194,7 +962,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -1206,8 +974,9 @@
       <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">LEFT(B3,FIND(".**",B3)+3)</f>
+        <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1215,7 +984,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1227,16 +996,17 @@
       <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Schools with basic hygiene services.** </v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1248,8 +1018,9 @@
       <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" t="s">
-        <v>91</v>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Health care facilities with basic sanitation services.** </v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1257,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1269,8 +1040,9 @@
       <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
-        <v>92</v>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Schools with basic sanitation services.** </v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1278,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1290,8 +1062,9 @@
       <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" t="s">
-        <v>93</v>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Health care facilities with basic water services.** </v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1299,7 +1072,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1311,8 +1084,9 @@
       <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" t="s">
-        <v>94</v>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Exclusive breastfeeding.** </v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1320,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1332,8 +1106,9 @@
       <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
-        <v>95</v>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1341,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1353,8 +1128,9 @@
       <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
-        <v>96</v>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Care seeking for febrile children.** </v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1362,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1374,16 +1150,17 @@
       <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Postnatal care for mothers.** </v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1395,8 +1172,9 @@
       <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
-        <v>98</v>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Children engaged in child labor.** </v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1404,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1416,8 +1194,9 @@
       <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
-        <v>99</v>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Care seeking for children with diarrhoea.** </v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1425,7 +1204,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1437,8 +1216,9 @@
       <c r="E14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
-        <v>100</v>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Female labor force participation rate.** </v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1446,7 +1226,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1458,8 +1238,9 @@
       <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="s">
-        <v>101</v>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Male labor force participation rate.** </v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1467,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1479,8 +1260,9 @@
       <c r="E16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
-        <v>102</v>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Youth not in employment, education or training.** </v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1488,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1500,8 +1282,9 @@
       <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
-        <v>103</v>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Adult informal employment rate.** </v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1509,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1521,8 +1304,9 @@
       <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="F18" t="s">
-        <v>104</v>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Youth informal employment rate.** </v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1530,7 +1314,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1542,8 +1326,9 @@
       <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
-        <v>105</v>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Prevalence of hypertension.** </v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1551,7 +1336,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1563,16 +1348,17 @@
       <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Prevalence of insufficient physical activity.** </v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1581,8 +1367,9 @@
       <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="F21" t="s">
-        <v>107</v>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Adolescent fertility rate.** </v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1590,7 +1377,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1602,16 +1389,17 @@
       <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Completeness of birth registration.** </v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1620,8 +1408,9 @@
       <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="F23" t="s">
-        <v>109</v>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Maternal mortality ratio.** </v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1629,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1641,8 +1430,9 @@
       <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="F24" t="s">
-        <v>110</v>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Gross school enrollment rate, secondary.** </v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1650,7 +1440,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1662,8 +1452,9 @@
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
-        <v>111</v>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1671,7 +1462,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1683,8 +1474,9 @@
       <c r="E26" t="s">
         <v>68</v>
       </c>
-      <c r="F26" t="s">
-        <v>112</v>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1692,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1701,8 +1493,9 @@
       <c r="E27" t="s">
         <v>68</v>
       </c>
-      <c r="F27" t="s">
-        <v>113</v>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Youth mortality rate.** </v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1710,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1719,8 +1512,9 @@
       <c r="E28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" t="s">
-        <v>114</v>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Child mortality rate.** </v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1728,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1737,8 +1531,9 @@
       <c r="E29" t="s">
         <v>68</v>
       </c>
-      <c r="F29" t="s">
-        <v>115</v>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Neonatal mortality rate.** </v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1746,7 +1541,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1758,8 +1553,9 @@
       <c r="E30" t="s">
         <v>68</v>
       </c>
-      <c r="F30" t="s">
-        <v>116</v>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Prevalence of obesity among adults.** </v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1767,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1779,8 +1575,9 @@
       <c r="E31" t="s">
         <v>68</v>
       </c>
-      <c r="F31" t="s">
-        <v>117</v>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Probability of dying from NCDs.** </v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1788,7 +1585,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1800,8 +1597,9 @@
       <c r="E32" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>118</v>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1809,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1821,8 +1619,9 @@
       <c r="E33" t="s">
         <v>68</v>
       </c>
-      <c r="F33" t="s">
-        <v>119</v>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Learning poverty.** </v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1830,7 +1629,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1842,8 +1641,9 @@
       <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
-        <v>120</v>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Prevalence of sexual violence.** </v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1851,10 +1651,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C66" si="1">IF(D35="%","%","")</f>
+        <f t="shared" ref="C35:C66" si="2">IF(D35="%","%","")</f>
         <v/>
       </c>
       <c r="D35" t="s">
@@ -1863,44 +1663,47 @@
       <c r="E35" t="s">
         <v>68</v>
       </c>
-      <c r="F35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Life expectancy at birth.** </v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
-      <c r="F36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Stillbirth rate.** </v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
-      <c r="F37" t="s">
-        <v>123</v>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Adolescent suicide rates.** </v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1908,10 +1711,10 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D38" t="s">
@@ -1920,8 +1723,9 @@
       <c r="E38" t="s">
         <v>68</v>
       </c>
-      <c r="F38" t="s">
-        <v>124</v>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Prevalence of anaemia in children.** </v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1929,10 +1733,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D39" t="s">
@@ -1941,8 +1745,9 @@
       <c r="E39" t="s">
         <v>68</v>
       </c>
-      <c r="F39" t="s">
-        <v>125</v>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1950,10 +1755,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D40" t="s">
@@ -1962,8 +1767,9 @@
       <c r="E40" t="s">
         <v>68</v>
       </c>
-      <c r="F40" t="s">
-        <v>126</v>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Primary school completion rate.** </v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1971,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D41" t="s">
@@ -1983,8 +1789,9 @@
       <c r="E41" t="s">
         <v>68</v>
       </c>
-      <c r="F41" t="s">
-        <v>127</v>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Lower secondary school completion rate.** </v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1992,10 +1799,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D42" t="s">
@@ -2004,8 +1811,9 @@
       <c r="E42" t="s">
         <v>68</v>
       </c>
-      <c r="F42" t="s">
-        <v>128</v>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2013,10 +1821,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D43" t="s">
@@ -2025,8 +1833,9 @@
       <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="F43" t="s">
-        <v>129</v>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Gross enrollment, early childhood education.** </v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2034,10 +1843,10 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D44" t="s">
@@ -2046,8 +1855,9 @@
       <c r="E44" t="s">
         <v>68</v>
       </c>
-      <c r="F44" t="s">
-        <v>130</v>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Pre-primary school gross enrollment ratio.** </v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2055,10 +1865,10 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D45" t="s">
@@ -2067,8 +1877,9 @@
       <c r="E45" t="s">
         <v>68</v>
       </c>
-      <c r="F45" t="s">
-        <v>131</v>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Over-age primary students.** </v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2076,10 +1887,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D46" t="s">
@@ -2088,8 +1899,9 @@
       <c r="E46" t="s">
         <v>68</v>
       </c>
-      <c r="F46" t="s">
-        <v>132</v>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2097,10 +1909,10 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D47" t="s">
@@ -2109,8 +1921,9 @@
       <c r="E47" t="s">
         <v>68</v>
       </c>
-      <c r="F47" t="s">
-        <v>133</v>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,10 +1931,10 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D48" t="s">
@@ -2130,8 +1943,9 @@
       <c r="E48" t="s">
         <v>68</v>
       </c>
-      <c r="F48" t="s">
-        <v>134</v>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2139,10 +1953,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D49" t="s">
@@ -2151,8 +1965,9 @@
       <c r="E49" t="s">
         <v>68</v>
       </c>
-      <c r="F49" t="s">
-        <v>135</v>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Primary schools with access to electricity.** </v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2160,10 +1975,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D50" t="s">
@@ -2172,8 +1987,9 @@
       <c r="E50" t="s">
         <v>68</v>
       </c>
-      <c r="F50" t="s">
-        <v>136</v>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Adult unemployment rate.** </v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2181,10 +1997,10 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D51" t="s">
@@ -2193,8 +2009,9 @@
       <c r="E51" t="s">
         <v>68</v>
       </c>
-      <c r="F51" t="s">
-        <v>137</v>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Youth unemployment rate.** </v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2202,10 +2019,10 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D52" t="s">
@@ -2214,8 +2031,9 @@
       <c r="E52" t="s">
         <v>68</v>
       </c>
-      <c r="F52" t="s">
-        <v>138</v>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Population with basic handwashing facility.** </v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2223,10 +2041,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D53" t="s">
@@ -2235,8 +2053,9 @@
       <c r="E53" t="s">
         <v>68</v>
       </c>
-      <c r="F53" t="s">
-        <v>139</v>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Population with basic sanitation services.** </v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2244,10 +2063,10 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D54" t="s">
@@ -2256,8 +2075,9 @@
       <c r="E54" t="s">
         <v>68</v>
       </c>
-      <c r="F54" t="s">
-        <v>140</v>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Population with basic drinking water services.** </v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2265,10 +2085,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D55" t="s">
@@ -2277,19 +2097,20 @@
       <c r="E55" t="s">
         <v>68</v>
       </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**BCG vaccination rate.** </v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D56" t="s">
@@ -2298,8 +2119,9 @@
       <c r="E56" t="s">
         <v>68</v>
       </c>
-      <c r="F56" t="s">
-        <v>142</v>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Diphtheria vaccination rate, third dose.** </v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2307,10 +2129,10 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D57" t="s">
@@ -2319,8 +2141,9 @@
       <c r="E57" t="s">
         <v>68</v>
       </c>
-      <c r="F57" t="s">
-        <v>143</v>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Hepatitis B vaccination rate, third dose.** </v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2328,10 +2151,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D58" t="s">
@@ -2340,8 +2163,9 @@
       <c r="E58" t="s">
         <v>68</v>
       </c>
-      <c r="F58" t="s">
-        <v>144</v>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Children who are developmentally on track.** </v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2349,10 +2173,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D59" t="s">
@@ -2361,8 +2185,9 @@
       <c r="E59" t="s">
         <v>68</v>
       </c>
-      <c r="F59" t="s">
-        <v>145</v>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Participation rate in organized learning.** </v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2370,10 +2195,10 @@
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D60" t="s">
@@ -2382,8 +2207,9 @@
       <c r="E60" t="s">
         <v>68</v>
       </c>
-      <c r="F60" t="s">
-        <v>146</v>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Institutional births.** </v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2391,10 +2217,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D61" t="s">
@@ -2403,8 +2229,9 @@
       <c r="E61" t="s">
         <v>68</v>
       </c>
-      <c r="F61" t="s">
-        <v>147</v>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Current education expenditure.** </v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2412,10 +2239,10 @@
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D62" t="s">
@@ -2424,8 +2251,9 @@
       <c r="E62" t="s">
         <v>68</v>
       </c>
-      <c r="F62" t="s">
-        <v>148</v>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Minimum proficiency in reading, primary.** </v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2433,10 +2261,10 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D63" t="s">
@@ -2445,19 +2273,20 @@
       <c r="E63" t="s">
         <v>68</v>
       </c>
-      <c r="F63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Minimum proficiency in mathematics, primary.** </v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D64" t="s">
@@ -2466,8 +2295,9 @@
       <c r="E64" t="s">
         <v>68</v>
       </c>
-      <c r="F64" t="s">
-        <v>150</v>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2475,10 +2305,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D65" t="s">
@@ -2487,19 +2317,20 @@
       <c r="E65" t="s">
         <v>68</v>
       </c>
-      <c r="F65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Youth literacy rate.** </v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="D66" t="s">
@@ -2508,8 +2339,9 @@
       <c r="E66" t="s">
         <v>68</v>
       </c>
-      <c r="F66" t="s">
-        <v>152</v>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2517,10 +2349,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C79" si="2">IF(D67="%","%","")</f>
+        <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
         <v>%</v>
       </c>
       <c r="D67" t="s">
@@ -2529,8 +2361,9 @@
       <c r="E67" t="s">
         <v>68</v>
       </c>
-      <c r="F67" t="s">
-        <v>153</v>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F79" si="4">LEFT(B67,FIND(".**",B67)+3)</f>
+        <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2538,18 +2371,19 @@
         <v>80</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68" s="6"/>
-      <c r="F68" t="s">
-        <v>154</v>
+      <c r="F68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2557,10 +2391,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D69" t="s">
@@ -2569,8 +2403,9 @@
       <c r="E69" t="s">
         <v>68</v>
       </c>
-      <c r="F69" t="s">
-        <v>155</v>
+      <c r="F69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Current health expenditure.** </v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2578,10 +2413,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D70" t="s">
@@ -2590,8 +2425,9 @@
       <c r="E70" t="s">
         <v>68</v>
       </c>
-      <c r="F70" t="s">
-        <v>156</v>
+      <c r="F70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**HIV incidence rate.** </v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2599,10 +2435,10 @@
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D71" t="s">
@@ -2611,8 +2447,9 @@
       <c r="E71" t="s">
         <v>68</v>
       </c>
-      <c r="F71" t="s">
-        <v>163</v>
+      <c r="F71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**ITN use by children.** </v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2620,10 +2457,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D72" t="s">
@@ -2632,8 +2469,9 @@
       <c r="E72" t="s">
         <v>68</v>
       </c>
-      <c r="F72" t="s">
-        <v>157</v>
+      <c r="F72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2641,10 +2479,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D73" t="s">
@@ -2653,8 +2491,9 @@
       <c r="E73" t="s">
         <v>68</v>
       </c>
-      <c r="F73" t="s">
-        <v>158</v>
+      <c r="F73" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2662,17 +2501,18 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
-      <c r="F74" t="s">
-        <v>164</v>
+      <c r="F74" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Net school enrollment rate, lower secondary.** </v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2680,17 +2520,18 @@
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
-      <c r="F75" t="s">
-        <v>159</v>
+      <c r="F75" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2698,17 +2539,18 @@
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
       </c>
-      <c r="F76" t="s">
-        <v>160</v>
+      <c r="F76" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2716,17 +2558,18 @@
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
-      <c r="F77" t="s">
-        <v>161</v>
+      <c r="F77" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Asylum seekers.** </v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2734,17 +2577,18 @@
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
-      <c r="F78" t="s">
-        <v>162</v>
+      <c r="F78" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2752,17 +2596,18 @@
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>%</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
-      <c r="F79" t="s">
-        <v>165</v>
+      <c r="F79" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">**Gross enrollment rate, early childhood education.** </v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F60B23-2E9A-4250-9ED1-3E8AD0567D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFE4B9-CD5A-4227-B246-8CB0FB37D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <t>no_data_start_text</t>
   </si>
   <si>
-    <t>**Asylum seekers (persons).** The number of asylum seekers, specifically individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
-  </si>
-  <si>
     <t>**Schools with basic hygiene services.** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -326,18 +323,12 @@
     <t>**Prevalence of hypertension.** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Completeness of birth registration.** Complete birth registration is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Maternal mortality ratio.** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
   </si>
   <si>
     <t>**Gross school enrollment rate, tertiary.** The tertiary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Youth mortality rate.**  The mortality rate at ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
-  </si>
-  <si>
     <t>**Neonatal mortality rate.** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
   </si>
   <si>
@@ -359,15 +350,6 @@
     <t>**Care seeking for children with pneumonia symptoms.** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Primary school completion rate.** Primary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate.** Lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate.** Upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -389,12 +371,6 @@
     <t>**Population with basic sanitation services.** In `ind_year', **`ind_value'%** of population had access to an improved sanitation facility at home</t>
   </si>
   <si>
-    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of population (`ind_year') had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children one year before the official primary entry age participated in an organized learning program</t>
-  </si>
-  <si>
     <t>**Institutional births.** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
   </si>
   <si>
@@ -443,100 +419,124 @@
     <t>**Children engaged in child labor.** The share of children (ages 5-17) who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Adult informal employment rate.** The percentage of adults (ages 25+) engaged in informal employment is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth not in employment, education or training.** In `ind_year', **`ind_value'%** of the youth (ages 15-24) were not in employment, education or training</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate.** The percentage of youth (ages 15-24) involved in informal employment is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Prevalence of insufficient physical activity.** The share of school-going adolescents (ages 11-17) not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Over-age lower secondary students.** The percentage of lower secondary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 24-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate.** The literacy rate for youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**HIV incidence rate.** The estimated number of new HIV infections per 1,000 uninfected adolescents (ages 10-19 years) is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education.** The share of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**BCG vaccination rate.** In `ind_year', **`ind_value'%** of infants received the BCG vaccine against tuberculosis</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of diphtheria vaccine</t>
+  </si>
+  <si>
+    <t>**Hepatitis B vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the hepatitis B vaccine</t>
+  </si>
+  <si>
+    <t>**HPV vaccination rate, last dose.** In `ind_year', **`ind_value'%** of females received the final dose of the HPV vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**ITN use by children.** In `ind_year', **`ind_value'%** of children under age 5 slept under an insecticide-treated mosquito net the night prior to being surveyed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled at that level </t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) had their need for family planning satisfied</t>
+  </si>
+  <si>
+    <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
+  </si>
+  <si>
+    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled at early childhood education</t>
+  </si>
+  <si>
+    <t>**Prevalence of anaemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anaemia</t>
+  </si>
+  <si>
+    <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic hygiene services.** The share of health care facilities with hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate.** Female labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate.** Male labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate.** The upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate.** The lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** The primary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth not in employment, education or training.** In `ind_year', **`ind_value'%** of youth (ages 15-24) were not in employment, education or training</t>
+  </si>
+  <si>
+    <t>**Asylum seekers (persons).** The number of individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR) is **`ind_value'** persons (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate.** The rate of informal employment among adults (ages 25+) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate.** The rate of informal employment youths (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration.** Complete birth registration rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Over-age primary students.** The percentage of primary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of population had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at lower secondary is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children participated in an organized learning program in the year before the official primary school entry age</t>
+  </si>
+  <si>
+    <t>**Adolescent fertility rate.** The number of births for every 1,000 women ages 15-19 is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
     <t>**Minimum meal frequency.** Adequate meal frequency among children ages 0-23 months is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Adolescent fertility rate.** The number of births for every 1,000 women (ages 15-19) is **`ind_value'** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross enrollment, early childhood education.** The gross enrollment ratio in early childhood educational development programs is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students.** The percentage of lower secondary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 24-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate.** The literacy rate for youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**HIV incidence rate.** The estimated number of new HIV infections per 1,000 uninfected adolescents (ages 10-19 years) is **`ind_value'** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education.** The share of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**BCG vaccination rate.** In `ind_year', **`ind_value'%** of infants received the BCG vaccine against tuberculosis</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of diphtheria vaccine</t>
-  </si>
-  <si>
-    <t>**Hepatitis B vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the hepatitis B vaccine</t>
-  </si>
-  <si>
-    <t>**HPV vaccination rate, last dose.** In `ind_year', **`ind_value'%** of females received the final dose of the HPV vaccine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**ITN use by children.** In `ind_year', **`ind_value'%** of children under age 5 slept under an insecticide-treated mosquito net the night prior to being surveyed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled at that level </t>
-  </si>
-  <si>
-    <t>**Over-age primary students.** The percentage students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) had their need for family planning satisfied</t>
-  </si>
-  <si>
-    <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
-  </si>
-  <si>
-    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled at early childhood education</t>
-  </si>
-  <si>
-    <t>**Child mortality rate.**  The mortality rate for children at ages 5-14 is **`ind_value'** per 1,000 children at age 5 (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults.** The percentage of adults at ages 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women at ages 18-29 years experienced sexual violence by age 18</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates.** The suicide rate among youth at ages 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of anaemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anaemia</t>
-  </si>
-  <si>
-    <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic hygiene services.** The share of health care facilities with hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate.** Female labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate.** Male labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women ages 18-29 years experienced sexual violence by the age of 18</t>
+  </si>
+  <si>
+    <t>**Gross enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled at early childhood education</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults.** The percentage of adults ages 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates.** The suicide rate among youth ages 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Child mortality rate.**  The mortality rate for children ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth mortality rate.**  The mortality rate of youth ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -906,20 +906,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,12 +939,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -957,12 +957,12 @@
         <v xml:space="preserve">**Asylum seekers (persons).** </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -979,12 +979,12 @@
         <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1001,12 +1001,12 @@
         <v xml:space="preserve">**Schools with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1023,12 +1023,12 @@
         <v xml:space="preserve">**Health care facilities with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1045,12 +1045,12 @@
         <v xml:space="preserve">**Schools with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1067,12 +1067,12 @@
         <v xml:space="preserve">**Health care facilities with basic water services.** </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1089,12 +1089,12 @@
         <v xml:space="preserve">**Exclusive breastfeeding.** </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1111,12 +1111,12 @@
         <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1133,12 +1133,12 @@
         <v xml:space="preserve">**Care seeking for febrile children.** </v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1155,12 +1155,12 @@
         <v xml:space="preserve">**Postnatal care for mothers.** </v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1177,12 +1177,12 @@
         <v xml:space="preserve">**Children engaged in child labor.** </v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1199,12 +1199,12 @@
         <v xml:space="preserve">**Care seeking for children with diarrhoea.** </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1221,12 +1221,12 @@
         <v xml:space="preserve">**Female labor force participation rate.** </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1243,12 +1243,12 @@
         <v xml:space="preserve">**Male labor force participation rate.** </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1265,12 +1265,12 @@
         <v xml:space="preserve">**Youth not in employment, education or training.** </v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1287,12 +1287,12 @@
         <v xml:space="preserve">**Adult informal employment rate.** </v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1309,12 +1309,12 @@
         <v xml:space="preserve">**Youth informal employment rate.** </v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1331,12 +1331,12 @@
         <v xml:space="preserve">**Prevalence of hypertension.** </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1353,12 +1353,12 @@
         <v xml:space="preserve">**Prevalence of insufficient physical activity.** </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1372,12 +1372,12 @@
         <v xml:space="preserve">**Adolescent fertility rate.** </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1394,12 +1394,12 @@
         <v xml:space="preserve">**Completeness of birth registration.** </v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1413,12 +1413,12 @@
         <v xml:space="preserve">**Maternal mortality ratio.** </v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1435,12 +1435,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, secondary.** </v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1457,12 +1457,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1479,12 +1479,12 @@
         <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1498,12 +1498,12 @@
         <v xml:space="preserve">**Youth mortality rate.** </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1517,12 +1517,12 @@
         <v xml:space="preserve">**Child mortality rate.** </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1536,12 +1536,12 @@
         <v xml:space="preserve">**Neonatal mortality rate.** </v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1558,12 +1558,12 @@
         <v xml:space="preserve">**Prevalence of obesity among adults.** </v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1580,12 +1580,12 @@
         <v xml:space="preserve">**Probability of dying from NCDs.** </v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1602,12 +1602,12 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1624,12 +1624,12 @@
         <v xml:space="preserve">**Learning poverty.** </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1646,12 +1646,12 @@
         <v xml:space="preserve">**Prevalence of sexual violence.** </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="2">IF(D35="%","%","")</f>
@@ -1668,12 +1668,12 @@
         <v xml:space="preserve">**Life expectancy at birth.** </v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
@@ -1687,12 +1687,12 @@
         <v xml:space="preserve">**Stillbirth rate.** </v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1706,12 +1706,12 @@
         <v xml:space="preserve">**Adolescent suicide rates.** </v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1728,12 +1728,12 @@
         <v xml:space="preserve">**Prevalence of anaemia in children.** </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1750,12 +1750,12 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="2"/>
@@ -1772,12 +1772,12 @@
         <v xml:space="preserve">**Primary school completion rate.** </v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="2"/>
@@ -1794,12 +1794,12 @@
         <v xml:space="preserve">**Lower secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="2"/>
@@ -1816,12 +1816,12 @@
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
@@ -1835,15 +1835,15 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Gross enrollment, early childhood education.** </v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">**Gross enrollment in early childhood education.** </v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="2"/>
@@ -1860,12 +1860,12 @@
         <v xml:space="preserve">**Pre-primary school gross enrollment ratio.** </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1882,12 +1882,12 @@
         <v xml:space="preserve">**Over-age primary students.** </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1904,12 +1904,12 @@
         <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
@@ -1926,12 +1926,12 @@
         <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
@@ -1948,12 +1948,12 @@
         <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1970,12 +1970,12 @@
         <v xml:space="preserve">**Primary schools with access to electricity.** </v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -1992,12 +1992,12 @@
         <v xml:space="preserve">**Adult unemployment rate.** </v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2014,12 +2014,12 @@
         <v xml:space="preserve">**Youth unemployment rate.** </v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2036,12 +2036,12 @@
         <v xml:space="preserve">**Population with basic handwashing facility.** </v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2058,12 +2058,12 @@
         <v xml:space="preserve">**Population with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2080,12 +2080,12 @@
         <v xml:space="preserve">**Population with basic drinking water services.** </v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
@@ -2102,12 +2102,12 @@
         <v xml:space="preserve">**BCG vaccination rate.** </v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2124,12 +2124,12 @@
         <v xml:space="preserve">**Diphtheria vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
@@ -2146,12 +2146,12 @@
         <v xml:space="preserve">**Hepatitis B vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2168,12 +2168,12 @@
         <v xml:space="preserve">**Children who are developmentally on track.** </v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2190,12 +2190,12 @@
         <v xml:space="preserve">**Participation rate in organized learning.** </v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -2212,12 +2212,12 @@
         <v xml:space="preserve">**Institutional births.** </v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -2234,12 +2234,12 @@
         <v xml:space="preserve">**Current education expenditure.** </v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2256,12 +2256,12 @@
         <v xml:space="preserve">**Minimum proficiency in reading, primary.** </v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2278,12 +2278,12 @@
         <v xml:space="preserve">**Minimum proficiency in mathematics, primary.** </v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2300,12 +2300,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2322,12 +2322,12 @@
         <v xml:space="preserve">**Youth literacy rate.** </v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
@@ -2344,12 +2344,12 @@
         <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
@@ -2366,12 +2366,12 @@
         <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2386,12 +2386,12 @@
         <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
@@ -2408,12 +2408,12 @@
         <v xml:space="preserve">**Current health expenditure.** </v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2430,12 +2430,12 @@
         <v xml:space="preserve">**HIV incidence rate.** </v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2452,12 +2452,12 @@
         <v xml:space="preserve">**ITN use by children.** </v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
@@ -2474,12 +2474,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2496,12 +2496,12 @@
         <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2515,12 +2515,12 @@
         <v xml:space="preserve">**Net school enrollment rate, lower secondary.** </v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2534,12 +2534,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
@@ -2553,12 +2553,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
@@ -2572,12 +2572,12 @@
         <v xml:space="preserve">**Asylum seekers.** </v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
@@ -2591,12 +2591,12 @@
         <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFE4B9-CD5A-4227-B246-8CB0FB37D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{8BFFE4B9-CD5A-4227-B246-8CB0FB37D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB4F277-DBA4-4F66-8A30-3FDA094D49EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>**Postnatal care for newborns.** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
-    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
-  </si>
-  <si>
     <t>**Care seeking for children with diarrhoea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -326,63 +323,27 @@
     <t>**Maternal mortality ratio.** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
   </si>
   <si>
-    <t>**Gross school enrollment rate, tertiary.** The tertiary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Neonatal mortality rate.** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
   </si>
   <si>
     <t>**Probability of dying from NCDs.** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Repetition rate in primary education.** In `ind_year', **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
-  </si>
-  <si>
-    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of 10-year-olds could not read and understand a simple text by the end of primary school</t>
-  </si>
-  <si>
     <t>**Life expectancy at birth.** Life expectancy at birth is **`ind_value'** years (`ind_year')</t>
   </si>
   <si>
     <t>**Stillbirth rate.** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value'** per 1,000 total births (`ind_year')</t>
   </si>
   <si>
-    <t>**Care seeking for children with pneumonia symptoms.** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Qualified teachers in primary education.** The share of qualified teachers in primary education is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary schools with access to electricity.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate.** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth unemployment rate.** The unemployment rate among youth ages 15-24 is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility.** In `ind_year', **`ind_value'%** of population had access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services.** In `ind_year', **`ind_value'%** of population had access to an improved sanitation facility at home</t>
-  </si>
-  <si>
     <t>**Institutional births.** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
   </si>
   <si>
     <t>**Current education expenditure.** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in reading at the end of primary school</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in mathematics at the end of primary school</t>
-  </si>
-  <si>
     <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of total employed adults were high-skilled (levels 3-4)</t>
   </si>
   <si>
@@ -392,9 +353,6 @@
     <t>**Refugees.** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
   </si>
   <si>
-    <t>**Youth to adult unemployment ratio.** The ratio of youth to adult unemployment is **`ind_value'** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Refugees.** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -413,36 +371,21 @@
     <t>**Exclusive breastfeeding.** In `ind_year', **`ind_value'%** of infants ages 0-5 months were fed exclusively with breast milk</t>
   </si>
   <si>
-    <t>**Postnatal care for mothers.** In `ind_year', **`ind_value'%** of mothers (ages 15-49) had postnatal contact with health providers during their first two days of life</t>
-  </si>
-  <si>
     <t>**Children engaged in child labor.** The share of children (ages 5-17) who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
     <t>**Prevalence of insufficient physical activity.** The share of school-going adolescents (ages 11-17) not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Over-age lower secondary students.** The percentage of lower secondary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 24-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
   </si>
   <si>
-    <t>**Youth literacy rate.** The literacy rate for youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**HIV incidence rate.** The estimated number of new HIV infections per 1,000 uninfected adolescents (ages 10-19 years) is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
-    <t>**Qualified teachers in secondary education.** The share of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**BCG vaccination rate.** In `ind_year', **`ind_value'%** of infants received the BCG vaccine against tuberculosis</t>
   </si>
   <si>
-    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of diphtheria vaccine</t>
-  </si>
-  <si>
     <t>**Hepatitis B vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the hepatitis B vaccine</t>
   </si>
   <si>
@@ -455,88 +398,145 @@
     <t xml:space="preserve">**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled at that level </t>
   </si>
   <si>
-    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) had their need for family planning satisfied</t>
-  </si>
-  <si>
     <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
   </si>
   <si>
     <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled at early childhood education</t>
   </si>
   <si>
-    <t>**Prevalence of anaemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anaemia</t>
-  </si>
-  <si>
     <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
   </si>
   <si>
     <t>**Health care facilities with basic hygiene services.** The share of health care facilities with hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Female labor force participation rate.** Female labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate.** Male labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Upper secondary school completion rate.** The upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate.** The lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate.** The primary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Youth not in employment, education or training.** In `ind_year', **`ind_value'%** of youth (ages 15-24) were not in employment, education or training</t>
   </si>
   <si>
     <t>**Asylum seekers (persons).** The number of individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR) is **`ind_value'** persons (`ind_year')</t>
   </si>
   <si>
-    <t>**Adult informal employment rate.** The rate of informal employment among adults (ages 25+) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate.** The rate of informal employment youths (ages 15-24) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration.** Complete birth registration rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Over-age primary students.** The percentage of primary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of population had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
-  </si>
-  <si>
     <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at lower secondary is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children participated in an organized learning program in the year before the official primary school entry age</t>
-  </si>
-  <si>
     <t>**Adolescent fertility rate.** The number of births for every 1,000 women ages 15-19 is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
-    <t>**Minimum meal frequency.** Adequate meal frequency among children ages 0-23 months is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women ages 18-29 years experienced sexual violence by the age of 18</t>
-  </si>
-  <si>
     <t>**Gross enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled at early childhood education</t>
   </si>
   <si>
-    <t>**Prevalence of obesity among adults.** The percentage of adults ages 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates.** The suicide rate among youth ages 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
-  </si>
-  <si>
     <t>**Child mortality rate.**  The mortality rate for children ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
   </si>
   <si>
     <t>**Youth mortality rate.**  The mortality rate of youth ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with a fever sought treatment or advice</t>
+  </si>
+  <si>
+    <t>**Postnatal care for mothers.** In `ind_year', **`ind_value'%** of mothers (ages 15-49) had postnatal contact with health providers within 2 days of giving birth</t>
+  </si>
+  <si>
+    <t>**Female labor force participation rate.** Female labor force participation as a percentage of the female working-age population (ages 25+) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate.** Male labor force participation as a percentage of the male working-age population (ages 25+)  is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult informal employment rate.** The rate of informal employment among working adults (ages 25+) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate.** The rate of informal employment among working youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration.** Complete birth registration as a share of children under age 5 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary.** Tertiary school enrollment as a percentage of people ages is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency.** The percentage of children ages 6-23 months who consume solid, semi-solid or soft foods at least the minimum number of times during the day is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of obesity among adults.** The percentage of adults ages 18+ years who are obese is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Repetition rate in primary education.** In `ind_year', **`ind_value'%** of students in primary school remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of children at the end-of-primary age could not read and understand a simple text, adjusted by out-of-school children</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women ages 18-29 experienced sexual violence by the age of 18</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates.** The suicide rate among youth ages 15-19 years is **`ind_value'** per 100,000 youth (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of anemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anemia</t>
+  </si>
+  <si>
+    <t>**Care seeking for children with pneumonia symptoms.** The share of children under age 5 with pneumonia symptoms who were taken to a health provider is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** The proportion of children at the entrance age of the last grade of primary school that are enrolled at that grade (regardless of age) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate.** The proportion of children at the entrance age of the last grade of lower secondary school that are enrolled at that grade (regardless of age) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Upper secondary school completion rate.** The proportion of children or youth aged 3-5 years above the intended age for the last grade of upper secondary school who have completed that grade is **`ind_value'%** (`ind_year') </t>
+  </si>
+  <si>
+    <t>**Over-age primary students.** The percentage of primary school students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Over-age lower secondary students.** The percentage of lower secondary school students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education.** The share of  teachers in primary education who have at least the minimum academic qualifications required for teaching is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education.** The share of teachers in secondary education who have at least the minimum academic qualifications required for teaching is is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school electricity access.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate.** Unemployed adults as a share of the adult labor force (ages +25) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate.** Unemployed youth as a share of the youth labor force (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility.** In `ind_year', **`ind_value'%** of the population had access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services.** In `ind_year', **`ind_value'%** of the population had access to improved sanitation facilities at home</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of the population had access to an improved drinking water source within 30 minutes of their home</t>
+  </si>
+  <si>
+    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of the diphtheria vaccine</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children who were one year younger than the official primary school entry age participated in an organized learning program</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children who completed primary school achieved the minimum learning outcomes in reading</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children who completed primary school  achieved the minimum learning outcomes in mathematics</t>
+  </si>
+  <si>
+    <t>**Youth literacy rate.** The share of youth (ages 15-24) who are literate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) who wanted family planning services received them</t>
+  </si>
+  <si>
+    <t>**Youth to adult unemployment ratio.** The ratio of the youth unemployment rate to the adult unemployment rate is **`ind_value'** (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -619,10 +619,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,20 +910,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="68.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,12 +943,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -957,12 +961,12 @@
         <v xml:space="preserve">**Asylum seekers (persons).** </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -979,7 +983,7 @@
         <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1001,12 +1005,12 @@
         <v xml:space="preserve">**Schools with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1023,12 +1027,12 @@
         <v xml:space="preserve">**Health care facilities with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1045,7 +1049,7 @@
         <v xml:space="preserve">**Schools with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1067,12 +1071,12 @@
         <v xml:space="preserve">**Health care facilities with basic water services.** </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1089,7 +1093,7 @@
         <v xml:space="preserve">**Exclusive breastfeeding.** </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1111,12 +1115,12 @@
         <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1133,12 +1137,12 @@
         <v xml:space="preserve">**Care seeking for febrile children.** </v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1155,12 +1159,12 @@
         <v xml:space="preserve">**Postnatal care for mothers.** </v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1177,12 +1181,12 @@
         <v xml:space="preserve">**Children engaged in child labor.** </v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1199,12 +1203,12 @@
         <v xml:space="preserve">**Care seeking for children with diarrhoea.** </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1221,12 +1225,12 @@
         <v xml:space="preserve">**Female labor force participation rate.** </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1243,12 +1247,12 @@
         <v xml:space="preserve">**Male labor force participation rate.** </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1265,12 +1269,12 @@
         <v xml:space="preserve">**Youth not in employment, education or training.** </v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1287,12 +1291,12 @@
         <v xml:space="preserve">**Adult informal employment rate.** </v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1309,12 +1313,12 @@
         <v xml:space="preserve">**Youth informal employment rate.** </v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1331,12 +1335,12 @@
         <v xml:space="preserve">**Prevalence of hypertension.** </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1353,12 +1357,12 @@
         <v xml:space="preserve">**Prevalence of insufficient physical activity.** </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1372,12 +1376,12 @@
         <v xml:space="preserve">**Adolescent fertility rate.** </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1394,12 +1398,12 @@
         <v xml:space="preserve">**Completeness of birth registration.** </v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1413,12 +1417,12 @@
         <v xml:space="preserve">**Maternal mortality ratio.** </v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1435,12 +1439,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, secondary.** </v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1457,34 +1461,34 @@
         <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="B26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1498,12 +1502,12 @@
         <v xml:space="preserve">**Youth mortality rate.** </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1517,12 +1521,12 @@
         <v xml:space="preserve">**Child mortality rate.** </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1536,12 +1540,12 @@
         <v xml:space="preserve">**Neonatal mortality rate.** </v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1558,12 +1562,12 @@
         <v xml:space="preserve">**Prevalence of obesity among adults.** </v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1580,12 +1584,12 @@
         <v xml:space="preserve">**Probability of dying from NCDs.** </v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1602,34 +1606,34 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="B33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Learning poverty.** </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1646,12 +1650,12 @@
         <v xml:space="preserve">**Prevalence of sexual violence.** </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="2">IF(D35="%","%","")</f>
@@ -1668,12 +1672,12 @@
         <v xml:space="preserve">**Life expectancy at birth.** </v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
@@ -1687,12 +1691,12 @@
         <v xml:space="preserve">**Stillbirth rate.** </v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1706,12 +1710,12 @@
         <v xml:space="preserve">**Adolescent suicide rates.** </v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1725,15 +1729,15 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Prevalence of anaemia in children.** </v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">**Prevalence of anemia in children.** </v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1750,78 +1754,78 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Primary school completion rate.** </v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Lower secondary school completion rate.** </v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">**Primary school completion rate.** </v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">**Lower secondary school completion rate.** </v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="C42" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
@@ -1838,12 +1842,12 @@
         <v xml:space="preserve">**Gross enrollment in early childhood education.** </v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="2"/>
@@ -1860,12 +1864,12 @@
         <v xml:space="preserve">**Pre-primary school gross enrollment ratio.** </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1882,12 +1886,12 @@
         <v xml:space="preserve">**Over-age primary students.** </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1904,56 +1908,56 @@
         <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="B47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="B48" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1967,15 +1971,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Primary schools with access to electricity.** </v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">**Primary school electricity access.** </v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -1992,12 +1996,12 @@
         <v xml:space="preserve">**Adult unemployment rate.** </v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2014,12 +2018,12 @@
         <v xml:space="preserve">**Youth unemployment rate.** </v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2036,12 +2040,12 @@
         <v xml:space="preserve">**Population with basic handwashing facility.** </v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2058,12 +2062,12 @@
         <v xml:space="preserve">**Population with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2080,12 +2084,12 @@
         <v xml:space="preserve">**Population with basic drinking water services.** </v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
@@ -2102,12 +2106,12 @@
         <v xml:space="preserve">**BCG vaccination rate.** </v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2124,12 +2128,12 @@
         <v xml:space="preserve">**Diphtheria vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
@@ -2146,12 +2150,12 @@
         <v xml:space="preserve">**Hepatitis B vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2168,12 +2172,12 @@
         <v xml:space="preserve">**Children who are developmentally on track.** </v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2190,12 +2194,12 @@
         <v xml:space="preserve">**Participation rate in organized learning.** </v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -2212,12 +2216,12 @@
         <v xml:space="preserve">**Institutional births.** </v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -2234,12 +2238,12 @@
         <v xml:space="preserve">**Current education expenditure.** </v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2256,12 +2260,12 @@
         <v xml:space="preserve">**Minimum proficiency in reading, primary.** </v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2278,12 +2282,12 @@
         <v xml:space="preserve">**Minimum proficiency in mathematics, primary.** </v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2300,12 +2304,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2322,34 +2326,34 @@
         <v xml:space="preserve">**Youth literacy rate.** </v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" t="str">
+      <c r="B66" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
@@ -2366,32 +2370,31 @@
         <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" t="str">
+      <c r="B68" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="5" t="str">
         <f t="shared" si="3"/>
         <v>%</v>
       </c>
-      <c r="D68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" t="str">
+      <c r="D68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
@@ -2408,12 +2411,12 @@
         <v xml:space="preserve">**Current health expenditure.** </v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2430,12 +2433,12 @@
         <v xml:space="preserve">**HIV incidence rate.** </v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2452,12 +2455,12 @@
         <v xml:space="preserve">**ITN use by children.** </v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
@@ -2474,12 +2477,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2496,12 +2499,12 @@
         <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2515,12 +2518,12 @@
         <v xml:space="preserve">**Net school enrollment rate, lower secondary.** </v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2534,12 +2537,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
@@ -2553,12 +2556,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
@@ -2572,12 +2575,12 @@
         <v xml:space="preserve">**Asylum seekers.** </v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
@@ -2591,12 +2594,12 @@
         <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{8BFFE4B9-CD5A-4227-B246-8CB0FB37D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB4F277-DBA4-4F66-8A30-3FDA094D49EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFE4B9-CD5A-4227-B246-8CB0FB37D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,6 +314,9 @@
     <t>**Postnatal care for newborns.** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
+    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with fever sought treatment or advice</t>
+  </si>
+  <si>
     <t>**Care seeking for children with diarrhoea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -323,27 +326,63 @@
     <t>**Maternal mortality ratio.** For every 100,000 live births, **`ind_value'** women (`ind_year') die from pregnancy related causes</t>
   </si>
   <si>
+    <t>**Gross school enrollment rate, tertiary.** The tertiary school gross enrollment rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
     <t>**Neonatal mortality rate.** The neonatal mortality rate is **`ind_value'** per 1,000 live births (`ind_year')</t>
   </si>
   <si>
     <t>**Probability of dying from NCDs.** The probability of dying from non-communicable diseases between the ages of 30 to 70 is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Repetition rate in primary education.** In `ind_year', **`ind_value'%** of students in primary education remained in the same grade in the following school year</t>
+  </si>
+  <si>
+    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of 10-year-olds could not read and understand a simple text by the end of primary school</t>
+  </si>
+  <si>
     <t>**Life expectancy at birth.** Life expectancy at birth is **`ind_value'** years (`ind_year')</t>
   </si>
   <si>
     <t>**Stillbirth rate.** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value'** per 1,000 total births (`ind_year')</t>
   </si>
   <si>
+    <t>**Care seeking for children with pneumonia symptoms.** The share of children with less than five years with pneumonia symptoms who were taken to an appropriate health provider is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
     <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Qualified teachers in primary education.** The share of qualified teachers in primary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary schools with access to electricity.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate.** The unemployment rate among adults older than 25 years old is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth unemployment rate.** The unemployment rate among youth ages 15-24 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Population with basic handwashing facility.** In `ind_year', **`ind_value'%** of population had access to a handwashing facility with soap and water at home</t>
+  </si>
+  <si>
+    <t>**Population with basic sanitation services.** In `ind_year', **`ind_value'%** of population had access to an improved sanitation facility at home</t>
+  </si>
+  <si>
     <t>**Institutional births.** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
   </si>
   <si>
     <t>**Current education expenditure.** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in reading at the end of primary school</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children achieved the minimum learning outcomes in mathematics at the end of primary school</t>
+  </si>
+  <si>
     <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of total employed adults were high-skilled (levels 3-4)</t>
   </si>
   <si>
@@ -353,6 +392,9 @@
     <t>**Refugees.** The number of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), is **`ind_value'** persons (`ind_year')</t>
   </si>
   <si>
+    <t>**Youth to adult unemployment ratio.** The ratio of youth to adult unemployment is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
     <t>**Refugees.** The rate of refugees, under the mandate of the United Nations High Commissioner for Refugees (UNHCR), as a percentage of the population is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -371,21 +413,36 @@
     <t>**Exclusive breastfeeding.** In `ind_year', **`ind_value'%** of infants ages 0-5 months were fed exclusively with breast milk</t>
   </si>
   <si>
+    <t>**Postnatal care for mothers.** In `ind_year', **`ind_value'%** of mothers (ages 15-49) had postnatal contact with health providers during their first two days of life</t>
+  </si>
+  <si>
     <t>**Children engaged in child labor.** The share of children (ages 5-17) who are engaged in economic activities is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
     <t>**Prevalence of insufficient physical activity.** The share of school-going adolescents (ages 11-17) not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Over-age lower secondary students.** The percentage of lower secondary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
     <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 24-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
   </si>
   <si>
+    <t>**Youth literacy rate.** The literacy rate for youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
     <t>**HIV incidence rate.** The estimated number of new HIV infections per 1,000 uninfected adolescents (ages 10-19 years) is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
+    <t>**Qualified teachers in secondary education.** The share of qualified teachers in secondary education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
     <t>**BCG vaccination rate.** In `ind_year', **`ind_value'%** of infants received the BCG vaccine against tuberculosis</t>
   </si>
   <si>
+    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of diphtheria vaccine</t>
+  </si>
+  <si>
     <t>**Hepatitis B vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the hepatitis B vaccine</t>
   </si>
   <si>
@@ -398,145 +455,88 @@
     <t xml:space="preserve">**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled at that level </t>
   </si>
   <si>
+    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) had their need for family planning satisfied</t>
+  </si>
+  <si>
     <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
   </si>
   <si>
     <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled at early childhood education</t>
   </si>
   <si>
+    <t>**Prevalence of anaemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anaemia</t>
+  </si>
+  <si>
     <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
   </si>
   <si>
     <t>**Health care facilities with basic hygiene services.** The share of health care facilities with hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Female labor force participation rate.** Female labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Male labor force participation rate.** Male labor force participation (ages 25+) as a percentage of the working population is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate.** The upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate.** The lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** The primary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
     <t>**Youth not in employment, education or training.** In `ind_year', **`ind_value'%** of youth (ages 15-24) were not in employment, education or training</t>
   </si>
   <si>
     <t>**Asylum seekers (persons).** The number of individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR) is **`ind_value'** persons (`ind_year')</t>
   </si>
   <si>
+    <t>**Adult informal employment rate.** The rate of informal employment among adults (ages 25+) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Youth informal employment rate.** The rate of informal employment youths (ages 15-24) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration.** Complete birth registration rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Over-age primary students.** The percentage of primary students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of population had access to an improved drinking water source, where collection time is not more than 30 minutes</t>
+  </si>
+  <si>
     <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at lower secondary is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
+    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children participated in an organized learning program in the year before the official primary school entry age</t>
+  </si>
+  <si>
     <t>**Adolescent fertility rate.** The number of births for every 1,000 women ages 15-19 is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
+    <t>**Minimum meal frequency.** Adequate meal frequency among children ages 0-23 months is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women ages 18-29 years experienced sexual violence by the age of 18</t>
+  </si>
+  <si>
     <t>**Gross enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled at early childhood education</t>
   </si>
   <si>
+    <t>**Prevalence of obesity among adults.** The percentage of adults ages 18+ years with obesity (BMI ≥ 30) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adolescent suicide rates.** The suicide rate among youth ages 15-19 years is **`ind_value'** per 100,000 population (`ind_year')</t>
+  </si>
+  <si>
     <t>**Child mortality rate.**  The mortality rate for children ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
   </si>
   <si>
     <t>**Youth mortality rate.**  The mortality rate of youth ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with a fever sought treatment or advice</t>
-  </si>
-  <si>
-    <t>**Postnatal care for mothers.** In `ind_year', **`ind_value'%** of mothers (ages 15-49) had postnatal contact with health providers within 2 days of giving birth</t>
-  </si>
-  <si>
-    <t>**Female labor force participation rate.** Female labor force participation as a percentage of the female working-age population (ages 25+) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Male labor force participation rate.** Male labor force participation as a percentage of the male working-age population (ages 25+)  is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adult informal employment rate.** The rate of informal employment among working adults (ages 25+) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth informal employment rate.** The rate of informal employment among working youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Completeness of birth registration.** Complete birth registration as a share of children under age 5 is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, tertiary.** Tertiary school enrollment as a percentage of people ages is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency.** The percentage of children ages 6-23 months who consume solid, semi-solid or soft foods at least the minimum number of times during the day is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of obesity among adults.** The percentage of adults ages 18+ years who are obese is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Repetition rate in primary education.** In `ind_year', **`ind_value'%** of students in primary school remained in the same grade in the following school year</t>
-  </si>
-  <si>
-    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of children at the end-of-primary age could not read and understand a simple text, adjusted by out-of-school children</t>
-  </si>
-  <si>
-    <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women ages 18-29 experienced sexual violence by the age of 18</t>
-  </si>
-  <si>
-    <t>**Adolescent suicide rates.** The suicide rate among youth ages 15-19 years is **`ind_value'** per 100,000 youth (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Prevalence of anemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anemia</t>
-  </si>
-  <si>
-    <t>**Care seeking for children with pneumonia symptoms.** The share of children under age 5 with pneumonia symptoms who were taken to a health provider is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate.** The proportion of children at the entrance age of the last grade of primary school that are enrolled at that grade (regardless of age) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate.** The proportion of children at the entrance age of the last grade of lower secondary school that are enrolled at that grade (regardless of age) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Upper secondary school completion rate.** The proportion of children or youth aged 3-5 years above the intended age for the last grade of upper secondary school who have completed that grade is **`ind_value'%** (`ind_year') </t>
-  </si>
-  <si>
-    <t>**Over-age primary students.** The percentage of primary school students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Over-age lower secondary students.** The percentage of lower secondary school students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in primary education.** The share of  teachers in primary education who have at least the minimum academic qualifications required for teaching is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education.** The share of teachers in secondary education who have at least the minimum academic qualifications required for teaching is is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary school electricity access.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Adult unemployment rate.** Unemployed adults as a share of the adult labor force (ages +25) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Youth unemployment rate.** Unemployed youth as a share of the youth labor force (ages 15-24) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Population with basic handwashing facility.** In `ind_year', **`ind_value'%** of the population had access to a handwashing facility with soap and water at home</t>
-  </si>
-  <si>
-    <t>**Population with basic sanitation services.** In `ind_year', **`ind_value'%** of the population had access to improved sanitation facilities at home</t>
-  </si>
-  <si>
-    <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of the population had access to an improved drinking water source within 30 minutes of their home</t>
-  </si>
-  <si>
-    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of the diphtheria vaccine</t>
-  </si>
-  <si>
-    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children who were one year younger than the official primary school entry age participated in an organized learning program</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children who completed primary school achieved the minimum learning outcomes in reading</t>
-  </si>
-  <si>
-    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children who completed primary school  achieved the minimum learning outcomes in mathematics</t>
-  </si>
-  <si>
-    <t>**Youth literacy rate.** The share of youth (ages 15-24) who are literate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Satisfied demand for family planning.** In `ind_year', **`ind_value'%** of women (ages 15-49) who wanted family planning services received them</t>
-  </si>
-  <si>
-    <t>**Youth to adult unemployment ratio.** The ratio of the youth unemployment rate to the adult unemployment rate is **`ind_value'** (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -619,14 +619,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,20 +906,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,12 +939,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -961,12 +957,12 @@
         <v xml:space="preserve">**Asylum seekers (persons).** </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -983,7 +979,7 @@
         <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1005,12 +1001,12 @@
         <v xml:space="preserve">**Schools with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1027,12 +1023,12 @@
         <v xml:space="preserve">**Health care facilities with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1049,7 +1045,7 @@
         <v xml:space="preserve">**Schools with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1071,12 +1067,12 @@
         <v xml:space="preserve">**Health care facilities with basic water services.** </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1093,7 +1089,7 @@
         <v xml:space="preserve">**Exclusive breastfeeding.** </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1115,12 +1111,12 @@
         <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1137,12 +1133,12 @@
         <v xml:space="preserve">**Care seeking for febrile children.** </v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1159,12 +1155,12 @@
         <v xml:space="preserve">**Postnatal care for mothers.** </v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1181,12 +1177,12 @@
         <v xml:space="preserve">**Children engaged in child labor.** </v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1203,12 +1199,12 @@
         <v xml:space="preserve">**Care seeking for children with diarrhoea.** </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1225,12 +1221,12 @@
         <v xml:space="preserve">**Female labor force participation rate.** </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1247,12 +1243,12 @@
         <v xml:space="preserve">**Male labor force participation rate.** </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1269,12 +1265,12 @@
         <v xml:space="preserve">**Youth not in employment, education or training.** </v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1291,12 +1287,12 @@
         <v xml:space="preserve">**Adult informal employment rate.** </v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1313,12 +1309,12 @@
         <v xml:space="preserve">**Youth informal employment rate.** </v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1335,12 +1331,12 @@
         <v xml:space="preserve">**Prevalence of hypertension.** </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1357,12 +1353,12 @@
         <v xml:space="preserve">**Prevalence of insufficient physical activity.** </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1376,12 +1372,12 @@
         <v xml:space="preserve">**Adolescent fertility rate.** </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1398,12 +1394,12 @@
         <v xml:space="preserve">**Completeness of birth registration.** </v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1417,12 +1413,12 @@
         <v xml:space="preserve">**Maternal mortality ratio.** </v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1439,12 +1435,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, secondary.** </v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1461,34 +1457,34 @@
         <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="7" t="str">
+      <c r="B26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1502,12 +1498,12 @@
         <v xml:space="preserve">**Youth mortality rate.** </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1521,12 +1517,12 @@
         <v xml:space="preserve">**Child mortality rate.** </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1540,12 +1536,12 @@
         <v xml:space="preserve">**Neonatal mortality rate.** </v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1562,12 +1558,12 @@
         <v xml:space="preserve">**Prevalence of obesity among adults.** </v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1584,12 +1580,12 @@
         <v xml:space="preserve">**Probability of dying from NCDs.** </v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1606,34 +1602,34 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="7" t="str">
+      <c r="B33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Learning poverty.** </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1650,12 +1646,12 @@
         <v xml:space="preserve">**Prevalence of sexual violence.** </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="2">IF(D35="%","%","")</f>
@@ -1672,12 +1668,12 @@
         <v xml:space="preserve">**Life expectancy at birth.** </v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
@@ -1691,12 +1687,12 @@
         <v xml:space="preserve">**Stillbirth rate.** </v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1710,12 +1706,12 @@
         <v xml:space="preserve">**Adolescent suicide rates.** </v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1729,15 +1725,15 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Prevalence of anemia in children.** </v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">**Prevalence of anaemia in children.** </v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1754,78 +1750,78 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Primary school completion rate.** </v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">**Lower secondary school completion rate.** </v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">**Primary school completion rate.** </v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">**Lower secondary school completion rate.** </v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="7" t="str">
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
@@ -1842,12 +1838,12 @@
         <v xml:space="preserve">**Gross enrollment in early childhood education.** </v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="2"/>
@@ -1864,12 +1860,12 @@
         <v xml:space="preserve">**Pre-primary school gross enrollment ratio.** </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1886,12 +1882,12 @@
         <v xml:space="preserve">**Over-age primary students.** </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1908,56 +1904,56 @@
         <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="7" t="str">
+      <c r="B47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="7" t="str">
+      <c r="B48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1971,15 +1967,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Primary school electricity access.** </v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">**Primary schools with access to electricity.** </v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -1996,12 +1992,12 @@
         <v xml:space="preserve">**Adult unemployment rate.** </v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2018,12 +2014,12 @@
         <v xml:space="preserve">**Youth unemployment rate.** </v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2040,12 +2036,12 @@
         <v xml:space="preserve">**Population with basic handwashing facility.** </v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2062,12 +2058,12 @@
         <v xml:space="preserve">**Population with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2084,12 +2080,12 @@
         <v xml:space="preserve">**Population with basic drinking water services.** </v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
@@ -2106,12 +2102,12 @@
         <v xml:space="preserve">**BCG vaccination rate.** </v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2128,12 +2124,12 @@
         <v xml:space="preserve">**Diphtheria vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
@@ -2150,12 +2146,12 @@
         <v xml:space="preserve">**Hepatitis B vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2172,12 +2168,12 @@
         <v xml:space="preserve">**Children who are developmentally on track.** </v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2194,12 +2190,12 @@
         <v xml:space="preserve">**Participation rate in organized learning.** </v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -2216,12 +2212,12 @@
         <v xml:space="preserve">**Institutional births.** </v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -2238,12 +2234,12 @@
         <v xml:space="preserve">**Current education expenditure.** </v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2260,12 +2256,12 @@
         <v xml:space="preserve">**Minimum proficiency in reading, primary.** </v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2282,12 +2278,12 @@
         <v xml:space="preserve">**Minimum proficiency in mathematics, primary.** </v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2304,12 +2300,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2326,34 +2322,34 @@
         <v xml:space="preserve">**Youth literacy rate.** </v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="7" t="str">
+      <c r="B66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
@@ -2370,31 +2366,32 @@
         <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="5" t="str">
+      <c r="B68" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="str">
         <f t="shared" si="3"/>
         <v>%</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="5" t="str">
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
@@ -2411,12 +2408,12 @@
         <v xml:space="preserve">**Current health expenditure.** </v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2433,12 +2430,12 @@
         <v xml:space="preserve">**HIV incidence rate.** </v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2455,12 +2452,12 @@
         <v xml:space="preserve">**ITN use by children.** </v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
@@ -2477,12 +2474,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2499,12 +2496,12 @@
         <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2518,12 +2515,12 @@
         <v xml:space="preserve">**Net school enrollment rate, lower secondary.** </v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2537,12 +2534,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
@@ -2556,12 +2553,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
@@ -2575,12 +2572,12 @@
         <v xml:space="preserve">**Asylum seekers.** </v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
@@ -2594,12 +2591,12 @@
         <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{8BFFE4B9-CD5A-4227-B246-8CB0FB37D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB4F277-DBA4-4F66-8A30-3FDA094D49EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78280841-B553-44DD-AA52-B8C385311BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,12 +305,6 @@
     <t>no_data_start_text</t>
   </si>
   <si>
-    <t>**Schools with basic hygiene services.** The share of schools with handwashing facilities with water and soap available is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Health care facilities with basic water services.** The share of health care facilities with water available from an improved source is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Postnatal care for newborns.** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>**Current education expenditure.** The current education expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of total employed adults were high-skilled (levels 3-4)</t>
-  </si>
-  <si>
     <t>**Current health expenditure.** The current health expenditure as a percentage of GDP is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
     <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
   </si>
   <si>
-    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled at early childhood education</t>
-  </si>
-  <si>
     <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
   </si>
   <si>
@@ -416,9 +404,6 @@
     <t>**Asylum seekers (persons).** The number of individuals awaiting a decision on their asylum claims under the mandate of the United Nations High Commissioner for Refugees (UNHCR) is **`ind_value'** persons (`ind_year')</t>
   </si>
   <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at lower secondary is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Adolescent fertility rate.** The number of births for every 1,000 women ages 15-19 is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
@@ -431,9 +416,6 @@
     <t>**Youth mortality rate.**  The mortality rate of youth ages 15–24 is **`ind_value'** per 1,000 youth aged 15 (`ind_year')</t>
   </si>
   <si>
-    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with a fever sought treatment or advice</t>
-  </si>
-  <si>
     <t>**Postnatal care for mothers.** In `ind_year', **`ind_value'%** of mothers (ages 15-49) had postnatal contact with health providers within 2 days of giving birth</t>
   </si>
   <si>
@@ -449,15 +431,6 @@
     <t>**Youth informal employment rate.** The rate of informal employment among working youth (ages 15-24) is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Completeness of birth registration.** Complete birth registration as a share of children under age 5 is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Gross school enrollment rate, tertiary.** Tertiary school enrollment as a percentage of people ages is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Minimum meal frequency.** The percentage of children ages 6-23 months who consume solid, semi-solid or soft foods at least the minimum number of times during the day is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Prevalence of obesity among adults.** The percentage of adults ages 18+ years who are obese is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -479,27 +452,12 @@
     <t>**Care seeking for children with pneumonia symptoms.** The share of children under age 5 with pneumonia symptoms who were taken to a health provider is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Primary school completion rate.** The proportion of children at the entrance age of the last grade of primary school that are enrolled at that grade (regardless of age) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate.** The proportion of children at the entrance age of the last grade of lower secondary school that are enrolled at that grade (regardless of age) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Upper secondary school completion rate.** The proportion of children or youth aged 3-5 years above the intended age for the last grade of upper secondary school who have completed that grade is **`ind_value'%** (`ind_year') </t>
-  </si>
-  <si>
     <t>**Over-age primary students.** The percentage of primary school students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
     <t>**Over-age lower secondary students.** The percentage of lower secondary school students who are older than the typical age for their respective school level is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Qualified teachers in primary education.** The share of  teachers in primary education who have at least the minimum academic qualifications required for teaching is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Qualified teachers in secondary education.** The share of teachers in secondary education who have at least the minimum academic qualifications required for teaching is is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Primary school electricity access.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -527,9 +485,6 @@
     <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children who completed primary school achieved the minimum learning outcomes in reading</t>
   </si>
   <si>
-    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children who completed primary school  achieved the minimum learning outcomes in mathematics</t>
-  </si>
-  <si>
     <t>**Youth literacy rate.** The share of youth (ages 15-24) who are literate is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -537,6 +492,51 @@
   </si>
   <si>
     <t>**Youth to adult unemployment ratio.** The ratio of the youth unemployment rate to the adult unemployment rate is **`ind_value'** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with a fever for whom medical advice or treatment was sought</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency.** The share of children ages 0-23 months who regularly consume an age-appropriate meal is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of employed adults worked in high-skilled occupations</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate.** Upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** Primary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate.** Lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in primary education.** The share of primary school teachers who are qualified is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Qualified teachers in secondary education.** The share of secondary school teachers who are qualified is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Schools with basic hygiene services.** The share of schools with handwashing facilities with water and soap is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Health care facilities with basic water services.** The share of health care facilities with water from an improved source is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Completeness of birth registration.** Complete birth registration as a share of total births in `ind_year' is **`ind_value'%**</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, tertiary.** Tertiary school enrollment as a percentage of people ages 18-24 is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children who completed primary school achieved the minimum learning outcomes in mathematics</t>
+  </si>
+  <si>
+    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled in a pre-primary school education program</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -617,10 +617,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -910,8 +906,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -966,7 +962,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -983,12 +979,12 @@
         <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1010,7 +1006,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1032,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1054,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1076,7 +1072,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1098,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1115,12 +1111,12 @@
         <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1142,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1164,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1186,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1208,7 +1204,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1230,7 +1226,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1252,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1296,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1318,7 +1314,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1340,7 +1336,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1362,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1381,7 +1377,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1403,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1422,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1444,7 +1440,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1461,24 +1457,24 @@
         <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="7" t="str">
+      <c r="B26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
@@ -1488,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1507,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1526,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1545,7 +1541,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1567,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1589,7 +1585,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1606,24 +1602,24 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="7" t="str">
+      <c r="B33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Learning poverty.** </v>
       </c>
@@ -1633,7 +1629,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1655,7 +1651,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="2">IF(D35="%","%","")</f>
@@ -1677,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
@@ -1696,7 +1692,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1715,7 +1711,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1737,7 +1733,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1754,68 +1750,68 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="7" t="str">
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Primary school completion rate.** </v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="7" t="str">
+      <c r="B41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Lower secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="7" t="str">
+      <c r="B42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
@@ -1825,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
@@ -1847,7 +1843,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="2"/>
@@ -1869,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1891,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1908,46 +1904,46 @@
         <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="7" t="str">
+      <c r="B47" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:6" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="7" t="str">
+      <c r="B48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1979,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -2001,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2023,7 +2019,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2045,7 +2041,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2067,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2089,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
@@ -2111,7 +2107,7 @@
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2133,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
@@ -2155,7 +2151,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2177,7 +2173,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2199,7 +2195,7 @@
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -2221,7 +2217,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -2243,7 +2239,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2265,7 +2261,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2287,7 +2283,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2309,7 +2305,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2326,24 +2322,24 @@
         <v xml:space="preserve">**Youth literacy rate.** </v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="7" t="str">
+      <c r="B66" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
@@ -2353,7 +2349,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
@@ -2370,21 +2366,21 @@
         <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="5" t="str">
+      <c r="B68" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="str">
         <f t="shared" si="3"/>
         <v>%</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="5" t="str">
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
@@ -2394,7 +2390,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
@@ -2416,7 +2412,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2438,7 +2434,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2460,7 +2456,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
@@ -2482,7 +2478,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2504,7 +2500,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2523,7 +2519,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2542,7 +2538,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
@@ -2561,7 +2557,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
@@ -2580,7 +2576,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
@@ -2594,12 +2590,12 @@
         <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78280841-B553-44DD-AA52-B8C385311BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>**Postnatal care for newborns.** In `ind_year', **`ind_value'%** of newborns had postnatal contact with health providers during their first two days of life</t>
   </si>
   <si>
-    <t>**Care seeking for children with diarrhoea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Prevalence of hypertension.** The prevalence of hypertension among people ages 30-79 is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>**Stillbirth rate.** The share of babies born with no sign of life at 28 weeks or more of gestation is **`ind_value'** per 1,000 total births (`ind_year')</t>
   </si>
   <si>
-    <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Institutional births.** In `ind_year', **`ind_value'%** of births occurred in health facilities</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>**Adolescent suicide rates.** The suicide rate among youth ages 15-19 years is **`ind_value'** per 100,000 youth (`ind_year')</t>
   </si>
   <si>
-    <t>**Prevalence of anemia in children.** In `ind_year', **`ind_value'%** of children at ages 6–59 months had anemia</t>
-  </si>
-  <si>
     <t>**Care seeking for children with pneumonia symptoms.** The share of children under age 5 with pneumonia symptoms who were taken to a health provider is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -506,15 +497,6 @@
     <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Upper secondary school completion rate.** Upper secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate.** Primary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate.** Lower secondary school completion rate is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Qualified teachers in primary education.** The share of primary school teachers who are qualified is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -536,7 +518,25 @@
     <t>**Minimum proficiency in mathematics, primary.** In `ind_year', **`ind_value'%** of children who completed primary school achieved the minimum learning outcomes in mathematics</t>
   </si>
   <si>
-    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children were enrolled in a pre-primary school education program</t>
+    <t>**Care seeking for children with diarrhea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children at the official age for the corresponding level were enrolled in an early childhood educational development program</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate.** The upper-secondary completion rate at ages 3-5 years above the intended age for the last grade of that level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** The primary school completion rate at the official entrance age of the last grade of that level is  **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Lower secondary school completion rate.** The lower secondary school completion rate at the official entrance age of the last grade of that level is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio at the age group that officially correspond to that level of education is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Prevalence of anemia in children.** In `ind_year', **`ind_value'%** of children ages 6–59 months had anemia</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -621,6 +627,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,20 +916,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,12 +949,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -957,12 +967,12 @@
         <v xml:space="preserve">**Asylum seekers (persons).** </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -979,12 +989,12 @@
         <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1001,12 +1011,12 @@
         <v xml:space="preserve">**Schools with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1023,12 +1033,12 @@
         <v xml:space="preserve">**Health care facilities with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1045,12 +1055,12 @@
         <v xml:space="preserve">**Schools with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1067,12 +1077,12 @@
         <v xml:space="preserve">**Health care facilities with basic water services.** </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1089,7 +1099,7 @@
         <v xml:space="preserve">**Exclusive breastfeeding.** </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1111,12 +1121,12 @@
         <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1133,12 +1143,12 @@
         <v xml:space="preserve">**Care seeking for febrile children.** </v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1155,12 +1165,12 @@
         <v xml:space="preserve">**Postnatal care for mothers.** </v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1177,12 +1187,12 @@
         <v xml:space="preserve">**Children engaged in child labor.** </v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1196,15 +1206,15 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Care seeking for children with diarrhoea.** </v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">**Care seeking for children with diarrhea.** </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1221,12 +1231,12 @@
         <v xml:space="preserve">**Female labor force participation rate.** </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1243,12 +1253,12 @@
         <v xml:space="preserve">**Male labor force participation rate.** </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1265,12 +1275,12 @@
         <v xml:space="preserve">**Youth not in employment, education or training.** </v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1287,12 +1297,12 @@
         <v xml:space="preserve">**Adult informal employment rate.** </v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1309,12 +1319,12 @@
         <v xml:space="preserve">**Youth informal employment rate.** </v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1331,12 +1341,12 @@
         <v xml:space="preserve">**Prevalence of hypertension.** </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1353,12 +1363,12 @@
         <v xml:space="preserve">**Prevalence of insufficient physical activity.** </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1372,12 +1382,12 @@
         <v xml:space="preserve">**Adolescent fertility rate.** </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1394,12 +1404,12 @@
         <v xml:space="preserve">**Completeness of birth registration.** </v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1413,12 +1423,12 @@
         <v xml:space="preserve">**Maternal mortality ratio.** </v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1435,12 +1445,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, secondary.** </v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1457,34 +1467,34 @@
         <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="5" t="str">
+      <c r="B26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1498,12 +1508,12 @@
         <v xml:space="preserve">**Youth mortality rate.** </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1517,12 +1527,12 @@
         <v xml:space="preserve">**Child mortality rate.** </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1536,12 +1546,12 @@
         <v xml:space="preserve">**Neonatal mortality rate.** </v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1558,12 +1568,12 @@
         <v xml:space="preserve">**Prevalence of obesity among adults.** </v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1580,12 +1590,12 @@
         <v xml:space="preserve">**Probability of dying from NCDs.** </v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1602,34 +1612,34 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>%</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="5" t="str">
+      <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Learning poverty.** </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1646,12 +1656,12 @@
         <v xml:space="preserve">**Prevalence of sexual violence.** </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C66" si="2">IF(D35="%","%","")</f>
@@ -1668,12 +1678,12 @@
         <v xml:space="preserve">**Life expectancy at birth.** </v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
@@ -1687,12 +1697,12 @@
         <v xml:space="preserve">**Stillbirth rate.** </v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1706,12 +1716,12 @@
         <v xml:space="preserve">**Adolescent suicide rates.** </v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1728,12 +1738,12 @@
         <v xml:space="preserve">**Prevalence of anemia in children.** </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1750,12 +1760,12 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1772,12 +1782,12 @@
         <v xml:space="preserve">**Primary school completion rate.** </v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1794,12 +1804,12 @@
         <v xml:space="preserve">**Lower secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1816,56 +1826,56 @@
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="B43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Gross enrollment in early childhood education.** </v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="B44" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Pre-primary school gross enrollment ratio.** </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1882,12 +1892,12 @@
         <v xml:space="preserve">**Over-age primary students.** </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1904,56 +1914,56 @@
         <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="5" t="str">
+      <c r="B47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="5" t="str">
+      <c r="B48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1970,12 +1980,12 @@
         <v xml:space="preserve">**Primary school electricity access.** </v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -1992,12 +2002,12 @@
         <v xml:space="preserve">**Adult unemployment rate.** </v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2014,12 +2024,12 @@
         <v xml:space="preserve">**Youth unemployment rate.** </v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2036,12 +2046,12 @@
         <v xml:space="preserve">**Population with basic handwashing facility.** </v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2058,12 +2068,12 @@
         <v xml:space="preserve">**Population with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2080,12 +2090,12 @@
         <v xml:space="preserve">**Population with basic drinking water services.** </v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
@@ -2102,12 +2112,12 @@
         <v xml:space="preserve">**BCG vaccination rate.** </v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2124,12 +2134,12 @@
         <v xml:space="preserve">**Diphtheria vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
@@ -2146,12 +2156,12 @@
         <v xml:space="preserve">**Hepatitis B vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2168,12 +2178,12 @@
         <v xml:space="preserve">**Children who are developmentally on track.** </v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2190,12 +2200,12 @@
         <v xml:space="preserve">**Participation rate in organized learning.** </v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -2212,12 +2222,12 @@
         <v xml:space="preserve">**Institutional births.** </v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -2234,12 +2244,12 @@
         <v xml:space="preserve">**Current education expenditure.** </v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2256,12 +2266,12 @@
         <v xml:space="preserve">**Minimum proficiency in reading, primary.** </v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2278,12 +2288,12 @@
         <v xml:space="preserve">**Minimum proficiency in mathematics, primary.** </v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2300,12 +2310,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2322,34 +2332,34 @@
         <v xml:space="preserve">**Youth literacy rate.** </v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="5" t="str">
+      <c r="B66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
@@ -2366,12 +2376,12 @@
         <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2385,12 +2395,12 @@
         <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
@@ -2407,12 +2417,12 @@
         <v xml:space="preserve">**Current health expenditure.** </v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2429,12 +2439,12 @@
         <v xml:space="preserve">**HIV incidence rate.** </v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2451,12 +2461,12 @@
         <v xml:space="preserve">**ITN use by children.** </v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
@@ -2473,12 +2483,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2495,12 +2505,12 @@
         <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2514,12 +2524,12 @@
         <v xml:space="preserve">**Net school enrollment rate, lower secondary.** </v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2533,12 +2543,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
@@ -2552,12 +2562,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
@@ -2571,12 +2581,12 @@
         <v xml:space="preserve">**Asylum seekers.** </v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
@@ -2590,21 +2600,21 @@
         <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" t="str">
+      <c r="B79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="5" t="str">
         <f t="shared" si="3"/>
         <v>%</v>
       </c>
-      <c r="D79" t="s">
-        <v>54</v>
-      </c>
-      <c r="F79" t="str">
+      <c r="D79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">**Gross enrollment rate, early childhood education.** </v>
       </c>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E422A5D-362E-4DF2-A4AA-97FB28E22649}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,9 +467,6 @@
     <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of the population had access to an improved drinking water source within 30 minutes of their home</t>
   </si>
   <si>
-    <t>**Diphtheria vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of the diphtheria vaccine</t>
-  </si>
-  <si>
     <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children who were one year younger than the official primary school entry age participated in an organized learning program</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>**Prevalence of anemia in children.** In `ind_year', **`ind_value'%** of children ages 6–59 months had anemia</t>
+  </si>
+  <si>
+    <t>**DTP vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of the diphtheria, tetanus and pertussis vaccine</t>
   </si>
 </sst>
 </file>
@@ -916,20 +916,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="68.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -967,7 +967,7 @@
         <v xml:space="preserve">**Asylum seekers (persons).** </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -989,12 +989,12 @@
         <v xml:space="preserve">**Health care facilities with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1011,7 +1011,7 @@
         <v xml:space="preserve">**Schools with basic hygiene services.** </v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v xml:space="preserve">**Health care facilities with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1055,12 +1055,12 @@
         <v xml:space="preserve">**Schools with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
         <v xml:space="preserve">**Health care facilities with basic water services.** </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v xml:space="preserve">**Exclusive breastfeeding.** </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1121,12 +1121,12 @@
         <v xml:space="preserve">**Postnatal care for newborns.** </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1143,7 +1143,7 @@
         <v xml:space="preserve">**Care seeking for febrile children.** </v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v xml:space="preserve">**Postnatal care for mothers.** </v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1187,12 +1187,12 @@
         <v xml:space="preserve">**Children engaged in child labor.** </v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1209,7 +1209,7 @@
         <v xml:space="preserve">**Care seeking for children with diarrhea.** </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v xml:space="preserve">**Female labor force participation rate.** </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v xml:space="preserve">**Male labor force participation rate.** </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v xml:space="preserve">**Youth not in employment, education or training.** </v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v xml:space="preserve">**Adult informal employment rate.** </v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v xml:space="preserve">**Youth informal employment rate.** </v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v xml:space="preserve">**Prevalence of hypertension.** </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v xml:space="preserve">**Prevalence of insufficient physical activity.** </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1382,12 +1382,12 @@
         <v xml:space="preserve">**Adolescent fertility rate.** </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1404,7 +1404,7 @@
         <v xml:space="preserve">**Completeness of birth registration.** </v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v xml:space="preserve">**Maternal mortality ratio.** </v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1445,12 +1445,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, secondary.** </v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1467,12 +1467,12 @@
         <v xml:space="preserve">**Gross school enrollment rate, tertiary.** </v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1489,7 +1489,7 @@
         <v xml:space="preserve">**Minimum meal frequency.** </v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v xml:space="preserve">**Youth mortality rate.** </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v xml:space="preserve">**Child mortality rate.** </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v xml:space="preserve">**Neonatal mortality rate.** </v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v xml:space="preserve">**Prevalence of obesity among adults.** </v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v xml:space="preserve">**Probability of dying from NCDs.** </v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v xml:space="preserve">**Learning poverty.** </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v xml:space="preserve">**Prevalence of sexual violence.** </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v xml:space="preserve">**Life expectancy at birth.** </v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v xml:space="preserve">**Stillbirth rate.** </v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1716,12 +1716,12 @@
         <v xml:space="preserve">**Adolescent suicide rates.** </v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1738,7 +1738,7 @@
         <v xml:space="preserve">**Prevalence of anemia in children.** </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1760,12 +1760,12 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1782,12 +1782,12 @@
         <v xml:space="preserve">**Primary school completion rate.** </v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1804,12 +1804,12 @@
         <v xml:space="preserve">**Lower secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1826,7 +1826,7 @@
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
@@ -1848,12 +1848,12 @@
         <v xml:space="preserve">**Gross enrollment in early childhood education.** </v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1870,7 +1870,7 @@
         <v xml:space="preserve">**Pre-primary school gross enrollment ratio.** </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v xml:space="preserve">**Over-age primary students.** </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1914,12 +1914,12 @@
         <v xml:space="preserve">**Over-age lower secondary students.** </v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
@@ -1936,12 +1936,12 @@
         <v xml:space="preserve">**Qualified teachers in primary education.** </v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
@@ -1958,7 +1958,7 @@
         <v xml:space="preserve">**Qualified teachers in secondary education.** </v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v xml:space="preserve">**Primary school electricity access.** </v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v xml:space="preserve">**Adult unemployment rate.** </v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v xml:space="preserve">**Youth unemployment rate.** </v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v xml:space="preserve">**Population with basic handwashing facility.** </v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v xml:space="preserve">**Population with basic sanitation services.** </v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v xml:space="preserve">**Population with basic drinking water services.** </v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2112,12 +2112,12 @@
         <v xml:space="preserve">**BCG vaccination rate.** </v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2131,10 +2131,10 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Diphtheria vaccination rate, third dose.** </v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">**DTP vaccination rate, third dose.** </v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v xml:space="preserve">**Hepatitis B vaccination rate, third dose.** </v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2178,12 +2178,12 @@
         <v xml:space="preserve">**Children who are developmentally on track.** </v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2200,7 +2200,7 @@
         <v xml:space="preserve">**Participation rate in organized learning.** </v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v xml:space="preserve">**Institutional births.** </v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2244,12 +2244,12 @@
         <v xml:space="preserve">**Current education expenditure.** </v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2266,12 +2266,12 @@
         <v xml:space="preserve">**Minimum proficiency in reading, primary.** </v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2288,7 +2288,7 @@
         <v xml:space="preserve">**Minimum proficiency in mathematics, primary.** </v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2310,12 +2310,12 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2332,12 +2332,12 @@
         <v xml:space="preserve">**Youth literacy rate.** </v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
@@ -2354,7 +2354,7 @@
         <v xml:space="preserve">**Satisfied demand for family planning.** </v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2376,12 +2376,12 @@
         <v xml:space="preserve">**HPV vaccination rate, last dose.** </v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2395,7 +2395,7 @@
         <v xml:space="preserve">**High skill employment rate.** </v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v xml:space="preserve">**Current health expenditure.** </v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v xml:space="preserve">**HIV incidence rate.** </v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v xml:space="preserve">**ITN use by children.** </v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2483,12 +2483,12 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2505,12 +2505,12 @@
         <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2524,7 +2524,7 @@
         <v xml:space="preserve">**Net school enrollment rate, lower secondary.** </v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v xml:space="preserve">**Out of school children.** </v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v xml:space="preserve">**Refugees.** </v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v xml:space="preserve">**Asylum seekers.** </v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2600,12 +2600,12 @@
         <v xml:space="preserve">**Internally Displaced Persons.** </v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="3"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -916,8 +916,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E422A5D-362E-4DF2-A4AA-97FB28E22649}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18AD5ECE-A299-4016-817E-B505B3843A11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,9 +362,6 @@
     <t>**Prevalence of insufficient physical activity.** The share of school-going adolescents (ages 11-17) not meeting WHO recommendations on physical activity for health is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 24-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
-  </si>
-  <si>
     <t>**HIV incidence rate.** The estimated number of new HIV infections per 1,000 uninfected adolescents (ages 10-19 years) is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
     <t>**Care seeking for febrile children.** In `ind_year', **`ind_value'%** of children under age 5 with a fever for whom medical advice or treatment was sought</t>
   </si>
   <si>
-    <t>**Minimum meal frequency.** The share of children ages 0-23 months who regularly consume an age-appropriate meal is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of employed adults worked in high-skilled occupations</t>
   </si>
   <si>
@@ -537,6 +531,12 @@
   </si>
   <si>
     <t>**DTP vaccination rate, third dose.** In `ind_year', **`ind_value'%** of infants received the third dose of the diphtheria, tetanus and pertussis vaccine</t>
+  </si>
+  <si>
+    <t>**Minimum meal frequency.** The share of children ages 6-23 months who regularly consume an age-appropriate meal is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 36-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
   </si>
 </sst>
 </file>
@@ -916,8 +916,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -994,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1060,7 +1060,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1192,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1214,7 +1214,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1236,7 +1236,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1280,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1368,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1387,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1428,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1450,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1472,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1551,7 +1551,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1595,7 +1595,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1617,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1639,7 +1639,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1702,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1721,7 +1721,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1743,7 +1743,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1765,7 +1765,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1787,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1809,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1853,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1875,7 +1875,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1897,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1919,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
@@ -1941,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
@@ -1963,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -2007,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2029,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2051,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2073,7 +2073,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2095,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
@@ -2117,7 +2117,7 @@
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
@@ -2161,7 +2161,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2183,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2249,7 +2249,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2271,7 +2271,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2293,7 +2293,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2315,7 +2315,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2337,7 +2337,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
@@ -2359,7 +2359,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C79" si="3">IF(D67="%","%","")</f>
@@ -2381,7 +2381,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2422,7 +2422,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2444,7 +2444,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2488,7 +2488,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2510,7 +2510,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2529,7 +2529,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2605,7 +2605,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="3"/>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18AD5ECE-A299-4016-817E-B505B3843A11}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FB0507-E369-4F22-AFCA-969BFC4C1E95}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -398,9 +398,6 @@
     <t>**Adolescent fertility rate.** The number of births for every 1,000 women ages 15-19 is **`ind_value'** (`ind_year')</t>
   </si>
   <si>
-    <t>**Gross enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled at early childhood education</t>
-  </si>
-  <si>
     <t>**Child mortality rate.**  The mortality rate for children ages 5-14 is **`ind_value'** per 1,000 children aged 5 (`ind_year')</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
     <t>**Care seeking for children with diarrhea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children at the official age for the corresponding level were enrolled in an early childhood educational development program</t>
-  </si>
-  <si>
     <t>**Upper secondary school completion rate.** The upper-secondary completion rate at ages 3-5 years above the intended age for the last grade of that level is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -537,6 +531,12 @@
   </si>
   <si>
     <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 36-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>**Gross enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled in an early childhood educational development program</t>
+  </si>
+  <si>
+    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children at the official age for the corresponding level were enrolled at early childhood education</t>
   </si>
 </sst>
 </file>
@@ -648,6 +648,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,8 +920,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +998,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1060,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1126,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1148,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1192,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1214,7 +1218,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1236,7 +1240,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1280,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1302,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1387,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1450,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1472,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1494,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1513,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1551,7 +1555,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1595,7 +1599,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1617,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1639,7 +1643,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1706,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1721,7 +1725,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1743,7 +1747,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1765,7 +1769,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1787,7 +1791,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1809,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1826,12 +1830,12 @@
         <v xml:space="preserve">**Upper secondary school completion rate.** </v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1853,7 +1857,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1875,7 +1879,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1897,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1919,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
@@ -1941,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
@@ -1963,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1985,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -2007,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2029,7 +2033,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2051,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2073,7 +2077,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2117,7 +2121,7 @@
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2161,7 +2165,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2183,7 +2187,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2249,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2271,7 +2275,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2315,7 +2319,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2337,7 +2341,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
@@ -2381,7 +2385,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2488,7 +2492,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2510,7 +2514,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2605,7 +2609,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2620,7 +2624,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A76:A78 A74 A2:A57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>

--- a/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/briefs_texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FB0507-E369-4F22-AFCA-969BFC4C1E95}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{0E1B8E99-ACE7-4DD0-B566-889CEC5B3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E0126F-1C0A-4C7B-80D6-9BC7C320E987}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,15 +377,9 @@
     <t xml:space="preserve">**ITN use by children.** In `ind_year', **`ind_value'%** of children under age 5 slept under an insecticide-treated mosquito net the night prior to being surveyed </t>
   </si>
   <si>
-    <t xml:space="preserve">**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled at that level </t>
-  </si>
-  <si>
     <t>**Out of school children.** In `ind_year', **`ind_value'%** of primary-school-age children were out of school</t>
   </si>
   <si>
-    <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children at age 14 (`ind_year')</t>
-  </si>
-  <si>
     <t>**Health care facilities with basic hygiene services.** The share of health care facilities with hygiene facilities near toilets is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -425,9 +419,6 @@
     <t>**Repetition rate in primary education.** In `ind_year', **`ind_value'%** of students in primary school remained in the same grade in the following school year</t>
   </si>
   <si>
-    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of children at the end-of-primary age could not read and understand a simple text, adjusted by out-of-school children</t>
-  </si>
-  <si>
     <t>**Prevalence of sexual violence.** In `ind_year', **`ind_value'%** of women ages 18-29 experienced sexual violence by the age of 18</t>
   </si>
   <si>
@@ -446,9 +437,6 @@
     <t>**Primary school electricity access.** The share of primary schools with access to electricity is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Adult unemployment rate.** Unemployed adults as a share of the adult labor force (ages +25) is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Youth unemployment rate.** Unemployed youth as a share of the youth labor force (ages 15-24) is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -461,9 +449,6 @@
     <t>**Population with basic drinking water services.** In `ind_year', **`ind_value'%** of the population had access to an improved drinking water source within 30 minutes of their home</t>
   </si>
   <si>
-    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children who were one year younger than the official primary school entry age participated in an organized learning program</t>
-  </si>
-  <si>
     <t>**Minimum proficiency in reading, primary.** In `ind_year', **`ind_value'%** of children who completed primary school achieved the minimum learning outcomes in reading</t>
   </si>
   <si>
@@ -482,9 +467,6 @@
     <t>**High skill employment rate.** In `ind_year', **`ind_value'%** of employed adults worked in high-skilled occupations</t>
   </si>
   <si>
-    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled at that level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Qualified teachers in primary education.** The share of primary school teachers who are qualified is **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
@@ -509,18 +491,6 @@
     <t>**Care seeking for children with diarrhea.** The share of children (ages 0-5) with diarrhea who attended a health facility is  **`ind_value'%** (`ind_year')</t>
   </si>
   <si>
-    <t>**Upper secondary school completion rate.** The upper-secondary completion rate at ages 3-5 years above the intended age for the last grade of that level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Primary school completion rate.** The primary school completion rate at the official entrance age of the last grade of that level is  **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Lower secondary school completion rate.** The lower secondary school completion rate at the official entrance age of the last grade of that level is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
-    <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio at the age group that officially correspond to that level of education is **`ind_value'%** (`ind_year')</t>
-  </si>
-  <si>
     <t>**Prevalence of anemia in children.** In `ind_year', **`ind_value'%** of children ages 6–59 months had anemia</t>
   </si>
   <si>
@@ -533,10 +503,40 @@
     <t>**Children who are developmentally on track.** In `ind_year', **`ind_value'%** of children (ages 36-59 months) were developmentally on track in health, learning and psychosocial well-being</t>
   </si>
   <si>
-    <t>**Gross enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled in an early childhood educational development program</t>
-  </si>
-  <si>
-    <t>**Gross enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children at the official age for the corresponding level were enrolled at early childhood education</t>
+    <t>**Net enrollment in early childhood education.** In `ind_year',  **`ind_value'%**  of children were enrolled in an early childhood educational development program</t>
+  </si>
+  <si>
+    <t>**Gross school enrollment rate, secondary.** In `ind_year', **`ind_value'%** of children of secondary school-age were enrolled</t>
+  </si>
+  <si>
+    <t>**Net school enrollment rate, lower secondary.** The percentage of lower secondary school-aged children enrolled is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Net enrollment rate, early childhood education.** In `ind_year', **`ind_value'%** of children at the official age were enrolled at early childhood education</t>
+  </si>
+  <si>
+    <t>**Participation rate in organized learning.** In `ind_year', **`ind_value'%** of children one year younger than the official primary school entry age participated in an organized learning program</t>
+  </si>
+  <si>
+    <t>**Learning poverty.** In `ind_year', **`ind_value'%** of children could not read and understand a simple text, by age 10</t>
+  </si>
+  <si>
+    <t>**Out of school children.** The number of out-of-school children of primary school age is **`ind_value'** per 1,000 children by age 14 (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Adult unemployment rate.** Unemployed adults as a share of the adult labor force (ages 25+) is **`ind_value'%** (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Upper secondary school completion rate.** The upper secondary completion rate is **`ind_value'%** (at ages 3-5 years above the intended age for the last grade of that level) (`ind_year')</t>
+  </si>
+  <si>
+    <t>**Primary school completion rate.** The primary school completion rate is  **`ind_value'%** (by the official entrance age of the last grade) (`ind_year')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Lower secondary school completion rate.** The lower secondary school completion rate is **`ind_value'%** (by the official entrance age of the last grade) (`ind_year') </t>
+  </si>
+  <si>
+    <t>**Pre-primary school gross enrollment ratio.** The pre-primary school gross enrollment ratio is **`ind_value'%**  (by the official age) (`ind_year')</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -976,7 +976,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(D3="%","%","")</f>
@@ -998,7 +998,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1196,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1218,7 +1218,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1240,7 +1240,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1262,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1284,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1306,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1372,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1391,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1454,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1476,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1498,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1555,7 +1555,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1599,7 +1599,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1616,12 +1616,12 @@
         <v xml:space="preserve">**Repetition rate in primary education.** </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1643,7 +1643,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1706,7 +1706,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -1725,7 +1725,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
@@ -1747,7 +1747,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -1764,12 +1764,12 @@
         <v xml:space="preserve">**Care seeking for children with pneumonia symptoms.** </v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1791,7 +1791,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1813,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C43" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1849,15 +1849,15 @@
       </c>
       <c r="F43" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">**Gross enrollment in early childhood education.** </v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">**Net enrollment in early childhood education.** </v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1879,7 +1879,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
@@ -1901,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
@@ -1923,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
@@ -1945,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
@@ -1967,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
@@ -1989,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
@@ -2011,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
@@ -2033,7 +2033,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
@@ -2055,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
@@ -2077,7 +2077,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
@@ -2121,7 +2121,7 @@
         <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
@@ -2165,7 +2165,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
@@ -2187,7 +2187,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -2253,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
@@ -2275,7 +2275,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
@@ -2297,7 +2297,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
@@ -2319,7 +2319,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
@@ -2341,7 +2341,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
@@ -2385,7 +2385,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2492,7 +2492,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2509,12 +2509,12 @@
         <v xml:space="preserve">**Youth to adult unemployment ratio.** </v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2533,7 +2533,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2609,7 +2609,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="F79" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">**Gross enrollment rate, early childhood education.** </v>
+        <v xml:space="preserve">**Net enrollment rate, early childhood education.** </v>
       </c>
     </row>
   </sheetData>
